--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -49,7 +49,7 @@
     <t>ProductionNO.</t>
   </si>
   <si>
-    <t xml:space="preserve"> InvWaf</t>
+    <t>InvWaf</t>
   </si>
   <si>
     <t>InvPart</t>
@@ -6284,7 +6284,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6316,20 +6316,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6479,7 +6465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6572,12 +6558,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6591,12 +6571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6812,16 +6786,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6830,131 +6813,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -6999,15 +6973,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7361,9 +7332,9 @@
   <dimension ref="A1:X373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -20297,57 +20268,57 @@
         <v>3100</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="28"/>
-      <c r="G252" s="28">
+      <c r="F252" s="27"/>
+      <c r="G252" s="27">
         <v>0</v>
       </c>
       <c r="H252" s="24"/>
-      <c r="I252" s="29">
+      <c r="I252" s="28">
         <v>10000</v>
       </c>
-      <c r="J252" s="29">
+      <c r="J252" s="28">
         <v>10000</v>
       </c>
-      <c r="K252" s="29">
-        <v>0</v>
-      </c>
-      <c r="L252" s="29">
-        <v>0</v>
-      </c>
-      <c r="M252" s="29">
+      <c r="K252" s="28">
+        <v>0</v>
+      </c>
+      <c r="L252" s="28">
+        <v>0</v>
+      </c>
+      <c r="M252" s="28">
         <v>1000</v>
       </c>
-      <c r="N252" s="29">
+      <c r="N252" s="28">
         <v>1000</v>
       </c>
-      <c r="O252" s="29">
+      <c r="O252" s="28">
         <v>4500</v>
       </c>
-      <c r="P252" s="29">
+      <c r="P252" s="28">
         <v>12000</v>
       </c>
-      <c r="Q252" s="29">
+      <c r="Q252" s="28">
         <v>20000</v>
       </c>
-      <c r="R252" s="29">
-        <v>0</v>
-      </c>
-      <c r="S252" s="29">
-        <v>0</v>
-      </c>
-      <c r="T252" s="29">
-        <v>0</v>
-      </c>
-      <c r="U252" s="29">
-        <v>0</v>
-      </c>
-      <c r="V252" s="29">
-        <v>0</v>
-      </c>
-      <c r="W252" s="29">
-        <v>0</v>
-      </c>
-      <c r="X252" s="29">
+      <c r="R252" s="28">
+        <v>0</v>
+      </c>
+      <c r="S252" s="28">
+        <v>0</v>
+      </c>
+      <c r="T252" s="28">
+        <v>0</v>
+      </c>
+      <c r="U252" s="28">
+        <v>0</v>
+      </c>
+      <c r="V252" s="28">
+        <v>0</v>
+      </c>
+      <c r="W252" s="28">
+        <v>0</v>
+      </c>
+      <c r="X252" s="28">
         <f t="shared" si="8"/>
         <v>58500</v>
       </c>
@@ -20890,7 +20861,7 @@
         <v>701</v>
       </c>
       <c r="F262" s="23"/>
-      <c r="G262" s="30">
+      <c r="G262" s="29">
         <v>200000</v>
       </c>
       <c r="H262" s="13"/>
@@ -25692,76 +25663,76 @@
       </c>
     </row>
     <row r="372" s="6" customFormat="1" spans="1:24">
-      <c r="A372" s="31" t="s">
+      <c r="A372" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="B372" s="32" t="s">
+      <c r="B372" s="31" t="s">
         <v>699</v>
       </c>
-      <c r="C372" s="31" t="s">
+      <c r="C372" s="30" t="s">
         <v>953</v>
       </c>
-      <c r="D372" s="33">
+      <c r="D372" s="32">
         <v>4643</v>
       </c>
-      <c r="E372" s="33"/>
-      <c r="F372" s="34"/>
-      <c r="G372" s="34">
-        <v>0</v>
-      </c>
-      <c r="H372" s="31"/>
-      <c r="I372" s="35"/>
-      <c r="J372" s="35"/>
-      <c r="K372" s="35"/>
-      <c r="L372" s="35"/>
-      <c r="M372" s="35"/>
-      <c r="N372" s="35"/>
-      <c r="O372" s="35"/>
-      <c r="P372" s="35"/>
-      <c r="Q372" s="35"/>
-      <c r="R372" s="35"/>
-      <c r="S372" s="35"/>
-      <c r="T372" s="35"/>
-      <c r="U372" s="35"/>
-      <c r="V372" s="35"/>
-      <c r="W372" s="35"/>
-      <c r="X372" s="31"/>
+      <c r="E372" s="32"/>
+      <c r="F372" s="33"/>
+      <c r="G372" s="33">
+        <v>0</v>
+      </c>
+      <c r="H372" s="30"/>
+      <c r="I372" s="34"/>
+      <c r="J372" s="34"/>
+      <c r="K372" s="34"/>
+      <c r="L372" s="34"/>
+      <c r="M372" s="34"/>
+      <c r="N372" s="34"/>
+      <c r="O372" s="34"/>
+      <c r="P372" s="34"/>
+      <c r="Q372" s="34"/>
+      <c r="R372" s="34"/>
+      <c r="S372" s="34"/>
+      <c r="T372" s="34"/>
+      <c r="U372" s="34"/>
+      <c r="V372" s="34"/>
+      <c r="W372" s="34"/>
+      <c r="X372" s="30"/>
     </row>
     <row r="373" s="6" customFormat="1" spans="1:24">
-      <c r="A373" s="31" t="s">
+      <c r="A373" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="B373" s="32" t="s">
+      <c r="B373" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="C373" s="31" t="s">
+      <c r="C373" s="30" t="s">
         <v>954</v>
       </c>
-      <c r="D373" s="33">
+      <c r="D373" s="32">
         <v>4643</v>
       </c>
-      <c r="E373" s="33"/>
-      <c r="F373" s="34"/>
-      <c r="G373" s="34">
+      <c r="E373" s="32"/>
+      <c r="F373" s="33"/>
+      <c r="G373" s="33">
         <v>200000</v>
       </c>
-      <c r="H373" s="31"/>
-      <c r="I373" s="35"/>
-      <c r="J373" s="35"/>
-      <c r="K373" s="35"/>
-      <c r="L373" s="35"/>
-      <c r="M373" s="35"/>
-      <c r="N373" s="35"/>
-      <c r="O373" s="35"/>
-      <c r="P373" s="35"/>
-      <c r="Q373" s="35"/>
-      <c r="R373" s="35"/>
-      <c r="S373" s="35"/>
-      <c r="T373" s="35"/>
-      <c r="U373" s="35"/>
-      <c r="V373" s="35"/>
-      <c r="W373" s="35"/>
-      <c r="X373" s="31"/>
+      <c r="H373" s="30"/>
+      <c r="I373" s="34"/>
+      <c r="J373" s="34"/>
+      <c r="K373" s="34"/>
+      <c r="L373" s="34"/>
+      <c r="M373" s="34"/>
+      <c r="N373" s="34"/>
+      <c r="O373" s="34"/>
+      <c r="P373" s="34"/>
+      <c r="Q373" s="34"/>
+      <c r="R373" s="34"/>
+      <c r="S373" s="34"/>
+      <c r="T373" s="34"/>
+      <c r="U373" s="34"/>
+      <c r="V373" s="34"/>
+      <c r="W373" s="34"/>
+      <c r="X373" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:X373">

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\安全库存\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428FBB4D-100F-4ACB-892A-00BBE0AAEE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233593D0-5C5C-4FC3-8746-CA8006C50A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6936,26 +6936,26 @@
   <dimension ref="A1:X373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>6555383</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="19">
@@ -7173,7 +7173,7 @@
         <v>21884608</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>3993834</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="19">
@@ -7317,7 +7317,7 @@
         <v>14330419</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>271</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>3137270</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>208</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>3137270</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>208</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>906390</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>208</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>2391962</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>2553000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>7917498</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>467264</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>1861</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>4707146</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>420232</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1617601</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>687621</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>172</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>759000</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>172</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>423000</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>172</v>
       </c>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="19"/>
@@ -8270,7 +8270,7 @@
         <v>2502000</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>172</v>
       </c>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>172</v>
       </c>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
-        <v>1200000</v>
+        <v>500000</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="19"/>
@@ -8349,7 +8349,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>172</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>172</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>172</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>912000</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>172</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>172</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>172</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>172</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>121100</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>172</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>172</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>172</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>172</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>172</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>172</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>247</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>247</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>247</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>247</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>247</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>247</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>218</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>218</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>218</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>218</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>283</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>283</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>283</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>283</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>283</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>283</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>283</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>283</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>283</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>226</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>226</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>226</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>226</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>213</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>29500</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>304</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>304</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>448</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>448</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>448</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>448</v>
       </c>
@@ -10163,7 +10163,7 @@
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>448</v>
       </c>
@@ -10201,7 +10201,7 @@
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>448</v>
       </c>
@@ -10239,7 +10239,7 @@
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>448</v>
       </c>
@@ -10277,7 +10277,7 @@
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>448</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>448</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>345</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>345</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>345</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>466</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>469</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>53</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>3898818</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>53</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>98061</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>60</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>195521</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>60</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>3453801</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>60</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>1802441</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>60</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>4200815</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>60</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>723927</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>60</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>2165336</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>60</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>2782870</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>60</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>801567</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>1864</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>17267415</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>40</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>40</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>40</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>5040772</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>40</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>2640470</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>40</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>7962489</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>40</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>799188</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>40</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>659000</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>37</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>872998</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>588</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>1516</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>1527537</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>1516</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>1160553</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>70</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>3265500</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>70</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>1034686</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>70</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>2154746</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>70</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>515979</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>70</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>70</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>259190</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>70</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>70</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>3995744</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>79</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>79</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>79</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>79</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>79</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>79</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>79</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>19</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>19</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>19</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>19</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>25</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>25</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>25</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>25</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>25</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>25</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>25</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>25</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>280</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>260</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>1062000</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>260</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>260</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>834865</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>260</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>533070</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>260</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>267</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>-383</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>267</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>255</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>1003678</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>255</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>633</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>633</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>633</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>633</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>633</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>633</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>633</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>277</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>2046</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>462</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>463</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>387</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>1190123</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>387</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>779977</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>387</v>
       </c>
@@ -14076,7 +14076,7 @@
       <c r="W154" s="19"/>
       <c r="X154" s="19"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>387</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>1020385</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>387</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>1679098</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>387</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>387</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>138</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>712306</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>135</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>3275964</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>111</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>1048423</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>111</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>111</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>126</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>21374553</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>126</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>126</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>3422135</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>126</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>4836256</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>402</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>1302738</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>405</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>593969</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>408</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>455050</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>408</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>100120</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>408</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>175361</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>116</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>4321939</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>116</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>601208</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>1872</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>1023948</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>145</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>949360</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>145</v>
       </c>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="X177" s="19"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>145</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>77423</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>145</v>
       </c>
@@ -15545,7 +15545,7 @@
       <c r="W179" s="19"/>
       <c r="X179" s="19"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>145</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>4660934</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>145</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>162648</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>145</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>118379</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>145</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>145</v>
       </c>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="X184" s="19"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>145</v>
       </c>
@@ -15899,7 +15899,7 @@
       <c r="W185" s="19"/>
       <c r="X185" s="19"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>145</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>29989</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>195</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>195</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>4524855</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>195</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>185740</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>195</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>5772310</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>195</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>192</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>141</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>141</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>958868</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>141</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>667600</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>141</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>501209</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>141</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>799830</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>141</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>141</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>623891</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>205</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>2131813</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>167</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>167</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>15631494</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>167</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>167</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>2094209</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>167</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>5828432</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>167</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>1587407</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>170</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>6515386</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>170</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>187</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>11980218</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>187</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>2987884</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>181</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>2546200</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>184</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>6037361</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>309</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>17980</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>309</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>309</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>1228220</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>309</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>740378</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>411</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>6877053</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>397</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>1184157</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>397</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>2958189</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>397</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>397</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>391</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>926858</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>394</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>384</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>455</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>421</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>6620893</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>424</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>424</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>4863116</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>424</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>1038050</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>414</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>414</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>10613938</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>414</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>414</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>7123974</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>414</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>414</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>7233825</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>433</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>433</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>81793</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>433</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>36168</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>433</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>151034</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>433</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>433</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>433</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>352</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>352</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>1173729</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>352</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>352</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>1213147</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>352</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>5136825</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>352</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>1994788</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>358</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>908226</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>362</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>422187</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>4</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>400</v>
       </c>
       <c r="G251" s="4">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="H251" s="3"/>
       <c r="I251" s="19">
@@ -19857,7 +19857,7 @@
         <v>13640865</v>
       </c>
     </row>
-    <row r="252" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="23" t="s">
         <v>4</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>4</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>4</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>239553</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>1655268</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>4</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>4</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>2950367</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>4</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>235750</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>4</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>9279164</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>4</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>4</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>42441</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>365</v>
       </c>
@@ -20565,7 +20565,7 @@
         <v>1245441</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>365</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>406256</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>365</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>477185</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>370</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>86197</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>370</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>18520</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>318</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>318</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>318</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>318</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>318</v>
       </c>
@@ -21042,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>318</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>318</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>318</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>318</v>
       </c>
@@ -21222,7 +21222,7 @@
         <v>409506</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>318</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>31983</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>318</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>8210</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>102</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>6828635</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>102</v>
       </c>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="X280" s="19"/>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>1884</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>370020</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>102</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>2540612</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>102</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>95</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>900075</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>95</v>
       </c>
@@ -21748,7 +21748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>95</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>123</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>123</v>
       </c>
@@ -21893,7 +21893,7 @@
         <v>1784836</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>123</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>9263601</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>123</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>128</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>1772928</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>128</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>1925118</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>128</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>967767</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>128</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>934000</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>128</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>128</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>128</v>
       </c>
@@ -22339,7 +22339,7 @@
       <c r="W297" s="19"/>
       <c r="X297" s="19"/>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>120</v>
       </c>
@@ -22408,7 +22408,7 @@
         <v>21518658</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>375</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>375</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>105991</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>375</v>
       </c>
@@ -22593,7 +22593,7 @@
         <v>47205</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>375</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>375</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>60190</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>375</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>496</v>
       </c>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>496</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>496</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>496</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>496</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>496</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>472</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>472</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>472</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>472</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>472</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>477</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>477</v>
       </c>
@@ -23257,7 +23257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>477</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>477</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>477</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>477</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>477</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>562</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>562</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>562</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>562</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>571</v>
       </c>
@@ -23637,7 +23637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>571</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>571</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>571</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>522</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>522</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>532</v>
       </c>
@@ -23859,7 +23859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>532</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>532</v>
       </c>
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>526</v>
       </c>
@@ -23970,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>526</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>526</v>
       </c>
@@ -24044,7 +24044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>580</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>580</v>
       </c>
@@ -24118,7 +24118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>580</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>580</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>545</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>545</v>
       </c>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>545</v>
       </c>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>545</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>545</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>545</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>545</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>545</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>538</v>
       </c>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>538</v>
       </c>
@@ -24562,7 +24562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>538</v>
       </c>
@@ -24599,7 +24599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>509</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>509</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>509</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>509</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>509</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>509</v>
       </c>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>509</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>509</v>
       </c>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>518</v>
       </c>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>518</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>590</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>590</v>
       </c>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>590</v>
       </c>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>590</v>
       </c>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>590</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>590</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>590</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>590</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="30" t="s">
         <v>4</v>
       </c>
@@ -25301,7 +25301,7 @@
       <c r="W372" s="34"/>
       <c r="X372" s="30"/>
     </row>
-    <row r="373" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="30" t="s">
         <v>4</v>
       </c>
@@ -25357,50 +25357,50 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="19" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="19" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="13" customWidth="1"/>
     <col min="22" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="9.75" bestFit="1" customWidth="1"/>
     <col min="34" max="44" width="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="50" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="50" width="9.75" bestFit="1" customWidth="1"/>
     <col min="51" max="65" width="11" bestFit="1" customWidth="1"/>
-    <col min="66" max="73" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="66" max="73" width="9.75" bestFit="1" customWidth="1"/>
     <col min="74" max="91" width="11" bestFit="1" customWidth="1"/>
-    <col min="92" max="97" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="92" max="97" width="9.75" bestFit="1" customWidth="1"/>
     <col min="98" max="115" width="11" bestFit="1" customWidth="1"/>
-    <col min="116" max="123" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="116" max="123" width="9.75" bestFit="1" customWidth="1"/>
     <col min="124" max="143" width="11" bestFit="1" customWidth="1"/>
-    <col min="144" max="152" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="144" max="152" width="9.75" bestFit="1" customWidth="1"/>
     <col min="153" max="171" width="11" bestFit="1" customWidth="1"/>
-    <col min="172" max="178" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="172" max="178" width="9.75" bestFit="1" customWidth="1"/>
     <col min="179" max="197" width="11" bestFit="1" customWidth="1"/>
-    <col min="198" max="205" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="198" max="205" width="9.75" bestFit="1" customWidth="1"/>
     <col min="206" max="233" width="11" bestFit="1" customWidth="1"/>
-    <col min="234" max="253" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="234" max="253" width="12.25" bestFit="1" customWidth="1"/>
     <col min="254" max="262" width="11" bestFit="1" customWidth="1"/>
-    <col min="263" max="282" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="263" max="282" width="12.25" bestFit="1" customWidth="1"/>
     <col min="283" max="290" width="11" bestFit="1" customWidth="1"/>
-    <col min="291" max="309" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="310" max="317" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="291" max="309" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="310" max="317" width="9.75" bestFit="1" customWidth="1"/>
     <col min="318" max="330" width="11" bestFit="1" customWidth="1"/>
-    <col min="331" max="334" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="331" max="334" width="9.75" bestFit="1" customWidth="1"/>
     <col min="335" max="342" width="11" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="14.125" bestFit="1" customWidth="1"/>
     <col min="344" max="353" width="11" bestFit="1" customWidth="1"/>
-    <col min="354" max="362" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="354" max="362" width="9.75" bestFit="1" customWidth="1"/>
     <col min="363" max="382" width="11" bestFit="1" customWidth="1"/>
-    <col min="383" max="390" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="383" max="390" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>1836</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>746962758.91580999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E4" s="13" t="s">
         <v>1837</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>702</v>
       </c>
@@ -25589,7 +25589,7 @@
       </c>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1135</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>13640865</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1135</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>-43549</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25703,7 +25703,7 @@
         <v>239553</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -25750,7 +25750,7 @@
         <v>1655268</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1457</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>558000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1583</v>
       </c>
@@ -25811,7 +25811,7 @@
         <v>55500</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1583</v>
       </c>
@@ -25831,7 +25831,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>645</v>
       </c>
@@ -25860,7 +25860,7 @@
         <v>5007000</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1790</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>327858</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>635</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>27894437</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>635</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>14105000</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>636</v>
       </c>
@@ -25973,7 +25973,7 @@
         <v>309000</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1219</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>13777</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1222</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>13314</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>637</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>516000</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>718</v>
       </c>
@@ -26053,7 +26053,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>638</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1812</v>
       </c>
@@ -26093,7 +26093,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1809</v>
       </c>
@@ -26113,7 +26113,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1770</v>
       </c>
@@ -26133,7 +26133,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1688</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1690</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>639</v>
       </c>
@@ -26228,7 +26228,7 @@
         <v>64568190</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1626</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>1344000</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -26280,7 +26280,7 @@
         <v>3993834</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -26324,7 +26324,7 @@
         <v>5692326</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1559</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>79360</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1559</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>1448177</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>856</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>6130</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1554</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1017</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1535</v>
       </c>
@@ -26465,7 +26465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1588</v>
       </c>
@@ -26485,7 +26485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1676</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1615</v>
       </c>
@@ -26528,7 +26528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1427</v>
       </c>
@@ -26548,7 +26548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1425</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1543</v>
       </c>
@@ -26588,7 +26588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1423</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1541</v>
       </c>
@@ -26628,7 +26628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1429</v>
       </c>
@@ -26648,7 +26648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1539</v>
       </c>
@@ -26668,7 +26668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1760</v>
       </c>
@@ -26691,7 +26691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1655</v>
       </c>
@@ -26711,7 +26711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1824</v>
       </c>
@@ -26731,7 +26731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1246</v>
       </c>
@@ -26751,7 +26751,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1507</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1740</v>
       </c>
@@ -26791,7 +26791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1454</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1592</v>
       </c>
@@ -26834,7 +26834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1710</v>
       </c>
@@ -26854,7 +26854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1663</v>
       </c>
@@ -26874,7 +26874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1792</v>
       </c>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>825</v>
       </c>
@@ -26914,7 +26914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1479</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>843</v>
       </c>
@@ -26960,7 +26960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1674</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1776</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1763</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1661</v>
       </c>
@@ -27058,7 +27058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>750</v>
       </c>
@@ -27078,7 +27078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>751</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1659</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1613</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1738</v>
       </c>
@@ -27164,7 +27164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>1216848</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -27213,7 +27213,7 @@
         <v>5292425</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>5151347</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1562</v>
       </c>
@@ -27274,7 +27274,7 @@
         <v>2973509</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -27294,7 +27294,7 @@
         <v>1968824</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -27332,7 +27332,7 @@
         <v>7917498</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1595</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>467264</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>4707146</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>1617601</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1537</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>420232</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1815</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>687621</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>872998</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>1158418</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>911560</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -27599,7 +27599,7 @@
         <v>112221</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -27625,7 +27625,7 @@
         <v>1008000</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>1665000</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>5115772</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -27766,7 +27766,7 @@
         <v>659000</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -27851,7 +27851,7 @@
         <v>2735470</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>398410</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>199974</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>7962489</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>799188</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -28080,7 +28080,7 @@
         <v>4108818</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>54</v>
       </c>
@@ -28115,7 +28115,7 @@
         <v>148061</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1316</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>46268</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -28158,7 +28158,7 @@
         <v>971887</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>195521</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>3453801</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>61</v>
       </c>
@@ -28251,7 +28251,7 @@
         <v>4200815</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -28271,7 +28271,7 @@
         <v>723927</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>63</v>
       </c>
@@ -28333,7 +28333,7 @@
         <v>2165336</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>2782870</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>65</v>
       </c>
@@ -28421,7 +28421,7 @@
         <v>801567</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>65</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>17267415</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>68</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>3265500</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>68</v>
       </c>
@@ -28544,7 +28544,7 @@
         <v>1034686</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>68</v>
       </c>
@@ -28564,7 +28564,7 @@
         <v>515979</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -28590,7 +28590,7 @@
         <v>779332</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -28613,7 +28613,7 @@
         <v>2154746</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -28633,7 +28633,7 @@
         <v>259190</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>75</v>
       </c>
@@ -28662,7 +28662,7 @@
         <v>3995744</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -28697,7 +28697,7 @@
         <v>2190211</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>77</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>8203861</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>77</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>77</v>
       </c>
@@ -28796,7 +28796,7 @@
         <v>8320159</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1620</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>257826</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>80</v>
       </c>
@@ -28836,7 +28836,7 @@
         <v>1273901</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>80</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>11453310</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>82</v>
       </c>
@@ -28921,7 +28921,7 @@
         <v>22552084</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>82</v>
       </c>
@@ -28968,7 +28968,7 @@
         <v>4829485</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>82</v>
       </c>
@@ -28991,7 +28991,7 @@
         <v>487360</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>84</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>305439</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>721414</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -29051,7 +29051,7 @@
         <v>1140747</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>454</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>161707</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>86</v>
       </c>
@@ -29094,7 +29094,7 @@
         <v>764920</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>86</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>261076</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -29146,7 +29146,7 @@
         <v>2579987</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>90</v>
       </c>
@@ -29166,7 +29166,7 @@
         <v>519306</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>91</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>237318</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1445</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>92</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>2147815</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -29261,7 +29261,7 @@
         <v>2296779</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1832</v>
       </c>
@@ -29281,7 +29281,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>93</v>
       </c>
@@ -29331,7 +29331,7 @@
         <v>900075</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>100</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>6786635</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>100</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>101</v>
       </c>
@@ -29436,7 +29436,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -29495,7 +29495,7 @@
         <v>380020</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>105</v>
       </c>
@@ -29560,7 +29560,7 @@
         <v>2543612</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>107</v>
       </c>
@@ -29613,7 +29613,7 @@
         <v>163000</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>109</v>
       </c>
@@ -29663,7 +29663,7 @@
         <v>1048423</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -29686,7 +29686,7 @@
         <v>-312</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>114</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>4321939</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>115</v>
       </c>
@@ -29768,7 +29768,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>117</v>
       </c>
@@ -29827,7 +29827,7 @@
         <v>652208</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>117</v>
       </c>
@@ -29847,7 +29847,7 @@
         <v>160506</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1460</v>
       </c>
@@ -29867,7 +29867,7 @@
         <v>303138</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>121</v>
       </c>
@@ -29887,7 +29887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>124</v>
       </c>
@@ -29907,7 +29907,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>124</v>
       </c>
@@ -29927,7 +29927,7 @@
         <v>546000</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>124</v>
       </c>
@@ -29959,7 +29959,7 @@
         <v>1263000</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>124</v>
       </c>
@@ -29988,7 +29988,7 @@
         <v>3095601</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>124</v>
       </c>
@@ -30011,7 +30011,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>124</v>
       </c>
@@ -30052,7 +30052,7 @@
         <v>2291658</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>124</v>
       </c>
@@ -30075,7 +30075,7 @@
         <v>-2323</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>124</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>18398946</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>124</v>
       </c>
@@ -30178,7 +30178,7 @@
         <v>3007930</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>124</v>
       </c>
@@ -30207,7 +30207,7 @@
         <v>6315000</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>127</v>
       </c>
@@ -30251,7 +30251,7 @@
         <v>6168000</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>127</v>
       </c>
@@ -30274,7 +30274,7 @@
         <v>1652928</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>127</v>
       </c>
@@ -30303,7 +30303,7 @@
         <v>1238836</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>127</v>
       </c>
@@ -30323,7 +30323,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>129</v>
       </c>
@@ -30343,7 +30343,7 @@
         <v>237000</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>129</v>
       </c>
@@ -30387,7 +30387,7 @@
         <v>12048000</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>125</v>
       </c>
@@ -30407,7 +30407,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>1074000</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>125</v>
       </c>
@@ -30450,7 +30450,7 @@
         <v>4404000</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>130</v>
       </c>
@@ -30470,7 +30470,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>130</v>
       </c>
@@ -30499,7 +30499,7 @@
         <v>2384649</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>130</v>
       </c>
@@ -30522,7 +30522,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>130</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>410843</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>130</v>
       </c>
@@ -30604,7 +30604,7 @@
         <v>3422135</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>130</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>4836256</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>131</v>
       </c>
@@ -30653,7 +30653,7 @@
         <v>1925118</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>132</v>
       </c>
@@ -30676,7 +30676,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -30699,7 +30699,7 @@
         <v>967767</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>132</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>935000</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>132</v>
       </c>
@@ -30772,7 +30772,7 @@
         <v>888558</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>133</v>
       </c>
@@ -30810,7 +30810,7 @@
         <v>3275964</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>136</v>
       </c>
@@ -30851,7 +30851,7 @@
         <v>712306</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1408</v>
       </c>
@@ -30889,7 +30889,7 @@
         <v>482563</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1048</v>
       </c>
@@ -30909,7 +30909,7 @@
         <v>37660</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1717</v>
       </c>
@@ -30932,7 +30932,7 @@
         <v>796938</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>139</v>
       </c>
@@ -30955,7 +30955,7 @@
         <v>63116</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>139</v>
       </c>
@@ -30981,7 +30981,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>139</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>715752</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>143</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>961360</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>146</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>208772</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>146</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>77423</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>146</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>151789</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>148</v>
       </c>
@@ -31242,7 +31242,7 @@
         <v>667600</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>150</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>4762934</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>152</v>
       </c>
@@ -31357,7 +31357,7 @@
         <v>162648</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>154</v>
       </c>
@@ -31383,7 +31383,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>154</v>
       </c>
@@ -31436,7 +31436,7 @@
         <v>354209</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>156</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>118379</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>158</v>
       </c>
@@ -31494,7 +31494,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>158</v>
       </c>
@@ -31550,7 +31550,7 @@
         <v>727830</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1100</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>645209</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>161</v>
       </c>
@@ -31635,7 +31635,7 @@
         <v>280127</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1305</v>
       </c>
@@ -31655,7 +31655,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1202</v>
       </c>
@@ -31687,7 +31687,7 @@
         <v>266040</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1264</v>
       </c>
@@ -31713,7 +31713,7 @@
         <v>62724</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -31733,7 +31733,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>163</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>163</v>
       </c>
@@ -31782,7 +31782,7 @@
         <v>49989</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1526</v>
       </c>
@@ -31802,7 +31802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1526</v>
       </c>
@@ -31825,7 +31825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1526</v>
       </c>
@@ -31848,7 +31848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>165</v>
       </c>
@@ -31868,7 +31868,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>168</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>423000</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>168</v>
       </c>
@@ -31914,7 +31914,7 @@
         <v>837000</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>168</v>
       </c>
@@ -31976,7 +31976,7 @@
         <v>6515386</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1496</v>
       </c>
@@ -32005,7 +32005,7 @@
         <v>818615</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>173</v>
       </c>
@@ -32034,7 +32034,7 @@
         <v>2937000</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>173</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>14077638</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>173</v>
       </c>
@@ -32146,7 +32146,7 @@
         <v>1553856</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>171</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>492000</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>176</v>
       </c>
@@ -32189,7 +32189,7 @@
         <v>590000</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>176</v>
       </c>
@@ -32209,7 +32209,7 @@
         <v>334909</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>176</v>
       </c>
@@ -32229,7 +32229,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>176</v>
       </c>
@@ -32291,7 +32291,7 @@
         <v>5828432</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>176</v>
       </c>
@@ -32338,7 +32338,7 @@
         <v>2094209</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>179</v>
       </c>
@@ -32403,7 +32403,7 @@
         <v>2546400</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>182</v>
       </c>
@@ -32429,7 +32429,7 @@
         <v>327434</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>182</v>
       </c>
@@ -32479,7 +32479,7 @@
         <v>470200</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>182</v>
       </c>
@@ -32541,7 +32541,7 @@
         <v>6183361</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>185</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>185</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>492000</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>185</v>
       </c>
@@ -32640,7 +32640,7 @@
         <v>11980218</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>188</v>
       </c>
@@ -32660,7 +32660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>188</v>
       </c>
@@ -32695,7 +32695,7 @@
         <v>989352</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>188</v>
       </c>
@@ -32721,7 +32721,7 @@
         <v>1998532</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>190</v>
       </c>
@@ -32765,7 +32765,7 @@
         <v>234538</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>193</v>
       </c>
@@ -32827,7 +32827,7 @@
         <v>4524855</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>193</v>
       </c>
@@ -32847,7 +32847,7 @@
         <v>404126</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>197</v>
       </c>
@@ -32900,7 +32900,7 @@
         <v>185740</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>199</v>
       </c>
@@ -32965,7 +32965,7 @@
         <v>5892310</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>201</v>
       </c>
@@ -33006,7 +33006,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>203</v>
       </c>
@@ -33053,7 +33053,7 @@
         <v>2131813</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1487</v>
       </c>
@@ -33073,7 +33073,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1487</v>
       </c>
@@ -33093,7 +33093,7 @@
         <v>79348</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1602</v>
       </c>
@@ -33116,7 +33116,7 @@
         <v>42169</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>206</v>
       </c>
@@ -33157,7 +33157,7 @@
         <v>3095101</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>209</v>
       </c>
@@ -33210,7 +33210,7 @@
         <v>906390</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>211</v>
       </c>
@@ -33245,7 +33245,7 @@
         <v>29500</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>214</v>
       </c>
@@ -33292,7 +33292,7 @@
         <v>851225</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>214</v>
       </c>
@@ -33336,7 +33336,7 @@
         <v>1540737</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>215</v>
       </c>
@@ -33356,7 +33356,7 @@
         <v>121100</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1735</v>
       </c>
@@ -33385,7 +33385,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -33405,7 +33405,7 @@
         <v>25357</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>216</v>
       </c>
@@ -33431,7 +33431,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>217</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>222</v>
       </c>
@@ -33492,7 +33492,7 @@
         <v>130500</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>224</v>
       </c>
@@ -33521,7 +33521,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1546</v>
       </c>
@@ -33544,7 +33544,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>232</v>
       </c>
@@ -33573,7 +33573,7 @@
         <v>648948</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>233</v>
       </c>
@@ -33611,7 +33611,7 @@
         <v>1587407</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>237</v>
       </c>
@@ -33634,7 +33634,7 @@
         <v>331309</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>253</v>
       </c>
@@ -33690,7 +33690,7 @@
         <v>1318678</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>256</v>
       </c>
@@ -33722,7 +33722,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>256</v>
       </c>
@@ -33757,7 +33757,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>258</v>
       </c>
@@ -33807,7 +33807,7 @@
         <v>1062000</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>262</v>
       </c>
@@ -33827,7 +33827,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>263</v>
       </c>
@@ -33850,7 +33850,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>263</v>
       </c>
@@ -33906,7 +33906,7 @@
         <v>834865</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>263</v>
       </c>
@@ -33938,7 +33938,7 @@
         <v>533070</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1567</v>
       </c>
@@ -33958,7 +33958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>265</v>
       </c>
@@ -33981,7 +33981,7 @@
         <v>-383</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>642</v>
       </c>
@@ -34004,7 +34004,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>644</v>
       </c>
@@ -34039,7 +34039,7 @@
         <v>7994867</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>644</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>36364274</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>644</v>
       </c>
@@ -34133,7 +34133,7 @@
         <v>6698377</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1267</v>
       </c>
@@ -34171,7 +34171,7 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>272</v>
       </c>
@@ -34191,7 +34191,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>273</v>
       </c>
@@ -34211,7 +34211,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>273</v>
       </c>
@@ -34231,7 +34231,7 @@
         <v>2343000</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>273</v>
       </c>
@@ -34251,7 +34251,7 @@
         <v>771000</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>273</v>
       </c>
@@ -34274,7 +34274,7 @@
         <v>4176000</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>273</v>
       </c>
@@ -34297,7 +34297,7 @@
         <v>22479000</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>273</v>
       </c>
@@ -34317,7 +34317,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>281</v>
       </c>
@@ -34343,7 +34343,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -34366,7 +34366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -34392,7 +34392,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>294</v>
       </c>
@@ -34415,7 +34415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -34441,7 +34441,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -34461,7 +34461,7 @@
         <v>67955</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1380</v>
       </c>
@@ -34481,7 +34481,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1737</v>
       </c>
@@ -34504,7 +34504,7 @@
         <v>3983740</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1022</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>1802441</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1751</v>
       </c>
@@ -34550,7 +34550,7 @@
         <v>910228</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>307</v>
       </c>
@@ -34579,7 +34579,7 @@
         <v>17980</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>312</v>
       </c>
@@ -34620,7 +34620,7 @@
         <v>1228220</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>314</v>
       </c>
@@ -34655,7 +34655,7 @@
         <v>740378</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>319</v>
       </c>
@@ -34696,7 +34696,7 @@
         <v>25060</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>323</v>
       </c>
@@ -34716,7 +34716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>325</v>
       </c>
@@ -34748,7 +34748,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>802</v>
       </c>
@@ -34792,7 +34792,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>763</v>
       </c>
@@ -34812,7 +34812,7 @@
         <v>-88514</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>763</v>
       </c>
@@ -34877,7 +34877,7 @@
         <v>2929823</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>763</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>108323</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1806</v>
       </c>
@@ -34920,7 +34920,7 @@
         <v>9735</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>328</v>
       </c>
@@ -34943,7 +34943,7 @@
         <v>235750</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>328</v>
       </c>
@@ -35005,7 +35005,7 @@
         <v>9279164</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>331</v>
       </c>
@@ -35025,7 +35025,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>332</v>
       </c>
@@ -35045,7 +35045,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>333</v>
       </c>
@@ -35089,7 +35089,7 @@
         <v>109653</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>333</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>26172</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1329</v>
       </c>
@@ -35141,7 +35141,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>335</v>
       </c>
@@ -35164,7 +35164,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>903</v>
       </c>
@@ -35202,7 +35202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>904</v>
       </c>
@@ -35222,7 +35222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>904</v>
       </c>
@@ -35248,7 +35248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -35295,7 +35295,7 @@
         <v>409506</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>339</v>
       </c>
@@ -35321,7 +35321,7 @@
         <v>31983</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>341</v>
       </c>
@@ -35347,7 +35347,7 @@
         <v>8210</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1326</v>
       </c>
@@ -35370,7 +35370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1403</v>
       </c>
@@ -35393,7 +35393,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -35437,7 +35437,7 @@
         <v>1082475</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1505</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>58487</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1702</v>
       </c>
@@ -35504,7 +35504,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>808</v>
       </c>
@@ -35542,7 +35542,7 @@
         <v>443838</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>808</v>
       </c>
@@ -35607,7 +35607,7 @@
         <v>5236825</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>354</v>
       </c>
@@ -35663,7 +35663,7 @@
         <v>769309</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>355</v>
       </c>
@@ -35683,7 +35683,7 @@
         <v>156426</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>795</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>787</v>
       </c>
@@ -35762,7 +35762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>787</v>
       </c>
@@ -35782,7 +35782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1296</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>740226</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>356</v>
       </c>
@@ -35858,7 +35858,7 @@
         <v>258000</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>359</v>
       </c>
@@ -35914,7 +35914,7 @@
         <v>1994788</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1014</v>
       </c>
@@ -35934,7 +35934,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>974</v>
       </c>
@@ -35954,7 +35954,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>360</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>422187</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>877</v>
       </c>
@@ -36024,7 +36024,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>877</v>
       </c>
@@ -36062,7 +36062,7 @@
         <v>50229</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>782</v>
       </c>
@@ -36094,7 +36094,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1440</v>
       </c>
@@ -36120,7 +36120,7 @@
         <v>8057</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1302</v>
       </c>
@@ -36167,7 +36167,7 @@
         <v>318069</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>851</v>
       </c>
@@ -36208,7 +36208,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1097</v>
       </c>
@@ -36246,7 +36246,7 @@
         <v>28979</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>849</v>
       </c>
@@ -36284,7 +36284,7 @@
         <v>90392</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>805</v>
       </c>
@@ -36322,7 +36322,7 @@
         <v>9621</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>879</v>
       </c>
@@ -36345,7 +36345,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1307</v>
       </c>
@@ -36368,7 +36368,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1010</v>
       </c>
@@ -36400,7 +36400,7 @@
         <v>7511</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1822</v>
       </c>
@@ -36420,7 +36420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1417</v>
       </c>
@@ -36449,7 +36449,7 @@
         <v>20320</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>913</v>
       </c>
@@ -36508,7 +36508,7 @@
         <v>531595</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1060</v>
       </c>
@@ -36546,7 +36546,7 @@
         <v>32507</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1050</v>
       </c>
@@ -36578,7 +36578,7 @@
         <v>20388</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1210</v>
       </c>
@@ -36607,7 +36607,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>928</v>
       </c>
@@ -36639,7 +36639,7 @@
         <v>22146</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1419</v>
       </c>
@@ -36662,7 +36662,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1410</v>
       </c>
@@ -36697,7 +36697,7 @@
         <v>29655</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>926</v>
       </c>
@@ -36744,7 +36744,7 @@
         <v>20946</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -36770,7 +36770,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -36790,7 +36790,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -36810,7 +36810,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -36836,7 +36836,7 @@
         <v>58805</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -36889,7 +36889,7 @@
         <v>347451</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -36939,7 +36939,7 @@
         <v>477185</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1746</v>
       </c>
@@ -36968,7 +36968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1065</v>
       </c>
@@ -36988,7 +36988,7 @@
         <v>17851</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -37029,7 +37029,7 @@
         <v>78063</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>368</v>
       </c>
@@ -37061,7 +37061,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>368</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -37110,7 +37110,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>371</v>
       </c>
@@ -37151,7 +37151,7 @@
         <v>15480</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1513</v>
       </c>
@@ -37171,7 +37171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>373</v>
       </c>
@@ -37212,7 +37212,7 @@
         <v>105991</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>863</v>
       </c>
@@ -37241,7 +37241,7 @@
         <v>18205</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>863</v>
       </c>
@@ -37270,7 +37270,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -37329,7 +37329,7 @@
         <v>60190</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -37355,7 +37355,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1491</v>
       </c>
@@ -37393,7 +37393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1057</v>
       </c>
@@ -37413,7 +37413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1057</v>
       </c>
@@ -37439,7 +37439,7 @@
         <v>39295</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -37465,7 +37465,7 @@
         <v>662965</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>382</v>
       </c>
@@ -37494,7 +37494,7 @@
         <v>738015</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>382</v>
       </c>
@@ -37523,7 +37523,7 @@
         <v>1723275</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1708</v>
       </c>
@@ -37549,7 +37549,7 @@
         <v>215190</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>385</v>
       </c>
@@ -37569,7 +37569,7 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>385</v>
       </c>
@@ -37604,7 +37604,7 @@
         <v>779977</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>385</v>
       </c>
@@ -37639,7 +37639,7 @@
         <v>156995</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>385</v>
       </c>
@@ -37680,7 +37680,7 @@
         <v>1020385</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>385</v>
       </c>
@@ -37730,7 +37730,7 @@
         <v>1190123</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>385</v>
       </c>
@@ -37795,7 +37795,7 @@
         <v>1705098</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>386</v>
       </c>
@@ -37815,7 +37815,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>389</v>
       </c>
@@ -37856,7 +37856,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>389</v>
       </c>
@@ -37912,7 +37912,7 @@
         <v>885318</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>392</v>
       </c>
@@ -37932,7 +37932,7 @@
         <v>4318</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>392</v>
       </c>
@@ -37958,7 +37958,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>392</v>
       </c>
@@ -37990,7 +37990,7 @@
         <v>171882</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>952</v>
       </c>
@@ -38013,7 +38013,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>952</v>
       </c>
@@ -38036,7 +38036,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>952</v>
       </c>
@@ -38062,7 +38062,7 @@
         <v>189553</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>952</v>
       </c>
@@ -38109,7 +38109,7 @@
         <v>894985</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>395</v>
       </c>
@@ -38165,7 +38165,7 @@
         <v>1640974</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>395</v>
       </c>
@@ -38200,7 +38200,7 @@
         <v>1329249</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>395</v>
       </c>
@@ -38223,7 +38223,7 @@
         <v>7966</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>400</v>
       </c>
@@ -38282,7 +38282,7 @@
         <v>1302738</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>403</v>
       </c>
@@ -38308,7 +38308,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>403</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>586969</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>406</v>
       </c>
@@ -38426,7 +38426,7 @@
         <v>455050</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>406</v>
       </c>
@@ -38464,7 +38464,7 @@
         <v>129622</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>406</v>
       </c>
@@ -38511,7 +38511,7 @@
         <v>225361</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>409</v>
       </c>
@@ -38573,7 +38573,7 @@
         <v>6877053</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -38599,7 +38599,7 @@
         <v>142740</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>412</v>
       </c>
@@ -38619,7 +38619,7 @@
         <v>29860</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>412</v>
       </c>
@@ -38666,7 +38666,7 @@
         <v>2494987</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>412</v>
       </c>
@@ -38689,7 +38689,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>412</v>
       </c>
@@ -38709,7 +38709,7 @@
         <v>13391</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>412</v>
       </c>
@@ -38768,7 +38768,7 @@
         <v>7335960</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>412</v>
       </c>
@@ -38800,7 +38800,7 @@
         <v>316500</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>417</v>
       </c>
@@ -38826,7 +38826,7 @@
         <v>157974</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>417</v>
       </c>
@@ -38891,7 +38891,7 @@
         <v>6913500</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>418</v>
       </c>
@@ -38914,7 +38914,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>415</v>
       </c>
@@ -38934,7 +38934,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>419</v>
       </c>
@@ -38993,7 +38993,7 @@
         <v>6588000</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>419</v>
       </c>
@@ -39019,7 +39019,7 @@
         <v>32893</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>422</v>
       </c>
@@ -39054,7 +39054,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>422</v>
       </c>
@@ -39119,7 +39119,7 @@
         <v>3770825</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>422</v>
       </c>
@@ -39139,7 +39139,7 @@
         <v>72291</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>422</v>
       </c>
@@ -39165,7 +39165,7 @@
         <v>347357</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>426</v>
       </c>
@@ -39221,7 +39221,7 @@
         <v>1038050</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>428</v>
       </c>
@@ -39244,7 +39244,7 @@
         <v>107325</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>428</v>
       </c>
@@ -39285,7 +39285,7 @@
         <v>5572888</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>428</v>
       </c>
@@ -39311,7 +39311,7 @@
         <v>1033112</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>428</v>
       </c>
@@ -39343,7 +39343,7 @@
         <v>220500</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>428</v>
       </c>
@@ -39363,7 +39363,7 @@
         <v>228000</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>430</v>
       </c>
@@ -39386,7 +39386,7 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>434</v>
       </c>
@@ -39433,7 +39433,7 @@
         <v>81793</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>436</v>
       </c>
@@ -39468,7 +39468,7 @@
         <v>36168</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -39530,7 +39530,7 @@
         <v>151034</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>442</v>
       </c>
@@ -39591,7 +39591,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>445</v>
       </c>
@@ -39611,7 +39611,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>447</v>
       </c>
@@ -39631,7 +39631,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>450</v>
       </c>
@@ -39651,7 +39651,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1352</v>
       </c>
@@ -39674,7 +39674,7 @@
         <v>390339</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>456</v>
       </c>
@@ -39718,7 +39718,7 @@
         <v>12866853</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>12</v>
       </c>
@@ -39738,7 +39738,7 @@
         <v>1463566</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>457</v>
       </c>
@@ -39791,7 +39791,7 @@
         <v>18421893</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>15</v>
       </c>
@@ -39814,7 +39814,7 @@
         <v>5056599</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>15</v>
       </c>
@@ -39837,7 +39837,7 @@
         <v>1297691</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>458</v>
       </c>
@@ -39863,7 +39863,7 @@
         <v>881097</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>458</v>
       </c>
@@ -39883,7 +39883,7 @@
         <v>279456</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1080</v>
       </c>
@@ -39906,7 +39906,7 @@
         <v>48216</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1080</v>
       </c>
@@ -39926,7 +39926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>646</v>
       </c>
@@ -39946,7 +39946,7 @@
         <v>110348</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1384</v>
       </c>
@@ -39972,7 +39972,7 @@
         <v>437293</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1030</v>
       </c>
@@ -39992,7 +39992,7 @@
         <v>277500</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>464</v>
       </c>
@@ -40018,7 +40018,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1111</v>
       </c>
@@ -40038,7 +40038,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>811</v>
       </c>
@@ -40061,7 +40061,7 @@
         <v>1012000</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>467</v>
       </c>
@@ -40084,7 +40084,7 @@
         <v>1535455</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>34</v>
       </c>
@@ -40113,7 +40113,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1579</v>
       </c>
@@ -40133,7 +40133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1704</v>
       </c>
@@ -40153,7 +40153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>255</v>
       </c>
@@ -40182,7 +40182,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>633</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>734</v>
       </c>
@@ -40261,7 +40261,7 @@
         <v>339.91580999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1288</v>
       </c>
@@ -40281,7 +40281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>472</v>
       </c>
@@ -40301,7 +40301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>477</v>
       </c>
@@ -40324,7 +40324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>120</v>
       </c>
@@ -40344,7 +40344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>475</v>
       </c>
@@ -40364,7 +40364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>488</v>
       </c>
@@ -40384,7 +40384,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>836</v>
       </c>
@@ -40416,7 +40416,7 @@
         <v>172100</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>836</v>
       </c>
@@ -40436,7 +40436,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>500</v>
       </c>
@@ -40480,7 +40480,7 @@
         <v>378000</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>502</v>
       </c>
@@ -40515,7 +40515,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>504</v>
       </c>
@@ -40538,7 +40538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>506</v>
       </c>
@@ -40561,7 +40561,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1249</v>
       </c>
@@ -40581,7 +40581,7 @@
         <v>49059</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1772</v>
       </c>
@@ -40601,7 +40601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1377</v>
       </c>
@@ -40621,7 +40621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1375</v>
       </c>
@@ -40641,7 +40641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1359</v>
       </c>
@@ -40661,7 +40661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1373</v>
       </c>
@@ -40681,7 +40681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1357</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1371</v>
       </c>
@@ -40721,7 +40721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>562</v>
       </c>
@@ -40741,7 +40741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1369</v>
       </c>
@@ -40761,7 +40761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>571</v>
       </c>
@@ -40781,7 +40781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1367</v>
       </c>
@@ -40801,7 +40801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1362</v>
       </c>
@@ -40827,7 +40827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1365</v>
       </c>
@@ -40847,7 +40847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>512</v>
       </c>
@@ -40870,7 +40870,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>514</v>
       </c>
@@ -40890,7 +40890,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -40910,7 +40910,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -40930,7 +40930,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>523</v>
       </c>
@@ -40950,7 +40950,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>535</v>
       </c>
@@ -40970,7 +40970,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>536</v>
       </c>
@@ -40990,7 +40990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>560</v>
       </c>
@@ -41010,7 +41010,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>563</v>
       </c>
@@ -41030,7 +41030,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>563</v>
       </c>
@@ -41050,7 +41050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>572</v>
       </c>
@@ -41073,7 +41073,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>574</v>
       </c>
@@ -41093,7 +41093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>581</v>
       </c>
@@ -41113,7 +41113,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>586</v>
       </c>
@@ -41157,7 +41157,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>586</v>
       </c>
@@ -41186,7 +41186,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>589</v>
       </c>
@@ -41206,7 +41206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1706</v>
       </c>
@@ -41226,7 +41226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1712</v>
       </c>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>592</v>
       </c>
@@ -41266,7 +41266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1382</v>
       </c>
@@ -41292,7 +41292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1607</v>
       </c>
@@ -41312,7 +41312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1400</v>
       </c>
@@ -41338,7 +41338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1630</v>
       </c>
@@ -41358,7 +41358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>777</v>
       </c>
@@ -41387,7 +41387,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1476</v>
       </c>
@@ -41407,7 +41407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1642</v>
       </c>
@@ -41427,7 +41427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1670</v>
       </c>
@@ -41453,7 +41453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1767</v>
       </c>
@@ -41473,7 +41473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>593</v>
       </c>
@@ -41505,7 +41505,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1787</v>
       </c>
@@ -41525,7 +41525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1347</v>
       </c>
@@ -41545,7 +41545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1341</v>
       </c>
@@ -41565,7 +41565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1742</v>
       </c>
@@ -41588,7 +41588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>595</v>
       </c>
@@ -41611,7 +41611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1801</v>
       </c>
@@ -41631,7 +41631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1072</v>
       </c>
@@ -41660,7 +41660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1575</v>
       </c>
@@ -41680,7 +41680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>596</v>
       </c>
@@ -41715,7 +41715,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1803</v>
       </c>
@@ -41735,7 +41735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1334</v>
       </c>
@@ -41755,7 +41755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1345</v>
       </c>
@@ -41775,7 +41775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1343</v>
       </c>
@@ -41795,7 +41795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1755</v>
       </c>
@@ -41815,7 +41815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>597</v>
       </c>
@@ -41835,7 +41835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1757</v>
       </c>
@@ -41855,7 +41855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1636</v>
       </c>
@@ -41875,7 +41875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1628</v>
       </c>
@@ -41895,7 +41895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1817</v>
       </c>
@@ -41915,7 +41915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1726</v>
       </c>
@@ -41935,7 +41935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1462</v>
       </c>
@@ -41958,7 +41958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1609</v>
       </c>
@@ -41978,7 +41978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>845</v>
       </c>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233593D0-5C5C-4FC3-8746-CA8006C50A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8BED69-FC76-4E6B-B765-10EA9AF86913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$5:$OA$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3725" uniqueCount="2110">
   <si>
     <t>PartNumber</t>
   </si>
@@ -6427,6 +6427,12 @@
   <si>
     <t>SC4643VB-G-BK-Q</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2432SO-N-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2432SO-N-Q-CI-10CR-2432</t>
   </si>
 </sst>
 </file>
@@ -6933,11 +6939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X373"/>
+  <dimension ref="A1:X376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
+      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F378" sqref="F378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25337,8 +25343,50 @@
       <c r="W373" s="34"/>
       <c r="X373" s="30"/>
     </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>145</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G374" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>141</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G375" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>218</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G376" s="1">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X373" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\721\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE58A6-24E9-46B3-AD30-6BEAB442C302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E393197-41A6-4116-9F42-33D3A80E0525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6942,8 +6942,8 @@
   <dimension ref="A1:X376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E377" sqref="E377"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25347,10 +25347,10 @@
       <c r="A374" t="s">
         <v>145</v>
       </c>
+      <c r="B374" s="10" t="s">
+        <v>2108</v>
+      </c>
       <c r="C374" s="10" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E374" s="10" t="s">
         <v>2109</v>
       </c>
       <c r="G374" s="1">
@@ -25361,10 +25361,10 @@
       <c r="A375" t="s">
         <v>141</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="B375" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E375" t="s">
+      <c r="C375" t="s">
         <v>1982</v>
       </c>
       <c r="G375" s="1">
@@ -25375,10 +25375,10 @@
       <c r="A376" t="s">
         <v>218</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="B376" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E376" t="s">
+      <c r="C376" t="s">
         <v>2069</v>
       </c>
       <c r="G376" s="1">

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\728\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E393197-41A6-4116-9F42-33D3A80E0525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB9DF5E-B219-4A57-8D4E-72AEBD578204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6942,8 +6942,10 @@
   <dimension ref="A1:X376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G359" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25350,7 +25352,8 @@
       <c r="B374" s="10" t="s">
         <v>2108</v>
       </c>
-      <c r="C374" s="10" t="s">
+      <c r="C374" s="10"/>
+      <c r="E374" s="10" t="s">
         <v>2109</v>
       </c>
       <c r="G374" s="1">
@@ -25364,7 +25367,7 @@
       <c r="B375" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C375" t="s">
+      <c r="E375" t="s">
         <v>1982</v>
       </c>
       <c r="G375" s="1">
@@ -25378,7 +25381,7 @@
       <c r="B376" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C376" t="s">
+      <c r="E376" t="s">
         <v>2069</v>
       </c>
       <c r="G376" s="1">

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\729\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B9A2C7-2AAC-45A0-ADA1-D47D0586623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FA6C0-51AE-414E-8FE6-459AE3EF6A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5397,7 +5397,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\729\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FA6C0-51AE-414E-8FE6-459AE3EF6A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E8542-0E79-4ADC-8F28-298F3E9BA8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5397,7 +5397,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E8542-0E79-4ADC-8F28-298F3E9BA8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA9646-74BF-498C-B32F-9FD72992CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1619">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4867,6 +4867,42 @@
   <si>
     <t>合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-9634</t>
+  </si>
+  <si>
+    <t>SC9685TS-FP180-Q-DB-46AR-96854</t>
+  </si>
+  <si>
+    <t>SC9685TS-FP90-Q-DB-46AR-96853</t>
+  </si>
+  <si>
+    <t>SC9685TS-RP90-Q-DB-46AR-96850</t>
+  </si>
+  <si>
+    <t>STC9A002B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC9905G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-BK</t>
+  </si>
+  <si>
+    <t>STC12100B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9685TS-FP180-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9685TS-FP90-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9685TS-RP90-TR-Q</t>
   </si>
 </sst>
 </file>
@@ -4878,7 +4914,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4961,6 +4997,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF201F35"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4982,7 +5040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5005,6 +5063,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5012,7 +5085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5088,6 +5161,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5394,10 +5479,10 @@
   <dimension ref="A1:AQ376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15879,13 +15964,21 @@
       <c r="AQ87" s="19"/>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
+      <c r="A88" s="3" t="s">
+        <v>1612</v>
+      </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>924</v>
+      </c>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4">
+        <v>50000</v>
+      </c>
       <c r="H88" s="3"/>
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
@@ -15924,13 +16017,21 @@
       <c r="AQ88" s="19"/>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
+      <c r="A89" s="37" t="s">
+        <v>1613</v>
+      </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="38" t="s">
+        <v>1614</v>
+      </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>1608</v>
+      </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="G89" s="4">
+        <v>40000</v>
+      </c>
       <c r="H89" s="3"/>
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
@@ -15969,13 +16070,21 @@
       <c r="AQ89" s="19"/>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
+      <c r="A90" s="36" t="s">
+        <v>1615</v>
+      </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="39" t="s">
+        <v>1616</v>
+      </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>1609</v>
+      </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4">
+        <v>5000</v>
+      </c>
       <c r="H90" s="3"/>
       <c r="I90" s="19"/>
       <c r="J90" s="19"/>
@@ -15995,13 +16104,21 @@
       <c r="X90" s="19"/>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
+      <c r="A91" s="36" t="s">
+        <v>1615</v>
+      </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="3"/>
+      <c r="C91" s="39" t="s">
+        <v>1617</v>
+      </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>1610</v>
+      </c>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4">
+        <v>5000</v>
+      </c>
       <c r="H91" s="3"/>
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
@@ -16021,13 +16138,21 @@
       <c r="X91" s="19"/>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
+      <c r="A92" s="36" t="s">
+        <v>1615</v>
+      </c>
       <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="39" t="s">
+        <v>1618</v>
+      </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>1611</v>
+      </c>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4">
+        <v>5000</v>
+      </c>
       <c r="H92" s="3"/>
       <c r="I92" s="19"/>
       <c r="J92" s="19"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA9646-74BF-498C-B32F-9FD72992CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD357A-F735-4FD7-A4DA-D9FDB82AD9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$5:$OA$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1625">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4903,6 +4903,24 @@
   </si>
   <si>
     <t>SC9685TS-RP90-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2202SO-N-CE-00NR-2202</t>
+  </si>
+  <si>
+    <t>SC2202SO-N-TR</t>
+  </si>
+  <si>
+    <t>SC2242UA-Q-CH-10AK-2242</t>
+  </si>
+  <si>
+    <t>SC2242UA-BK-Q</t>
+  </si>
+  <si>
+    <t>SC2432SO-N-CI-10CR-2432</t>
+  </si>
+  <si>
+    <t>SC2432SO-N-TR</t>
   </si>
 </sst>
 </file>
@@ -5179,7 +5197,37 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5479,10 +5527,10 @@
   <dimension ref="A1:AQ376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9536,9 +9584,7 @@
       <c r="F33" s="4">
         <v>0</v>
       </c>
-      <c r="G33" s="4">
-        <v>380000</v>
-      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="19">
         <v>240000</v>
@@ -16104,18 +16150,18 @@
       <c r="X90" s="19"/>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="39" t="s">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
         <v>1617</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
         <v>1610</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="3"/>
       <c r="G91" s="4">
         <v>5000</v>
       </c>
@@ -16138,18 +16184,18 @@
       <c r="X91" s="19"/>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="39" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="3"/>
       <c r="G92" s="4">
         <v>5000</v>
       </c>
@@ -16172,13 +16218,21 @@
       <c r="X92" s="19"/>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="A93" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="4">
+        <v>100000</v>
+      </c>
       <c r="H93" s="3"/>
       <c r="I93" s="19"/>
       <c r="J93" s="19"/>
@@ -16198,13 +16252,21 @@
       <c r="X93" s="19"/>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="A94" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4">
+        <v>50000</v>
+      </c>
       <c r="H94" s="3"/>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
@@ -16224,13 +16286,21 @@
       <c r="X94" s="19"/>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="A95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4">
+        <v>100000</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="19"/>
       <c r="J95" s="19"/>
@@ -16250,13 +16320,21 @@
       <c r="X95" s="19"/>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4">
+        <v>1200000</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
@@ -16276,13 +16354,13 @@
       <c r="X96" s="19"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="3"/>
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
@@ -16302,13 +16380,13 @@
       <c r="X97" s="19"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
       <c r="H98" s="3"/>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
@@ -16328,13 +16406,13 @@
       <c r="X98" s="19"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="3"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
@@ -16354,13 +16432,13 @@
       <c r="X99" s="19"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
       <c r="H100" s="3"/>
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
@@ -16380,13 +16458,13 @@
       <c r="X100" s="19"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="3"/>
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
@@ -16406,13 +16484,13 @@
       <c r="X101" s="19"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
       <c r="H102" s="3"/>
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
@@ -16432,13 +16510,13 @@
       <c r="X102" s="19"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
       <c r="H103" s="3"/>
       <c r="I103" s="19"/>
       <c r="J103" s="19"/>
@@ -16458,13 +16536,13 @@
       <c r="X103" s="19"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="3"/>
       <c r="I104" s="19"/>
       <c r="J104" s="19"/>
@@ -16484,13 +16562,13 @@
       <c r="X104" s="19"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
       <c r="H105" s="3"/>
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
@@ -16510,13 +16588,13 @@
       <c r="X105" s="19"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
       <c r="H106" s="3"/>
       <c r="I106" s="19"/>
       <c r="J106" s="19"/>
@@ -16536,13 +16614,13 @@
       <c r="X106" s="19"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="3"/>
       <c r="I107" s="19"/>
       <c r="J107" s="19"/>
@@ -16562,13 +16640,13 @@
       <c r="X107" s="19"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
       <c r="H108" s="3"/>
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
@@ -16588,13 +16666,13 @@
       <c r="X108" s="19"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="3"/>
       <c r="I109" s="19"/>
       <c r="J109" s="19"/>
@@ -16614,13 +16692,13 @@
       <c r="X109" s="19"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
       <c r="H110" s="3"/>
       <c r="I110" s="19"/>
       <c r="J110" s="19"/>
@@ -16640,13 +16718,13 @@
       <c r="X110" s="19"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
       <c r="H111" s="3"/>
       <c r="I111" s="19"/>
       <c r="J111" s="19"/>
@@ -16666,13 +16744,13 @@
       <c r="X111" s="19"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
       <c r="H112" s="3"/>
       <c r="I112" s="19"/>
       <c r="J112" s="19"/>
@@ -16692,13 +16770,13 @@
       <c r="X112" s="19"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="3"/>
       <c r="I113" s="19"/>
       <c r="J113" s="19"/>
@@ -16718,13 +16796,13 @@
       <c r="X113" s="19"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="3"/>
       <c r="I114" s="19"/>
       <c r="J114" s="19"/>
@@ -16744,13 +16822,13 @@
       <c r="X114" s="19"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="3"/>
       <c r="I115" s="19"/>
       <c r="J115" s="19"/>
@@ -16770,13 +16848,13 @@
       <c r="X115" s="19"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
       <c r="H116" s="3"/>
       <c r="I116" s="19"/>
       <c r="J116" s="19"/>
@@ -23520,11 +23598,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E90 E97:E1048576 A97:G116">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\03 - 安全库存\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD357A-F735-4FD7-A4DA-D9FDB82AD9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D646D1C-B329-4E60-9941-7D117486B0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5197,27 +5197,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5527,10 +5507,10 @@
   <dimension ref="A1:AQ376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15395,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="19">
@@ -23601,8 +23581,8 @@
   <autoFilter ref="A1:X96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E90 E97:E1048576 A97:G116">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D646D1C-B329-4E60-9941-7D117486B0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E367A03-BE34-452C-A6E3-1E05182F99FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$5:$OA$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4619,15 +4619,6 @@
     <t>SC9641TS-P-AI-10AR-41CPA</t>
   </si>
   <si>
-    <t>SC9675IM-Q-AB-4XAR-9675</t>
-  </si>
-  <si>
-    <t>SC9675IM-HRF00-Q-AB-4XAR-9675</t>
-  </si>
-  <si>
-    <t>SC9675IM-LRF01-Q-AB-4XAR-9675</t>
-  </si>
-  <si>
     <t>SC4688SA-Q-DC-40CK-4688</t>
   </si>
   <si>
@@ -4921,6 +4912,18 @@
   </si>
   <si>
     <t>SC2432SO-N-TR</t>
+  </si>
+  <si>
+    <t>SC9675IM-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-HRF00-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-LRF01-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5507,10 +5510,10 @@
   <dimension ref="A1:AQ376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,114 +5559,114 @@
         <v>340</v>
       </c>
       <c r="I1" s="34" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>1574</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>1575</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>1576</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="O1" s="34" t="s">
+        <v>1604</v>
+      </c>
+      <c r="P1" s="35" t="s">
         <v>1577</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="Q1" s="35" t="s">
         <v>1578</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="R1" s="35" t="s">
         <v>1579</v>
       </c>
-      <c r="O1" s="34" t="s">
-        <v>1607</v>
-      </c>
-      <c r="P1" s="35" t="s">
+      <c r="S1" s="35" t="s">
         <v>1580</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>1581</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>1582</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>1583</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>1584</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="X1" s="35" t="s">
         <v>1585</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="Y1" s="35" t="s">
         <v>1586</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="Z1" s="35" t="s">
         <v>1587</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="AA1" s="35" t="s">
         <v>1588</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="AB1" s="35" t="s">
         <v>1589</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="AC1" s="35" t="s">
         <v>1590</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AD1" s="35" t="s">
         <v>1591</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AE1" s="35" t="s">
         <v>1592</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AF1" s="35" t="s">
         <v>1593</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AG1" s="35" t="s">
         <v>1594</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AH1" s="35" t="s">
         <v>1595</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AI1" s="35" t="s">
         <v>1596</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>1597</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AK1" s="35" t="s">
         <v>1598</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AL1" s="35" t="s">
         <v>1599</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AM1" s="35" t="s">
         <v>1600</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AN1" s="35" t="s">
         <v>1601</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AO1" s="35" t="s">
         <v>1602</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AP1" s="35" t="s">
         <v>1603</v>
       </c>
-      <c r="AN1" s="35" t="s">
-        <v>1604</v>
-      </c>
-      <c r="AO1" s="35" t="s">
-        <v>1605</v>
-      </c>
-      <c r="AP1" s="35" t="s">
-        <v>1606</v>
-      </c>
       <c r="AQ1" s="35" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -5671,7 +5674,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -5797,7 +5800,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -6549,7 +6552,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
@@ -6661,7 +6664,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -6787,7 +6790,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="F11" s="4">
         <v>50</v>
@@ -7165,7 +7168,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -7291,7 +7294,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -8047,7 +8050,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="F21" s="4">
         <v>400</v>
@@ -8173,7 +8176,7 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="F22" s="4">
         <v>150</v>
@@ -8425,7 +8428,7 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="F24" s="4">
         <v>24</v>
@@ -9307,7 +9310,7 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="F31" s="4">
         <v>100</v>
@@ -9683,7 +9686,7 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -9809,7 +9812,7 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -9931,11 +9934,11 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="3" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -10061,7 +10064,7 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -10313,7 +10316,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="F39" s="4">
         <v>25</v>
@@ -10439,7 +10442,7 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="F40" s="4">
         <v>100</v>
@@ -10943,7 +10946,7 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -11069,7 +11072,7 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -11195,7 +11198,7 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="F46" s="4">
         <v>25</v>
@@ -11677,7 +11680,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4">
@@ -11733,7 +11736,7 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -11859,7 +11862,7 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -11981,11 +11984,11 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="3" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -12433,7 +12436,7 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -12629,7 +12632,7 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -12755,7 +12758,7 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="F60" s="4">
         <v>125</v>
@@ -12881,7 +12884,7 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -13003,7 +13006,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4">
@@ -13087,7 +13090,7 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="F63" s="4">
         <v>100</v>
@@ -13591,7 +13594,7 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="F67" s="4">
         <v>24</v>
@@ -13717,7 +13720,7 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -13843,7 +13846,7 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>1525</v>
+        <v>1622</v>
       </c>
       <c r="F69" s="4">
         <v>25</v>
@@ -13913,7 +13916,7 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -14109,7 +14112,7 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="F72" s="4">
         <v>25</v>
@@ -14613,7 +14616,7 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -14735,11 +14738,11 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="3" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -14861,11 +14864,11 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="3" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -14991,7 +14994,7 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -15495,7 +15498,7 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -15621,7 +15624,7 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
@@ -15691,7 +15694,7 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>1526</v>
+        <v>1623</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
@@ -15817,7 +15820,7 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>1527</v>
+        <v>1624</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
@@ -15943,7 +15946,7 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4">
@@ -15991,7 +15994,7 @@
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="36" t="s">
@@ -16044,15 +16047,15 @@
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="38" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4">
@@ -16097,15 +16100,15 @@
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="39" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4">
@@ -16131,15 +16134,15 @@
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="4">
@@ -16165,15 +16168,15 @@
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="4">
@@ -16203,11 +16206,11 @@
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="4">
@@ -16237,11 +16240,11 @@
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="4">
@@ -16271,11 +16274,11 @@
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="4">
@@ -23540,10 +23543,10 @@
         <v>102</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="G374" s="1">
         <v>100000</v>
@@ -23571,14 +23574,14 @@
         <v>163</v>
       </c>
       <c r="C376" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="G376" s="1">
         <v>100000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\05OP\03 - 安全库存\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\820\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E367A03-BE34-452C-A6E3-1E05182F99FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542F86D-4ABA-44F3-9800-B166ABDD6C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$5:$OA$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1643">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4924,6 +4924,60 @@
   <si>
     <t>SC9675IM-LRF01-Q-AB-4XCR-9675</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2242UA-BK</t>
+  </si>
+  <si>
+    <t>SC2242UA-CE-00AK-2242</t>
+  </si>
+  <si>
+    <t>SC2442UA-BK</t>
+  </si>
+  <si>
+    <t>SC2442UA-CP-10AK-2442</t>
+  </si>
+  <si>
+    <t>SC2462UA-BK</t>
+  </si>
+  <si>
+    <t>SC2462UA-CJ-10AK-2462</t>
+  </si>
+  <si>
+    <t>SC2464UA-BK</t>
+  </si>
+  <si>
+    <t>SC2464UA-CJ-10AK-2464</t>
+  </si>
+  <si>
+    <t>SC2546VB-AB-BK</t>
+  </si>
+  <si>
+    <t>SC2546VB-AB-DA-00CK-2546</t>
+  </si>
+  <si>
+    <t>SC4643SA-Q-DE-40CK-4643</t>
+  </si>
+  <si>
+    <t>SC9621VB-BK</t>
+  </si>
+  <si>
+    <t>SC9621VB-CF-00CK-9621</t>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLR-9642</t>
+  </si>
+  <si>
+    <t>SC9675VB-BK-Q</t>
+  </si>
+  <si>
+    <t>SC9675VB-Q-AB-4XCK-9675</t>
+  </si>
+  <si>
+    <t>SC1245SO-N-TR</t>
+  </si>
+  <si>
+    <t>SC1245SO-N-CD-00NR-1245</t>
   </si>
 </sst>
 </file>
@@ -5041,7 +5095,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5057,6 +5111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5149,7 +5209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5195,12 +5254,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5507,13 +5599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ376"/>
+  <dimension ref="A1:AQ372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5558,109 +5650,109 @@
       <c r="H1" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>1571</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>1572</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>1573</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>1574</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>1575</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>1576</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>1604</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>1577</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="34" t="s">
         <v>1578</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="34" t="s">
         <v>1579</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="34" t="s">
         <v>1580</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="34" t="s">
         <v>1581</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="34" t="s">
         <v>1582</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="34" t="s">
         <v>1583</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="34" t="s">
         <v>1584</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>1585</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="34" t="s">
         <v>1586</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="34" t="s">
         <v>1587</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="34" t="s">
         <v>1588</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="34" t="s">
         <v>1589</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="34" t="s">
         <v>1590</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="34" t="s">
         <v>1591</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="34" t="s">
         <v>1592</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AF1" s="34" t="s">
         <v>1593</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="34" t="s">
         <v>1594</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="34" t="s">
         <v>1595</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="34" t="s">
         <v>1596</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>1597</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AK1" s="34" t="s">
         <v>1598</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AL1" s="34" t="s">
         <v>1599</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AM1" s="34" t="s">
         <v>1600</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AN1" s="34" t="s">
         <v>1601</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="34" t="s">
         <v>1602</v>
       </c>
-      <c r="AP1" s="35" t="s">
+      <c r="AP1" s="34" t="s">
         <v>1603</v>
       </c>
-      <c r="AQ1" s="35" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>1590</v>
       </c>
     </row>
@@ -7426,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="19">
@@ -7804,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="19">
@@ -8938,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="19">
@@ -9189,9 +9281,7 @@
       <c r="F30" s="4">
         <v>100</v>
       </c>
-      <c r="G30" s="4">
-        <v>400000</v>
-      </c>
+      <c r="G30" s="39"/>
       <c r="H30" s="3"/>
       <c r="I30" s="19">
         <v>600000</v>
@@ -9315,9 +9405,7 @@
       <c r="F31" s="4">
         <v>100</v>
       </c>
-      <c r="G31" s="4">
-        <v>400000</v>
-      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="19">
         <v>800000</v>
@@ -10699,9 +10787,7 @@
       <c r="F42" s="4">
         <v>25</v>
       </c>
-      <c r="G42" s="4">
-        <v>100000</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="3"/>
       <c r="I42" s="19">
         <v>0</v>
@@ -14622,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="4">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="19">
@@ -15252,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="4">
-        <v>500000</v>
+        <v>1200000</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="19">
@@ -15997,7 +16083,7 @@
         <v>1609</v>
       </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="35" t="s">
         <v>281</v>
       </c>
       <c r="D88" s="9"/>
@@ -16046,11 +16132,11 @@
       <c r="AQ88" s="19"/>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>1610</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="37" t="s">
         <v>1611</v>
       </c>
       <c r="D89" s="9"/>
@@ -16099,11 +16185,11 @@
       <c r="AQ89" s="19"/>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="35" t="s">
         <v>1612</v>
       </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="38" t="s">
         <v>1613</v>
       </c>
       <c r="D90" s="9"/>
@@ -16303,47 +16389,53 @@
       <c r="X95" s="19"/>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>122</v>
-      </c>
-      <c r="B96"/>
-      <c r="C96" t="s">
-        <v>153</v>
+      <c r="A96" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>1625</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>1499</v>
+        <v>1626</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="4">
-        <v>1200000</v>
+        <v>50000</v>
       </c>
       <c r="H96" s="3"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
-      <c r="S96" s="20"/>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20"/>
-      <c r="V96" s="20"/>
-      <c r="W96" s="20"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="19"/>
       <c r="X96" s="19"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="A97" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
@@ -16363,65 +16455,89 @@
       <c r="X97" s="19"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="A98" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4">
+        <v>400000</v>
+      </c>
       <c r="H98" s="3"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
-      <c r="S98" s="20"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
-      <c r="V98" s="20"/>
-      <c r="W98" s="20"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
       <c r="X98" s="19"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="A99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4">
+        <v>400000</v>
+      </c>
       <c r="H99" s="3"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="20"/>
-      <c r="W99" s="20"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
       <c r="X99" s="19"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="A100" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="4">
+        <v>100000</v>
+      </c>
       <c r="H100" s="3"/>
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
@@ -16441,13 +16557,21 @@
       <c r="X100" s="19"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="A101" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="4">
+        <v>30000</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
@@ -16467,13 +16591,21 @@
       <c r="X101" s="19"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="A102" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="4">
+        <v>50000</v>
+      </c>
       <c r="H102" s="3"/>
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
@@ -16493,13 +16625,21 @@
       <c r="X102" s="19"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="A103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4">
+        <v>20000</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="19"/>
       <c r="J103" s="19"/>
@@ -16519,13 +16659,21 @@
       <c r="X103" s="19"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="A104" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4">
+        <v>20000</v>
+      </c>
       <c r="H104" s="3"/>
       <c r="I104" s="19"/>
       <c r="J104" s="19"/>
@@ -16545,13 +16693,21 @@
       <c r="X104" s="19"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="A105" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="4">
+        <v>300000</v>
+      </c>
       <c r="H105" s="3"/>
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
@@ -16571,13 +16727,21 @@
       <c r="X105" s="19"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="A106" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="4">
+        <v>50000</v>
+      </c>
       <c r="H106" s="3"/>
       <c r="I106" s="19"/>
       <c r="J106" s="19"/>
@@ -16597,13 +16761,21 @@
       <c r="X106" s="19"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="A107" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="4">
+        <v>100000</v>
+      </c>
       <c r="H107" s="3"/>
       <c r="I107" s="19"/>
       <c r="J107" s="19"/>
@@ -16623,13 +16795,21 @@
       <c r="X107" s="19"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="A108" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="4">
+        <v>100000</v>
+      </c>
       <c r="H108" s="3"/>
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
@@ -16649,13 +16829,21 @@
       <c r="X108" s="19"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="A109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="4">
+        <v>100000</v>
+      </c>
       <c r="H109" s="3"/>
       <c r="I109" s="19"/>
       <c r="J109" s="19"/>
@@ -16675,13 +16863,13 @@
       <c r="X109" s="19"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="19"/>
       <c r="J110" s="19"/>
@@ -16701,13 +16889,13 @@
       <c r="X110" s="19"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="19"/>
       <c r="J111" s="19"/>
@@ -16831,13 +17019,13 @@
       <c r="X115" s="19"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="3"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
       <c r="H116" s="3"/>
       <c r="I116" s="19"/>
       <c r="J116" s="19"/>
@@ -17720,7 +17908,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="4"/>
+      <c r="F150" s="11"/>
       <c r="G150" s="4"/>
       <c r="H150" s="3"/>
       <c r="I150" s="19"/>
@@ -17746,7 +17934,7 @@
       <c r="C151" s="3"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="11"/>
+      <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="3"/>
       <c r="I151" s="19"/>
@@ -18575,7 +18763,7 @@
     <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="5"/>
-      <c r="C183" s="3"/>
+      <c r="C183" s="5"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="4"/>
@@ -18601,7 +18789,7 @@
     <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
+      <c r="C184" s="3"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="4"/>
@@ -19378,7 +19566,7 @@
       <c r="W213" s="19"/>
       <c r="X213" s="19"/>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="5"/>
       <c r="C214" s="3"/>
@@ -19404,7 +19592,7 @@
       <c r="W214" s="19"/>
       <c r="X214" s="19"/>
     </row>
-    <row r="215" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="5"/>
       <c r="C215" s="3"/>
@@ -19826,8 +20014,8 @@
       <c r="C231" s="3"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
       <c r="H231" s="3"/>
       <c r="I231" s="19"/>
       <c r="J231" s="19"/>
@@ -19852,8 +20040,8 @@
       <c r="C232" s="3"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
       <c r="H232" s="3"/>
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
@@ -19905,7 +20093,7 @@
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="4"/>
-      <c r="G234" s="4"/>
+      <c r="G234" s="12"/>
       <c r="H234" s="3"/>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -19931,7 +20119,7 @@
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="4"/>
-      <c r="G235" s="12"/>
+      <c r="G235" s="4"/>
       <c r="H235" s="3"/>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -20340,57 +20528,57 @@
       <c r="W250" s="19"/>
       <c r="X250" s="19"/>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="9"/>
-      <c r="E251" s="9"/>
-      <c r="F251" s="4"/>
-      <c r="G251" s="4"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="19"/>
-      <c r="K251" s="19"/>
-      <c r="L251" s="19"/>
-      <c r="M251" s="19"/>
-      <c r="N251" s="19"/>
-      <c r="O251" s="19"/>
-      <c r="P251" s="19"/>
-      <c r="Q251" s="19"/>
-      <c r="R251" s="19"/>
-      <c r="S251" s="19"/>
-      <c r="T251" s="19"/>
-      <c r="U251" s="19"/>
-      <c r="V251" s="19"/>
-      <c r="W251" s="19"/>
-      <c r="X251" s="19"/>
-    </row>
-    <row r="252" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="21"/>
-      <c r="B252" s="22"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="24"/>
-      <c r="E252" s="24"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="25"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="26"/>
-      <c r="J252" s="26"/>
-      <c r="K252" s="26"/>
-      <c r="L252" s="26"/>
-      <c r="M252" s="26"/>
-      <c r="N252" s="26"/>
-      <c r="O252" s="26"/>
-      <c r="P252" s="26"/>
-      <c r="Q252" s="26"/>
-      <c r="R252" s="26"/>
-      <c r="S252" s="26"/>
-      <c r="T252" s="26"/>
-      <c r="U252" s="26"/>
-      <c r="V252" s="26"/>
-      <c r="W252" s="26"/>
-      <c r="X252" s="26"/>
+    <row r="251" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="20"/>
+      <c r="B251" s="21"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="24"/>
+      <c r="G251" s="24"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="25"/>
+      <c r="J251" s="25"/>
+      <c r="K251" s="25"/>
+      <c r="L251" s="25"/>
+      <c r="M251" s="25"/>
+      <c r="N251" s="25"/>
+      <c r="O251" s="25"/>
+      <c r="P251" s="25"/>
+      <c r="Q251" s="25"/>
+      <c r="R251" s="25"/>
+      <c r="S251" s="25"/>
+      <c r="T251" s="25"/>
+      <c r="U251" s="25"/>
+      <c r="V251" s="25"/>
+      <c r="W251" s="25"/>
+      <c r="X251" s="25"/>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A252" s="3"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="19"/>
+      <c r="K252" s="19"/>
+      <c r="L252" s="19"/>
+      <c r="M252" s="19"/>
+      <c r="N252" s="19"/>
+      <c r="O252" s="19"/>
+      <c r="P252" s="19"/>
+      <c r="Q252" s="19"/>
+      <c r="R252" s="19"/>
+      <c r="S252" s="19"/>
+      <c r="T252" s="19"/>
+      <c r="U252" s="19"/>
+      <c r="V252" s="19"/>
+      <c r="W252" s="19"/>
+      <c r="X252" s="19"/>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
@@ -20555,7 +20743,7 @@
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="4"/>
-      <c r="G259" s="4"/>
+      <c r="G259" s="12"/>
       <c r="H259" s="3"/>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -20606,8 +20794,8 @@
       <c r="C261" s="3"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
-      <c r="F261" s="4"/>
-      <c r="G261" s="12"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="26"/>
       <c r="H261" s="3"/>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -20632,8 +20820,8 @@
       <c r="C262" s="3"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="27"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
       <c r="H262" s="3"/>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
@@ -23460,135 +23648,74 @@
       <c r="W370" s="19"/>
       <c r="X370" s="19"/>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A371" s="3"/>
-      <c r="B371" s="5"/>
-      <c r="C371" s="3"/>
-      <c r="D371" s="9"/>
-      <c r="E371" s="9"/>
-      <c r="F371" s="4"/>
-      <c r="G371" s="4"/>
-      <c r="H371" s="3"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="19"/>
-      <c r="K371" s="19"/>
-      <c r="L371" s="19"/>
-      <c r="M371" s="19"/>
-      <c r="N371" s="19"/>
-      <c r="O371" s="19"/>
-      <c r="P371" s="19"/>
-      <c r="Q371" s="19"/>
-      <c r="R371" s="19"/>
-      <c r="S371" s="19"/>
-      <c r="T371" s="19"/>
-      <c r="U371" s="19"/>
-      <c r="V371" s="19"/>
-      <c r="W371" s="19"/>
-      <c r="X371" s="19"/>
-    </row>
-    <row r="372" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="28"/>
-      <c r="B372" s="29"/>
-      <c r="C372" s="28"/>
-      <c r="D372" s="30"/>
-      <c r="E372" s="30"/>
-      <c r="F372" s="31"/>
-      <c r="G372" s="31"/>
-      <c r="H372" s="28"/>
-      <c r="I372" s="32"/>
-      <c r="J372" s="32"/>
-      <c r="K372" s="32"/>
-      <c r="L372" s="32"/>
-      <c r="M372" s="32"/>
-      <c r="N372" s="32"/>
-      <c r="O372" s="32"/>
-      <c r="P372" s="32"/>
-      <c r="Q372" s="32"/>
-      <c r="R372" s="32"/>
-      <c r="S372" s="32"/>
-      <c r="T372" s="32"/>
-      <c r="U372" s="32"/>
-      <c r="V372" s="32"/>
-      <c r="W372" s="32"/>
-      <c r="X372" s="28"/>
-    </row>
-    <row r="373" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="28"/>
-      <c r="B373" s="29"/>
-      <c r="C373" s="28"/>
-      <c r="D373" s="30"/>
-      <c r="E373" s="30"/>
-      <c r="F373" s="31"/>
-      <c r="G373" s="31"/>
-      <c r="H373" s="28"/>
-      <c r="I373" s="32"/>
-      <c r="J373" s="32"/>
-      <c r="K373" s="32"/>
-      <c r="L373" s="32"/>
-      <c r="M373" s="32"/>
-      <c r="N373" s="32"/>
-      <c r="O373" s="32"/>
-      <c r="P373" s="32"/>
-      <c r="Q373" s="32"/>
-      <c r="R373" s="32"/>
-      <c r="S373" s="32"/>
-      <c r="T373" s="32"/>
-      <c r="U373" s="32"/>
-      <c r="V373" s="32"/>
-      <c r="W373" s="32"/>
-      <c r="X373" s="28"/>
-    </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>102</v>
-      </c>
-      <c r="B374" s="10" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C374" s="10" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G374" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>99</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G375" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>161</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1543</v>
-      </c>
-      <c r="G376" s="1">
-        <v>100000</v>
-      </c>
+    <row r="371" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="27"/>
+      <c r="B371" s="28"/>
+      <c r="C371" s="27"/>
+      <c r="D371" s="29"/>
+      <c r="E371" s="29"/>
+      <c r="F371" s="30"/>
+      <c r="G371" s="30"/>
+      <c r="H371" s="27"/>
+      <c r="I371" s="31"/>
+      <c r="J371" s="31"/>
+      <c r="K371" s="31"/>
+      <c r="L371" s="31"/>
+      <c r="M371" s="31"/>
+      <c r="N371" s="31"/>
+      <c r="O371" s="31"/>
+      <c r="P371" s="31"/>
+      <c r="Q371" s="31"/>
+      <c r="R371" s="31"/>
+      <c r="S371" s="31"/>
+      <c r="T371" s="31"/>
+      <c r="U371" s="31"/>
+      <c r="V371" s="31"/>
+      <c r="W371" s="31"/>
+      <c r="X371" s="27"/>
+    </row>
+    <row r="372" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="27"/>
+      <c r="B372" s="28"/>
+      <c r="C372" s="27"/>
+      <c r="D372" s="29"/>
+      <c r="E372" s="29"/>
+      <c r="F372" s="30"/>
+      <c r="G372" s="30"/>
+      <c r="H372" s="27"/>
+      <c r="I372" s="31"/>
+      <c r="J372" s="31"/>
+      <c r="K372" s="31"/>
+      <c r="L372" s="31"/>
+      <c r="M372" s="31"/>
+      <c r="N372" s="31"/>
+      <c r="O372" s="31"/>
+      <c r="P372" s="31"/>
+      <c r="Q372" s="31"/>
+      <c r="R372" s="31"/>
+      <c r="S372" s="31"/>
+      <c r="T372" s="31"/>
+      <c r="U372" s="31"/>
+      <c r="V372" s="31"/>
+      <c r="W372" s="31"/>
+      <c r="X372" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E90 E97:E1048576 A97:G116">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E1:E108 E110:E1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E376:E1048576 E1:E90 E112:E372 A112:G115">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E376:E1048576 E1:E96 E112:E372">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\820\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542F86D-4ABA-44F3-9800-B166ABDD6C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAF8BA-7E88-4B5F-8C43-1B384D9C0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5605,7 +5605,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E113" sqref="E113"/>
+      <selection pane="bottomRight" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAF8BA-7E88-4B5F-8C43-1B384D9C0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E72BE0-EF46-4076-991F-3E1298C5139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$5:$OA$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1645">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4978,6 +4978,12 @@
   </si>
   <si>
     <t>SC1245SO-N-CD-00NR-1245</t>
+  </si>
+  <si>
+    <t>SC2438UA-BK</t>
+  </si>
+  <si>
+    <t>NA.SC243XUA-CI</t>
   </si>
 </sst>
 </file>
@@ -5602,10 +5608,10 @@
   <dimension ref="A1:AQ372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16035,9 +16041,7 @@
         <v>1543</v>
       </c>
       <c r="F87" s="4"/>
-      <c r="G87" s="4">
-        <v>100000</v>
-      </c>
+      <c r="G87" s="4"/>
       <c r="H87" s="3"/>
       <c r="I87" s="19"/>
       <c r="J87" s="19"/>
@@ -16863,13 +16867,21 @@
       <c r="X109" s="19"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
+      <c r="A110" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>1643</v>
+      </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>1644</v>
+      </c>
       <c r="F110" s="3"/>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4">
+        <v>100000</v>
+      </c>
       <c r="H110" s="3"/>
       <c r="I110" s="19"/>
       <c r="J110" s="19"/>
@@ -23701,13 +23713,13 @@
       <c r="X372" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E108 E110:E1048576">
+  <conditionalFormatting sqref="E1:E108 E111:E1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E376:E1048576 E1:E90 E112:E372 A112:G115">

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E72BE0-EF46-4076-991F-3E1298C5139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15E80C9-1CB8-479A-9DF8-A20BB5497D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1647">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4984,6 +4984,12 @@
   </si>
   <si>
     <t>NA.SC243XUA-CI</t>
+  </si>
+  <si>
+    <t>SC60370QS-TY</t>
+  </si>
+  <si>
+    <t>SC60370QS-AO-DC-00CY-60370</t>
   </si>
 </sst>
 </file>
@@ -5605,13 +5611,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5762,7 +5769,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1570</v>
       </c>
@@ -5888,7 +5895,7 @@
         <v>9618020</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -6014,7 +6021,7 @@
         <v>16926000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -6140,7 +6147,7 @@
         <v>30298075</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
@@ -6266,7 +6273,7 @@
         <v>3282454</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -6392,7 +6399,7 @@
         <v>7493563</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>259</v>
       </c>
@@ -6518,7 +6525,7 @@
         <v>9044571</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -6644,7 +6651,7 @@
         <v>6182359</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
@@ -6752,7 +6759,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
@@ -6878,7 +6885,7 @@
         <v>8226838</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>122</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>10514806</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>122</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>4932460</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>259</v>
       </c>
@@ -7256,7 +7263,7 @@
         <v>8721000</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -7382,7 +7389,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>7110756</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>2341492</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>213</v>
       </c>
@@ -7760,7 +7767,7 @@
         <v>5379953</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -7886,7 +7893,7 @@
         <v>1905945</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -8012,7 +8019,7 @@
         <v>4188780</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
@@ -8138,7 +8145,7 @@
         <v>3278000</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -8264,7 +8271,7 @@
         <v>9010748</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>257</v>
       </c>
@@ -8390,7 +8397,7 @@
         <v>5780693</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>259</v>
       </c>
@@ -8516,7 +8523,7 @@
         <v>2946000</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>3654394</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>5522552</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -8894,7 +8901,7 @@
         <v>1938407</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
@@ -9020,7 +9027,7 @@
         <v>3128050</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>151</v>
       </c>
@@ -9146,7 +9153,7 @@
         <v>1358335</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>266</v>
       </c>
@@ -9272,7 +9279,7 @@
         <v>2619553</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -9396,7 +9403,7 @@
         <v>3813639</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -9520,7 +9527,7 @@
         <v>4913354</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -9646,7 +9653,7 @@
         <v>4349676</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -9770,7 +9777,7 @@
         <v>1949185</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>246</v>
       </c>
@@ -9896,7 +9903,7 @@
         <v>2084678</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -10022,7 +10029,7 @@
         <v>503906</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>213</v>
       </c>
@@ -10148,7 +10155,7 @@
         <v>1738692</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
@@ -10274,7 +10281,7 @@
         <v>1851300</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>102</v>
       </c>
@@ -10400,7 +10407,7 @@
         <v>3334473</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>120</v>
       </c>
@@ -10526,7 +10533,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>141</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>3640770</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>141</v>
       </c>
@@ -10778,7 +10785,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>148</v>
       </c>
@@ -10902,7 +10909,7 @@
         <v>1161176</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -11028,7 +11035,7 @@
         <v>176623</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -11154,7 +11161,7 @@
         <v>103438</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -11280,7 +11287,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>219</v>
       </c>
@@ -11406,7 +11413,7 @@
         <v>1018792</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>239</v>
       </c>
@@ -11532,7 +11539,7 @@
         <v>1247311</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>266</v>
       </c>
@@ -11658,7 +11665,7 @@
         <v>1366550</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
@@ -11766,7 +11773,7 @@
         <v>102716</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="5"/>
       <c r="C50" s="3"/>
@@ -11818,7 +11825,7 @@
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>65</v>
       </c>
@@ -11944,7 +11951,7 @@
         <v>999370</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>68</v>
       </c>
@@ -12070,7 +12077,7 @@
         <v>1297065</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
@@ -12140,7 +12147,7 @@
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>99</v>
       </c>
@@ -12266,7 +12273,7 @@
         <v>306000</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>99</v>
       </c>
@@ -12392,7 +12399,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
@@ -12518,7 +12525,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
@@ -12533,9 +12540,7 @@
       <c r="F57" s="4">
         <v>0</v>
       </c>
-      <c r="G57" s="4">
-        <v>100000</v>
-      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="3"/>
       <c r="I57" s="19">
         <v>50000</v>
@@ -12588,7 +12593,7 @@
       <c r="AP57" s="19"/>
       <c r="AQ57" s="19"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>175</v>
       </c>
@@ -12714,7 +12719,7 @@
         <v>824305</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -12840,7 +12845,7 @@
         <v>908991</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>213</v>
       </c>
@@ -12966,7 +12971,7 @@
         <v>1468775</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>213</v>
       </c>
@@ -13092,7 +13097,7 @@
         <v>865333</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="5"/>
       <c r="C62" s="3"/>
@@ -13172,7 +13177,7 @@
       <c r="AP62" s="19"/>
       <c r="AQ62" s="19"/>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
@@ -13298,7 +13303,7 @@
         <v>134492</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>249</v>
       </c>
@@ -13424,7 +13429,7 @@
         <v>742072</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>99</v>
       </c>
@@ -13550,7 +13555,7 @@
         <v>321009</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>99</v>
       </c>
@@ -13676,7 +13681,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -13802,7 +13807,7 @@
         <v>1269613</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -13928,7 +13933,7 @@
         <v>236160</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>273</v>
       </c>
@@ -13998,7 +14003,7 @@
       <c r="AP69" s="19"/>
       <c r="AQ69" s="19"/>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>231</v>
       </c>
@@ -14068,7 +14073,7 @@
       <c r="AP70" s="19"/>
       <c r="AQ70" s="19"/>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>252</v>
       </c>
@@ -14194,7 +14199,7 @@
         <v>380552</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>195</v>
       </c>
@@ -14320,7 +14325,7 @@
         <v>297502</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>283</v>
       </c>
@@ -14446,7 +14451,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>283</v>
       </c>
@@ -14574,15 +14579,15 @@
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>709</v>
+        <v>227</v>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="3" t="s">
-        <v>228</v>
+      <c r="C75" s="5" t="s">
+        <v>1645</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>1114</v>
+      <c r="E75" s="3" t="s">
+        <v>1646</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
@@ -14698,7 +14703,7 @@
         <v>28129</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>231</v>
       </c>
@@ -14824,7 +14829,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>283</v>
       </c>
@@ -14950,7 +14955,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>283</v>
       </c>
@@ -15076,7 +15081,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>86</v>
       </c>
@@ -15202,7 +15207,7 @@
         <v>830000</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>117</v>
       </c>
@@ -15328,7 +15333,7 @@
         <v>4524000</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>122</v>
       </c>
@@ -15454,7 +15459,7 @@
         <v>1561615</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>156</v>
       </c>
@@ -15580,7 +15585,7 @@
         <v>236705</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -15706,7 +15711,7 @@
         <v>1555563</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>224</v>
       </c>
@@ -15776,7 +15781,7 @@
       <c r="AP84" s="19"/>
       <c r="AQ84" s="19"/>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>273</v>
       </c>
@@ -15902,7 +15907,7 @@
         <v>75243</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>273</v>
       </c>
@@ -16028,7 +16033,7 @@
         <v>86676</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>161</v>
       </c>
@@ -16082,7 +16087,7 @@
       <c r="AP87" s="19"/>
       <c r="AQ87" s="19"/>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>1609</v>
       </c>
@@ -16135,7 +16140,7 @@
       <c r="AP88" s="19"/>
       <c r="AQ88" s="19"/>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
         <v>1610</v>
       </c>
@@ -16188,7 +16193,7 @@
       <c r="AP89" s="19"/>
       <c r="AQ89" s="19"/>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="35" t="s">
         <v>1612</v>
       </c>
@@ -16222,7 +16227,7 @@
       <c r="W90" s="19"/>
       <c r="X90" s="19"/>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>1612</v>
       </c>
@@ -16256,7 +16261,7 @@
       <c r="W91" s="19"/>
       <c r="X91" s="19"/>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>1612</v>
       </c>
@@ -16290,7 +16295,7 @@
       <c r="W92" s="19"/>
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
@@ -16324,7 +16329,7 @@
       <c r="W93" s="19"/>
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>79</v>
       </c>
@@ -16358,7 +16363,7 @@
       <c r="W94" s="19"/>
       <c r="X94" s="19"/>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>102</v>
       </c>
@@ -16392,7 +16397,7 @@
       <c r="W95" s="19"/>
       <c r="X95" s="19"/>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>75</v>
       </c>
@@ -16426,7 +16431,7 @@
       <c r="W96" s="19"/>
       <c r="X96" s="19"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>88</v>
       </c>
@@ -16458,7 +16463,7 @@
       <c r="W97" s="19"/>
       <c r="X97" s="19"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>120</v>
       </c>
@@ -16492,7 +16497,7 @@
       <c r="W98" s="19"/>
       <c r="X98" s="19"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>117</v>
       </c>
@@ -16526,7 +16531,7 @@
       <c r="W99" s="19"/>
       <c r="X99" s="19"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>141</v>
       </c>
@@ -16560,7 +16565,7 @@
       <c r="W100" s="19"/>
       <c r="X100" s="19"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>141</v>
       </c>
@@ -16594,7 +16599,7 @@
       <c r="W101" s="19"/>
       <c r="X101" s="19"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>161</v>
       </c>
@@ -16628,7 +16633,7 @@
       <c r="W102" s="19"/>
       <c r="X102" s="19"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -16662,7 +16667,7 @@
       <c r="W103" s="19"/>
       <c r="X103" s="19"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>222</v>
       </c>
@@ -16696,7 +16701,7 @@
       <c r="W104" s="19"/>
       <c r="X104" s="19"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
@@ -16730,7 +16735,7 @@
       <c r="W105" s="19"/>
       <c r="X105" s="19"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>241</v>
       </c>
@@ -16764,7 +16769,7 @@
       <c r="W106" s="19"/>
       <c r="X106" s="19"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>266</v>
       </c>
@@ -16798,7 +16803,7 @@
       <c r="W107" s="19"/>
       <c r="X107" s="19"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>273</v>
       </c>
@@ -16832,7 +16837,7 @@
       <c r="W108" s="19"/>
       <c r="X108" s="19"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>45</v>
       </c>
@@ -16866,7 +16871,7 @@
       <c r="W109" s="19"/>
       <c r="X109" s="19"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>102</v>
       </c>
@@ -23713,19 +23718,25 @@
       <c r="X372" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ110" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="SC60370-60370"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E108 E111:E1048576">
+  <conditionalFormatting sqref="E1:E74 E111:E1048576 E76:E108">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E376:E1048576 E1:E90 E112:E372 A112:G115">
+  <conditionalFormatting sqref="E376:E1048576 E1:E74 E112:E372 A112:G115 E76:E90">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E376:E1048576 E1:E96 E112:E372">
+  <conditionalFormatting sqref="E376:E1048576 E1:E74 E112:E372 E76:E96">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15E80C9-1CB8-479A-9DF8-A20BB5497D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B3A7B-960E-4802-8C48-BC66EAE189AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5611,14 +5611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5769,7 +5768,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1570</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>9618020</v>
       </c>
     </row>
-    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -6021,7 +6020,7 @@
         <v>16926000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>30298075</v>
       </c>
     </row>
-    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>3282454</v>
       </c>
     </row>
-    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>7493563</v>
       </c>
     </row>
-    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>259</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>9044571</v>
       </c>
     </row>
-    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>6182359</v>
       </c>
     </row>
-    <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
@@ -6759,7 +6758,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>8226838</v>
       </c>
     </row>
-    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>122</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>10514806</v>
       </c>
     </row>
-    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>122</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>4932460</v>
       </c>
     </row>
-    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>259</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>8721000</v>
       </c>
     </row>
-    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>7110756</v>
       </c>
     </row>
-    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>2341492</v>
       </c>
     </row>
-    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>213</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>5379953</v>
       </c>
     </row>
-    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>48</v>
       </c>
       <c r="G18" s="4">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="19">
@@ -7893,7 +7892,7 @@
         <v>1905945</v>
       </c>
     </row>
-    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -8019,7 +8018,7 @@
         <v>4188780</v>
       </c>
     </row>
-    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>3278000</v>
       </c>
     </row>
-    <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>9010748</v>
       </c>
     </row>
-    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>257</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>5780693</v>
       </c>
     </row>
-    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>259</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>2946000</v>
       </c>
     </row>
-    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>3654394</v>
       </c>
     </row>
-    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>5522552</v>
       </c>
     </row>
-    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>1938407</v>
       </c>
     </row>
-    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>3128050</v>
       </c>
     </row>
-    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>151</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>1358335</v>
       </c>
     </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>266</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>2619553</v>
       </c>
     </row>
-    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>3813639</v>
       </c>
     </row>
-    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>4913354</v>
       </c>
     </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>4349676</v>
       </c>
     </row>
-    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>1949185</v>
       </c>
     </row>
-    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>246</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>2084678</v>
       </c>
     </row>
-    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>503906</v>
       </c>
     </row>
-    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>213</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>1738692</v>
       </c>
     </row>
-    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>1851300</v>
       </c>
     </row>
-    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>102</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>3334473</v>
       </c>
     </row>
-    <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>120</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>141</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v>3640770</v>
       </c>
     </row>
-    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>141</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>148</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>1161176</v>
       </c>
     </row>
-    <row r="43" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -11035,7 +11034,7 @@
         <v>176623</v>
       </c>
     </row>
-    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -11161,7 +11160,7 @@
         <v>103438</v>
       </c>
     </row>
-    <row r="45" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -11287,7 +11286,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>219</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>1018792</v>
       </c>
     </row>
-    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>239</v>
       </c>
@@ -11539,7 +11538,7 @@
         <v>1247311</v>
       </c>
     </row>
-    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>266</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>1366550</v>
       </c>
     </row>
-    <row r="49" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
@@ -11773,7 +11772,7 @@
         <v>102716</v>
       </c>
     </row>
-    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="5"/>
       <c r="C50" s="3"/>
@@ -11825,7 +11824,7 @@
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
     </row>
-    <row r="51" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>65</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>999370</v>
       </c>
     </row>
-    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>68</v>
       </c>
@@ -12077,7 +12076,7 @@
         <v>1297065</v>
       </c>
     </row>
-    <row r="53" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
@@ -12147,7 +12146,7 @@
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
     </row>
-    <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>99</v>
       </c>
@@ -12273,7 +12272,7 @@
         <v>306000</v>
       </c>
     </row>
-    <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>99</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="56" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="57" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
@@ -12593,7 +12592,7 @@
       <c r="AP57" s="19"/>
       <c r="AQ57" s="19"/>
     </row>
-    <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>175</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>824305</v>
       </c>
     </row>
-    <row r="59" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -12845,7 +12844,7 @@
         <v>908991</v>
       </c>
     </row>
-    <row r="60" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>213</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>1468775</v>
       </c>
     </row>
-    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>213</v>
       </c>
@@ -13097,7 +13096,7 @@
         <v>865333</v>
       </c>
     </row>
-    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="5"/>
       <c r="C62" s="3"/>
@@ -13177,7 +13176,7 @@
       <c r="AP62" s="19"/>
       <c r="AQ62" s="19"/>
     </row>
-    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>231</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>134492</v>
       </c>
     </row>
-    <row r="64" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>249</v>
       </c>
@@ -13429,7 +13428,7 @@
         <v>742072</v>
       </c>
     </row>
-    <row r="65" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>99</v>
       </c>
@@ -13555,7 +13554,7 @@
         <v>321009</v>
       </c>
     </row>
-    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>99</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>171</v>
       </c>
@@ -13807,7 +13806,7 @@
         <v>1269613</v>
       </c>
     </row>
-    <row r="68" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -13933,7 +13932,7 @@
         <v>236160</v>
       </c>
     </row>
-    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>273</v>
       </c>
@@ -14003,7 +14002,7 @@
       <c r="AP69" s="19"/>
       <c r="AQ69" s="19"/>
     </row>
-    <row r="70" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>231</v>
       </c>
@@ -14073,7 +14072,7 @@
       <c r="AP70" s="19"/>
       <c r="AQ70" s="19"/>
     </row>
-    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>252</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>380552</v>
       </c>
     </row>
-    <row r="72" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>195</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>297502</v>
       </c>
     </row>
-    <row r="73" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>283</v>
       </c>
@@ -14451,7 +14450,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="74" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>283</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>28129</v>
       </c>
     </row>
-    <row r="76" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>231</v>
       </c>
@@ -14829,7 +14828,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="77" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>283</v>
       </c>
@@ -14955,7 +14954,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="78" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>283</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="79" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>86</v>
       </c>
@@ -15207,7 +15206,7 @@
         <v>830000</v>
       </c>
     </row>
-    <row r="80" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>117</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>4524000</v>
       </c>
     </row>
-    <row r="81" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>122</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>1561615</v>
       </c>
     </row>
-    <row r="82" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>156</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>236705</v>
       </c>
     </row>
-    <row r="83" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -15711,7 +15710,7 @@
         <v>1555563</v>
       </c>
     </row>
-    <row r="84" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>224</v>
       </c>
@@ -15781,7 +15780,7 @@
       <c r="AP84" s="19"/>
       <c r="AQ84" s="19"/>
     </row>
-    <row r="85" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>273</v>
       </c>
@@ -15907,7 +15906,7 @@
         <v>75243</v>
       </c>
     </row>
-    <row r="86" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>273</v>
       </c>
@@ -16033,7 +16032,7 @@
         <v>86676</v>
       </c>
     </row>
-    <row r="87" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>161</v>
       </c>
@@ -16087,7 +16086,7 @@
       <c r="AP87" s="19"/>
       <c r="AQ87" s="19"/>
     </row>
-    <row r="88" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>1609</v>
       </c>
@@ -16140,7 +16139,7 @@
       <c r="AP88" s="19"/>
       <c r="AQ88" s="19"/>
     </row>
-    <row r="89" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
         <v>1610</v>
       </c>
@@ -16193,7 +16192,7 @@
       <c r="AP89" s="19"/>
       <c r="AQ89" s="19"/>
     </row>
-    <row r="90" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" s="35" t="s">
         <v>1612</v>
       </c>
@@ -16227,7 +16226,7 @@
       <c r="W90" s="19"/>
       <c r="X90" s="19"/>
     </row>
-    <row r="91" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>1612</v>
       </c>
@@ -16261,7 +16260,7 @@
       <c r="W91" s="19"/>
       <c r="X91" s="19"/>
     </row>
-    <row r="92" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>1612</v>
       </c>
@@ -16295,7 +16294,7 @@
       <c r="W92" s="19"/>
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>75</v>
       </c>
@@ -16329,7 +16328,7 @@
       <c r="W93" s="19"/>
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>79</v>
       </c>
@@ -16363,7 +16362,7 @@
       <c r="W94" s="19"/>
       <c r="X94" s="19"/>
     </row>
-    <row r="95" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>102</v>
       </c>
@@ -16397,7 +16396,7 @@
       <c r="W95" s="19"/>
       <c r="X95" s="19"/>
     </row>
-    <row r="96" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>75</v>
       </c>
@@ -16431,7 +16430,7 @@
       <c r="W96" s="19"/>
       <c r="X96" s="19"/>
     </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>88</v>
       </c>
@@ -16463,7 +16462,7 @@
       <c r="W97" s="19"/>
       <c r="X97" s="19"/>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>120</v>
       </c>
@@ -16497,7 +16496,7 @@
       <c r="W98" s="19"/>
       <c r="X98" s="19"/>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>117</v>
       </c>
@@ -16531,7 +16530,7 @@
       <c r="W99" s="19"/>
       <c r="X99" s="19"/>
     </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>141</v>
       </c>
@@ -16565,7 +16564,7 @@
       <c r="W100" s="19"/>
       <c r="X100" s="19"/>
     </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>141</v>
       </c>
@@ -16599,7 +16598,7 @@
       <c r="W101" s="19"/>
       <c r="X101" s="19"/>
     </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>161</v>
       </c>
@@ -16633,7 +16632,7 @@
       <c r="W102" s="19"/>
       <c r="X102" s="19"/>
     </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -16667,7 +16666,7 @@
       <c r="W103" s="19"/>
       <c r="X103" s="19"/>
     </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>222</v>
       </c>
@@ -16701,7 +16700,7 @@
       <c r="W104" s="19"/>
       <c r="X104" s="19"/>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>239</v>
       </c>
@@ -16735,7 +16734,7 @@
       <c r="W105" s="19"/>
       <c r="X105" s="19"/>
     </row>
-    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>241</v>
       </c>
@@ -16769,7 +16768,7 @@
       <c r="W106" s="19"/>
       <c r="X106" s="19"/>
     </row>
-    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>266</v>
       </c>
@@ -16803,7 +16802,7 @@
       <c r="W107" s="19"/>
       <c r="X107" s="19"/>
     </row>
-    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>273</v>
       </c>
@@ -16837,7 +16836,7 @@
       <c r="W108" s="19"/>
       <c r="X108" s="19"/>
     </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>45</v>
       </c>
@@ -16871,7 +16870,7 @@
       <c r="W109" s="19"/>
       <c r="X109" s="19"/>
     </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>102</v>
       </c>
@@ -23718,13 +23717,7 @@
       <c r="X372" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ110" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="SC60370-60370"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AQ110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B3A7B-960E-4802-8C48-BC66EAE189AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3DBA5C-E8BE-4493-9C52-B7B52CA0ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5617,7 +5617,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9168,7 +9168,7 @@
         <v>150</v>
       </c>
       <c r="G29" s="4">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="19">

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3DBA5C-E8BE-4493-9C52-B7B52CA0ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DA13DF-BB65-4A93-964A-06985E2EE4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5614,10 +5614,10 @@
   <dimension ref="A1:AQ372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6162,7 +6162,7 @@
         <v>150</v>
       </c>
       <c r="G5" s="4">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="19">
@@ -6773,9 +6773,7 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>500000</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="19">
         <v>320000</v>
@@ -7026,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="19">
@@ -8286,7 +8284,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="4">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="19">
@@ -10044,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="19">
@@ -10170,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="19">
@@ -10924,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="19">
@@ -11050,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="19">
@@ -11176,7 +11174,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="19">
@@ -11966,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="19">
@@ -12860,7 +12858,7 @@
         <v>125</v>
       </c>
       <c r="G60" s="4">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="19">
@@ -13695,9 +13693,7 @@
       <c r="F67" s="4">
         <v>24</v>
       </c>
-      <c r="G67" s="4">
-        <v>400000</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="3"/>
       <c r="I67" s="19">
         <v>90000</v>
@@ -15348,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="4">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="19">
@@ -15474,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="19">
@@ -16409,9 +16405,7 @@
         <v>1626</v>
       </c>
       <c r="F96" s="3"/>
-      <c r="G96" s="4">
-        <v>50000</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="3"/>
       <c r="I96" s="19"/>
       <c r="J96" s="19"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DA13DF-BB65-4A93-964A-06985E2EE4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0CAB20-B17B-4D32-8814-CEB08594B0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$5:$OA$546</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="1649">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4990,6 +4990,12 @@
   </si>
   <si>
     <t>SC60370QS-AO-DC-00CY-60370</t>
+  </si>
+  <si>
+    <t>SC4015SO-N-A-TR</t>
+  </si>
+  <si>
+    <t>SC4015SO-N-A-CE-90NR-4015</t>
   </si>
 </sst>
 </file>
@@ -5611,13 +5617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ372"/>
+  <dimension ref="A1:AQ370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5932,7 +5938,7 @@
         <v>2287000</v>
       </c>
       <c r="O3" s="19">
-        <f t="shared" ref="O3:O66" si="0">SUM(I3:N3)</f>
+        <f t="shared" ref="O3:O65" si="0">SUM(I3:N3)</f>
         <v>13242000</v>
       </c>
       <c r="P3" s="19">
@@ -11771,378 +11777,452 @@
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F50" s="4"/>
+        <v>1534</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
       <c r="G50" s="4">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
+      <c r="I50" s="19">
+        <v>60000</v>
+      </c>
+      <c r="J50" s="19">
+        <v>60000</v>
+      </c>
+      <c r="K50" s="19">
+        <v>65000</v>
+      </c>
+      <c r="L50" s="19">
+        <v>65000</v>
+      </c>
+      <c r="M50" s="19">
+        <v>65000</v>
+      </c>
+      <c r="N50" s="19">
+        <v>65000</v>
+      </c>
       <c r="O50" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
-      <c r="AH50" s="19"/>
-      <c r="AI50" s="19"/>
-      <c r="AJ50" s="19"/>
-      <c r="AK50" s="19"/>
-      <c r="AL50" s="19"/>
-      <c r="AM50" s="19"/>
-      <c r="AN50" s="19"/>
-      <c r="AO50" s="19"/>
-      <c r="AP50" s="19"/>
-      <c r="AQ50" s="19"/>
+        <v>380000</v>
+      </c>
+      <c r="P50" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>270000</v>
+      </c>
+      <c r="R50" s="19">
+        <v>0</v>
+      </c>
+      <c r="S50" s="19">
+        <v>165000</v>
+      </c>
+      <c r="T50" s="19">
+        <v>0</v>
+      </c>
+      <c r="U50" s="19">
+        <v>102000</v>
+      </c>
+      <c r="V50" s="19">
+        <v>150000</v>
+      </c>
+      <c r="W50" s="19">
+        <v>9055</v>
+      </c>
+      <c r="X50" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y50" s="19">
+        <v>120</v>
+      </c>
+      <c r="Z50" s="19">
+        <v>60105</v>
+      </c>
+      <c r="AA50" s="19">
+        <v>63065</v>
+      </c>
+      <c r="AB50" s="19">
+        <v>90005</v>
+      </c>
+      <c r="AC50" s="19">
+        <v>909370</v>
+      </c>
+      <c r="AD50" s="19">
+        <v>18000</v>
+      </c>
+      <c r="AE50" s="19">
+        <v>228000</v>
+      </c>
+      <c r="AF50" s="19">
+        <v>75000</v>
+      </c>
+      <c r="AG50" s="19">
+        <v>72000</v>
+      </c>
+      <c r="AH50" s="19">
+        <v>42000</v>
+      </c>
+      <c r="AI50" s="19">
+        <v>183000</v>
+      </c>
+      <c r="AJ50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="19">
+        <v>78055</v>
+      </c>
+      <c r="AL50" s="19">
+        <v>20</v>
+      </c>
+      <c r="AM50" s="19">
+        <v>120</v>
+      </c>
+      <c r="AN50" s="19">
+        <v>60105</v>
+      </c>
+      <c r="AO50" s="19">
+        <v>63065</v>
+      </c>
+      <c r="AP50" s="19">
+        <v>180005</v>
+      </c>
+      <c r="AQ50" s="19">
+        <v>999370</v>
+      </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>1534</v>
+        <v>1564</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="19">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J51" s="19">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="K51" s="19">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="L51" s="19">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="M51" s="19">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="N51" s="19">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="O51" s="19">
         <f t="shared" si="0"/>
-        <v>380000</v>
+        <v>120000</v>
       </c>
       <c r="P51" s="19">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="Q51" s="19">
-        <v>270000</v>
+        <v>47000</v>
       </c>
       <c r="R51" s="19">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="S51" s="19">
-        <v>165000</v>
+        <v>11000</v>
       </c>
       <c r="T51" s="19">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="U51" s="19">
-        <v>102000</v>
+        <v>15020</v>
       </c>
       <c r="V51" s="19">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="W51" s="19">
-        <v>9055</v>
+        <v>10000</v>
       </c>
       <c r="X51" s="19">
-        <v>20</v>
+        <v>40000</v>
       </c>
       <c r="Y51" s="19">
-        <v>120</v>
+        <v>10040</v>
       </c>
       <c r="Z51" s="19">
-        <v>60105</v>
+        <v>73005</v>
       </c>
       <c r="AA51" s="19">
-        <v>63065</v>
+        <v>537000</v>
       </c>
       <c r="AB51" s="19">
-        <v>90005</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="19">
-        <v>909370</v>
+        <v>860065</v>
       </c>
       <c r="AD51" s="19">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="AE51" s="19">
-        <v>228000</v>
+        <v>47000</v>
       </c>
       <c r="AF51" s="19">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="AG51" s="19">
-        <v>72000</v>
+        <v>11000</v>
       </c>
       <c r="AH51" s="19">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="19">
-        <v>183000</v>
+        <v>52020</v>
       </c>
       <c r="AJ51" s="19">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="AK51" s="19">
-        <v>78055</v>
+        <v>10000</v>
       </c>
       <c r="AL51" s="19">
-        <v>20</v>
+        <v>40000</v>
       </c>
       <c r="AM51" s="19">
-        <v>120</v>
+        <v>10040</v>
       </c>
       <c r="AN51" s="19">
-        <v>60105</v>
+        <v>10005</v>
       </c>
       <c r="AO51" s="19">
-        <v>63065</v>
+        <v>63000</v>
       </c>
       <c r="AP51" s="19">
-        <v>180005</v>
+        <v>974000</v>
       </c>
       <c r="AQ51" s="19">
-        <v>999370</v>
+        <v>1297065</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="3" t="s">
-        <v>70</v>
+        <v>1552</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="19">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J52" s="19">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K52" s="19">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="L52" s="19">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M52" s="19">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N52" s="19">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O52" s="19">
         <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="P52" s="19">
-        <v>20000</v>
-      </c>
-      <c r="Q52" s="19">
-        <v>47000</v>
-      </c>
-      <c r="R52" s="19">
-        <v>24000</v>
-      </c>
-      <c r="S52" s="19">
-        <v>11000</v>
-      </c>
-      <c r="T52" s="19">
-        <v>63000</v>
-      </c>
-      <c r="U52" s="19">
-        <v>15020</v>
-      </c>
-      <c r="V52" s="19">
-        <v>10000</v>
-      </c>
-      <c r="W52" s="19">
-        <v>10000</v>
-      </c>
-      <c r="X52" s="19">
-        <v>40000</v>
-      </c>
-      <c r="Y52" s="19">
-        <v>10040</v>
-      </c>
-      <c r="Z52" s="19">
-        <v>73005</v>
-      </c>
-      <c r="AA52" s="19">
-        <v>537000</v>
-      </c>
-      <c r="AB52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="19">
-        <v>860065</v>
-      </c>
-      <c r="AD52" s="19">
-        <v>20000</v>
-      </c>
-      <c r="AE52" s="19">
-        <v>47000</v>
-      </c>
-      <c r="AF52" s="19">
-        <v>24000</v>
-      </c>
-      <c r="AG52" s="19">
-        <v>11000</v>
-      </c>
-      <c r="AH52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="19">
-        <v>52020</v>
-      </c>
-      <c r="AJ52" s="19">
-        <v>36000</v>
-      </c>
-      <c r="AK52" s="19">
-        <v>10000</v>
-      </c>
-      <c r="AL52" s="19">
-        <v>40000</v>
-      </c>
-      <c r="AM52" s="19">
-        <v>10040</v>
-      </c>
-      <c r="AN52" s="19">
-        <v>10005</v>
-      </c>
-      <c r="AO52" s="19">
-        <v>63000</v>
-      </c>
-      <c r="AP52" s="19">
-        <v>974000</v>
-      </c>
-      <c r="AQ52" s="19">
-        <v>1297065</v>
-      </c>
+        <v>180000</v>
+      </c>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="19"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="19"/>
+      <c r="AQ52" s="19"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="3" t="s">
-        <v>1552</v>
+        <v>98</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>1553</v>
+        <v>1512</v>
       </c>
       <c r="F53" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G53" s="4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="19">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J53" s="19">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K53" s="19">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L53" s="19">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M53" s="19">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="N53" s="19">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="O53" s="19">
         <f t="shared" si="0"/>
-        <v>180000</v>
-      </c>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19"/>
-      <c r="AQ53" s="19"/>
+        <v>115000</v>
+      </c>
+      <c r="P53" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>0</v>
+      </c>
+      <c r="R53" s="19">
+        <v>0</v>
+      </c>
+      <c r="S53" s="19">
+        <v>0</v>
+      </c>
+      <c r="T53" s="19">
+        <v>0</v>
+      </c>
+      <c r="U53" s="19">
+        <v>0</v>
+      </c>
+      <c r="V53" s="19">
+        <v>0</v>
+      </c>
+      <c r="W53" s="19">
+        <v>30000</v>
+      </c>
+      <c r="X53" s="19">
+        <v>99000</v>
+      </c>
+      <c r="Y53" s="19">
+        <v>60000</v>
+      </c>
+      <c r="Z53" s="19">
+        <v>6000</v>
+      </c>
+      <c r="AA53" s="19">
+        <v>45000</v>
+      </c>
+      <c r="AB53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="19">
+        <v>240000</v>
+      </c>
+      <c r="AD53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="19">
+        <v>63000</v>
+      </c>
+      <c r="AK53" s="19">
+        <v>63000</v>
+      </c>
+      <c r="AL53" s="19">
+        <v>54000</v>
+      </c>
+      <c r="AM53" s="19">
+        <v>60000</v>
+      </c>
+      <c r="AN53" s="19">
+        <v>21000</v>
+      </c>
+      <c r="AO53" s="19">
+        <v>30000</v>
+      </c>
+      <c r="AP53" s="19">
+        <v>15000</v>
+      </c>
+      <c r="AQ53" s="19">
+        <v>306000</v>
+      </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -12150,40 +12230,40 @@
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F54" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G54" s="4">
         <v>100000</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="19">
-        <v>5000</v>
+        <v>106000</v>
       </c>
       <c r="J54" s="19">
-        <v>10000</v>
+        <v>76000</v>
       </c>
       <c r="K54" s="19">
-        <v>10000</v>
+        <v>89000</v>
       </c>
       <c r="L54" s="19">
-        <v>10000</v>
+        <v>89000</v>
       </c>
       <c r="M54" s="19">
-        <v>40000</v>
+        <v>109000</v>
       </c>
       <c r="N54" s="19">
-        <v>40000</v>
+        <v>109000</v>
       </c>
       <c r="O54" s="19">
         <f t="shared" si="0"/>
-        <v>115000</v>
+        <v>578000</v>
       </c>
       <c r="P54" s="19">
         <v>0</v>
@@ -12207,25 +12287,25 @@
         <v>0</v>
       </c>
       <c r="W54" s="19">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="X54" s="19">
-        <v>99000</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="19">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="19">
-        <v>6000</v>
+        <v>63000</v>
       </c>
       <c r="AA54" s="19">
-        <v>45000</v>
+        <v>21000</v>
       </c>
       <c r="AB54" s="19">
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="AC54" s="19">
-        <v>240000</v>
+        <v>171000</v>
       </c>
       <c r="AD54" s="19">
         <v>0</v>
@@ -12246,28 +12326,28 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="19">
         <v>63000</v>
       </c>
-      <c r="AK54" s="19">
-        <v>63000</v>
-      </c>
-      <c r="AL54" s="19">
-        <v>54000</v>
-      </c>
-      <c r="AM54" s="19">
-        <v>60000</v>
-      </c>
-      <c r="AN54" s="19">
-        <v>21000</v>
-      </c>
       <c r="AO54" s="19">
-        <v>30000</v>
+        <v>51000</v>
       </c>
       <c r="AP54" s="19">
-        <v>15000</v>
+        <v>57000</v>
       </c>
       <c r="AQ54" s="19">
-        <v>306000</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
@@ -12276,11 +12356,11 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -12290,26 +12370,26 @@
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="19">
-        <v>106000</v>
+        <v>120000</v>
       </c>
       <c r="J55" s="19">
-        <v>76000</v>
+        <v>125000</v>
       </c>
       <c r="K55" s="19">
-        <v>89000</v>
+        <v>130000</v>
       </c>
       <c r="L55" s="19">
-        <v>89000</v>
+        <v>135000</v>
       </c>
       <c r="M55" s="19">
-        <v>109000</v>
+        <v>165000</v>
       </c>
       <c r="N55" s="19">
-        <v>109000</v>
+        <v>165000</v>
       </c>
       <c r="O55" s="19">
         <f t="shared" si="0"/>
-        <v>578000</v>
+        <v>840000</v>
       </c>
       <c r="P55" s="19">
         <v>0</v>
@@ -12342,16 +12422,16 @@
         <v>0</v>
       </c>
       <c r="Z55" s="19">
-        <v>63000</v>
+        <v>39000</v>
       </c>
       <c r="AA55" s="19">
-        <v>21000</v>
+        <v>120000</v>
       </c>
       <c r="AB55" s="19">
-        <v>87000</v>
+        <v>120000</v>
       </c>
       <c r="AC55" s="19">
-        <v>171000</v>
+        <v>279000</v>
       </c>
       <c r="AD55" s="19">
         <v>0</v>
@@ -12384,327 +12464,327 @@
         <v>0</v>
       </c>
       <c r="AN55" s="19">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="19">
-        <v>51000</v>
+        <v>159000</v>
       </c>
       <c r="AP55" s="19">
-        <v>57000</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="19">
-        <v>171000</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>1514</v>
+        <v>1542</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
       </c>
-      <c r="G56" s="4">
-        <v>100000</v>
-      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="3"/>
       <c r="I56" s="19">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="J56" s="19">
+        <v>50000</v>
+      </c>
+      <c r="K56" s="19">
+        <v>115000</v>
+      </c>
+      <c r="L56" s="19">
         <v>125000</v>
       </c>
-      <c r="K56" s="19">
-        <v>130000</v>
-      </c>
-      <c r="L56" s="19">
-        <v>135000</v>
-      </c>
       <c r="M56" s="19">
-        <v>165000</v>
+        <v>185000</v>
       </c>
       <c r="N56" s="19">
-        <v>165000</v>
+        <v>185000</v>
       </c>
       <c r="O56" s="19">
         <f t="shared" si="0"/>
-        <v>840000</v>
-      </c>
-      <c r="P56" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="19">
-        <v>0</v>
-      </c>
-      <c r="R56" s="19">
-        <v>0</v>
-      </c>
-      <c r="S56" s="19">
-        <v>0</v>
-      </c>
-      <c r="T56" s="19">
-        <v>0</v>
-      </c>
-      <c r="U56" s="19">
-        <v>0</v>
-      </c>
-      <c r="V56" s="19">
-        <v>0</v>
-      </c>
-      <c r="W56" s="19">
-        <v>0</v>
-      </c>
-      <c r="X56" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="19">
-        <v>39000</v>
-      </c>
-      <c r="AA56" s="19">
-        <v>120000</v>
-      </c>
-      <c r="AB56" s="19">
-        <v>120000</v>
-      </c>
-      <c r="AC56" s="19">
-        <v>279000</v>
-      </c>
-      <c r="AD56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="19">
-        <v>159000</v>
-      </c>
-      <c r="AP56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ56" s="19">
-        <v>159000</v>
-      </c>
+        <v>710000</v>
+      </c>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="19"/>
+      <c r="AP56" s="19"/>
+      <c r="AQ56" s="19"/>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>1542</v>
+        <v>1503</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="G57" s="4">
+        <v>50000</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="19">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J57" s="19">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K57" s="19">
-        <v>115000</v>
+        <v>20000</v>
       </c>
       <c r="L57" s="19">
-        <v>125000</v>
+        <v>20000</v>
       </c>
       <c r="M57" s="19">
-        <v>185000</v>
+        <v>100000</v>
       </c>
       <c r="N57" s="19">
-        <v>185000</v>
+        <v>100000</v>
       </c>
       <c r="O57" s="19">
         <f t="shared" si="0"/>
-        <v>710000</v>
-      </c>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="19"/>
-      <c r="AI57" s="19"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="19"/>
-      <c r="AM57" s="19"/>
-      <c r="AN57" s="19"/>
-      <c r="AO57" s="19"/>
-      <c r="AP57" s="19"/>
-      <c r="AQ57" s="19"/>
+        <v>240000</v>
+      </c>
+      <c r="P57" s="19">
+        <v>10000</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>0</v>
+      </c>
+      <c r="R57" s="19">
+        <v>233000</v>
+      </c>
+      <c r="S57" s="19">
+        <v>244000</v>
+      </c>
+      <c r="T57" s="19">
+        <v>0</v>
+      </c>
+      <c r="U57" s="19">
+        <v>40000</v>
+      </c>
+      <c r="V57" s="19">
+        <v>4000</v>
+      </c>
+      <c r="W57" s="19">
+        <v>80000</v>
+      </c>
+      <c r="X57" s="19">
+        <v>38005</v>
+      </c>
+      <c r="Y57" s="19">
+        <v>83000</v>
+      </c>
+      <c r="Z57" s="19">
+        <v>128300</v>
+      </c>
+      <c r="AA57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="19">
+        <v>80000</v>
+      </c>
+      <c r="AC57" s="19">
+        <v>940305</v>
+      </c>
+      <c r="AD57" s="19">
+        <v>19000</v>
+      </c>
+      <c r="AE57" s="19">
+        <v>128000</v>
+      </c>
+      <c r="AF57" s="19">
+        <v>105000</v>
+      </c>
+      <c r="AG57" s="19">
+        <v>239000</v>
+      </c>
+      <c r="AH57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="19">
+        <v>42000</v>
+      </c>
+      <c r="AJ57" s="19">
+        <v>4000</v>
+      </c>
+      <c r="AK57" s="19">
+        <v>83000</v>
+      </c>
+      <c r="AL57" s="19">
+        <v>38005</v>
+      </c>
+      <c r="AM57" s="19">
+        <v>83000</v>
+      </c>
+      <c r="AN57" s="19">
+        <v>83300</v>
+      </c>
+      <c r="AO57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="19">
+        <v>824305</v>
+      </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="3" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>1503</v>
+        <v>1529</v>
       </c>
       <c r="F58" s="4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G58" s="4">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="19">
-        <v>0</v>
+        <v>4750</v>
       </c>
       <c r="J58" s="19">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="K58" s="19">
-        <v>20000</v>
+        <v>3750</v>
       </c>
       <c r="L58" s="19">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="M58" s="19">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N58" s="19">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="O58" s="19">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>12250</v>
       </c>
       <c r="P58" s="19">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="19">
         <v>0</v>
       </c>
       <c r="R58" s="19">
-        <v>233000</v>
+        <v>150000</v>
       </c>
       <c r="S58" s="19">
-        <v>244000</v>
+        <v>100000</v>
       </c>
       <c r="T58" s="19">
-        <v>0</v>
+        <v>267991</v>
       </c>
       <c r="U58" s="19">
-        <v>40000</v>
+        <v>251000</v>
       </c>
       <c r="V58" s="19">
-        <v>4000</v>
+        <v>140000</v>
       </c>
       <c r="W58" s="19">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="X58" s="19">
-        <v>38005</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="19">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="19">
-        <v>128300</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="19">
         <v>0</v>
       </c>
       <c r="AB58" s="19">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="19">
-        <v>940305</v>
+        <v>908991</v>
       </c>
       <c r="AD58" s="19">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="19">
-        <v>128000</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="19">
-        <v>105000</v>
+        <v>149758</v>
       </c>
       <c r="AG58" s="19">
-        <v>239000</v>
+        <v>200233</v>
       </c>
       <c r="AH58" s="19">
         <v>0</v>
       </c>
       <c r="AI58" s="19">
-        <v>42000</v>
+        <v>168000</v>
       </c>
       <c r="AJ58" s="19">
-        <v>4000</v>
+        <v>391000</v>
       </c>
       <c r="AK58" s="19">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="19">
-        <v>38005</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="19">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="19">
-        <v>83300</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="19">
         <v>0</v>
@@ -12713,133 +12793,133 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="19">
-        <v>824305</v>
+        <v>908991</v>
       </c>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="3" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>1529</v>
+        <v>1565</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G59" s="4">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="19">
-        <v>4750</v>
+        <v>210000</v>
       </c>
       <c r="J59" s="19">
-        <v>3750</v>
+        <v>214000</v>
       </c>
       <c r="K59" s="19">
-        <v>3750</v>
+        <v>219000</v>
       </c>
       <c r="L59" s="19">
-        <v>0</v>
+        <v>219000</v>
       </c>
       <c r="M59" s="19">
-        <v>0</v>
+        <v>229000</v>
       </c>
       <c r="N59" s="19">
-        <v>0</v>
+        <v>229000</v>
       </c>
       <c r="O59" s="19">
         <f t="shared" si="0"/>
-        <v>12250</v>
+        <v>1320000</v>
       </c>
       <c r="P59" s="19">
-        <v>0</v>
+        <v>43661</v>
       </c>
       <c r="Q59" s="19">
-        <v>0</v>
+        <v>160918</v>
       </c>
       <c r="R59" s="19">
-        <v>150000</v>
+        <v>152000</v>
       </c>
       <c r="S59" s="19">
-        <v>100000</v>
+        <v>92000</v>
       </c>
       <c r="T59" s="19">
-        <v>267991</v>
+        <v>136000</v>
       </c>
       <c r="U59" s="19">
-        <v>251000</v>
+        <v>28000</v>
       </c>
       <c r="V59" s="19">
-        <v>140000</v>
+        <v>20000</v>
       </c>
       <c r="W59" s="19">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="X59" s="19">
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="Y59" s="19">
-        <v>0</v>
+        <v>186950</v>
       </c>
       <c r="Z59" s="19">
-        <v>0</v>
+        <v>112300</v>
       </c>
       <c r="AA59" s="19">
-        <v>0</v>
+        <v>112000</v>
       </c>
       <c r="AB59" s="19">
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="AC59" s="19">
-        <v>908991</v>
+        <v>1333829</v>
       </c>
       <c r="AD59" s="19">
-        <v>0</v>
+        <v>343661</v>
       </c>
       <c r="AE59" s="19">
-        <v>0</v>
+        <v>23864</v>
       </c>
       <c r="AF59" s="19">
-        <v>149758</v>
+        <v>108000</v>
       </c>
       <c r="AG59" s="19">
-        <v>200233</v>
+        <v>244000</v>
       </c>
       <c r="AH59" s="19">
-        <v>0</v>
+        <v>136000</v>
       </c>
       <c r="AI59" s="19">
-        <v>168000</v>
+        <v>32000</v>
       </c>
       <c r="AJ59" s="19">
-        <v>391000</v>
+        <v>8000</v>
       </c>
       <c r="AK59" s="19">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="AL59" s="19">
-        <v>0</v>
+        <v>174950</v>
       </c>
       <c r="AM59" s="19">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="AN59" s="19">
-        <v>0</v>
+        <v>72300</v>
       </c>
       <c r="AO59" s="19">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="AP59" s="19">
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="AQ59" s="19">
-        <v>908991</v>
+        <v>1468775</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
@@ -12848,274 +12928,246 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>1565</v>
+        <v>1525</v>
       </c>
       <c r="F60" s="4">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G60" s="4">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="19">
-        <v>210000</v>
+        <v>356000</v>
       </c>
       <c r="J60" s="19">
-        <v>214000</v>
+        <v>366000</v>
       </c>
       <c r="K60" s="19">
-        <v>219000</v>
+        <v>358000</v>
       </c>
       <c r="L60" s="19">
-        <v>219000</v>
+        <v>368000</v>
       </c>
       <c r="M60" s="19">
-        <v>229000</v>
+        <v>358000</v>
       </c>
       <c r="N60" s="19">
-        <v>229000</v>
+        <v>368000</v>
       </c>
       <c r="O60" s="19">
         <f t="shared" si="0"/>
-        <v>1320000</v>
+        <v>2174000</v>
       </c>
       <c r="P60" s="19">
-        <v>43661</v>
+        <v>100000</v>
       </c>
       <c r="Q60" s="19">
-        <v>160918</v>
+        <v>85150</v>
       </c>
       <c r="R60" s="19">
-        <v>152000</v>
+        <v>73000</v>
       </c>
       <c r="S60" s="19">
-        <v>92000</v>
+        <v>36006</v>
       </c>
       <c r="T60" s="19">
-        <v>136000</v>
+        <v>117000</v>
       </c>
       <c r="U60" s="19">
-        <v>28000</v>
+        <v>15120</v>
       </c>
       <c r="V60" s="19">
-        <v>20000</v>
+        <v>1052</v>
       </c>
       <c r="W60" s="19">
-        <v>16000</v>
+        <v>19864</v>
       </c>
       <c r="X60" s="19">
-        <v>176000</v>
+        <v>109170</v>
       </c>
       <c r="Y60" s="19">
-        <v>186950</v>
+        <v>117472</v>
       </c>
       <c r="Z60" s="19">
-        <v>112300</v>
+        <v>35050</v>
       </c>
       <c r="AA60" s="19">
-        <v>112000</v>
+        <v>155379</v>
       </c>
       <c r="AB60" s="19">
-        <v>98000</v>
+        <v>229070</v>
       </c>
       <c r="AC60" s="19">
-        <v>1333829</v>
+        <v>1093333</v>
       </c>
       <c r="AD60" s="19">
-        <v>343661</v>
+        <v>85000</v>
       </c>
       <c r="AE60" s="19">
-        <v>23864</v>
+        <v>60000</v>
       </c>
       <c r="AF60" s="19">
-        <v>108000</v>
+        <v>98150</v>
       </c>
       <c r="AG60" s="19">
-        <v>244000</v>
+        <v>37006</v>
       </c>
       <c r="AH60" s="19">
-        <v>136000</v>
+        <v>65000</v>
       </c>
       <c r="AI60" s="19">
-        <v>32000</v>
+        <v>67120</v>
       </c>
       <c r="AJ60" s="19">
-        <v>8000</v>
+        <v>1052</v>
       </c>
       <c r="AK60" s="19">
-        <v>16000</v>
+        <v>69864</v>
       </c>
       <c r="AL60" s="19">
-        <v>174950</v>
+        <v>89170</v>
       </c>
       <c r="AM60" s="19">
-        <v>156000</v>
+        <v>90026</v>
       </c>
       <c r="AN60" s="19">
-        <v>72300</v>
+        <v>7050</v>
       </c>
       <c r="AO60" s="19">
-        <v>72000</v>
+        <v>3895</v>
       </c>
       <c r="AP60" s="19">
-        <v>82000</v>
+        <v>192000</v>
       </c>
       <c r="AQ60" s="19">
-        <v>1468775</v>
+        <v>865333</v>
       </c>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
+        <v>1545</v>
+      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="4">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="19">
-        <v>356000</v>
-      </c>
-      <c r="J61" s="19">
-        <v>366000</v>
-      </c>
-      <c r="K61" s="19">
-        <v>358000</v>
-      </c>
-      <c r="L61" s="19">
-        <v>368000</v>
-      </c>
-      <c r="M61" s="19">
-        <v>358000</v>
-      </c>
-      <c r="N61" s="19">
-        <v>368000</v>
-      </c>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
       <c r="O61" s="19">
         <f t="shared" si="0"/>
-        <v>2174000</v>
+        <v>0</v>
       </c>
       <c r="P61" s="19">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="19">
-        <v>85150</v>
+        <v>0</v>
       </c>
       <c r="R61" s="19">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="S61" s="19">
-        <v>36006</v>
+        <v>0</v>
       </c>
       <c r="T61" s="19">
-        <v>117000</v>
+        <v>0</v>
       </c>
       <c r="U61" s="19">
-        <v>15120</v>
+        <v>0</v>
       </c>
       <c r="V61" s="19">
-        <v>1052</v>
+        <v>0</v>
       </c>
       <c r="W61" s="19">
-        <v>19864</v>
+        <v>0</v>
       </c>
       <c r="X61" s="19">
-        <v>109170</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="19">
-        <v>117472</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="19">
-        <v>35050</v>
+        <v>1000</v>
       </c>
       <c r="AA61" s="19">
-        <v>155379</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="19">
-        <v>229070</v>
+        <v>3000</v>
       </c>
       <c r="AC61" s="19">
-        <v>1093333</v>
-      </c>
-      <c r="AD61" s="19">
-        <v>85000</v>
-      </c>
-      <c r="AE61" s="19">
-        <v>60000</v>
-      </c>
-      <c r="AF61" s="19">
-        <v>98150</v>
-      </c>
-      <c r="AG61" s="19">
-        <v>37006</v>
-      </c>
-      <c r="AH61" s="19">
-        <v>65000</v>
-      </c>
-      <c r="AI61" s="19">
-        <v>67120</v>
-      </c>
-      <c r="AJ61" s="19">
-        <v>1052</v>
-      </c>
-      <c r="AK61" s="19">
-        <v>69864</v>
-      </c>
-      <c r="AL61" s="19">
-        <v>89170</v>
-      </c>
-      <c r="AM61" s="19">
-        <v>90026</v>
-      </c>
-      <c r="AN61" s="19">
-        <v>7050</v>
-      </c>
-      <c r="AO61" s="19">
-        <v>3895</v>
-      </c>
-      <c r="AP61" s="19">
-        <v>192000</v>
-      </c>
-      <c r="AQ61" s="19">
-        <v>865333</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="19"/>
+      <c r="AI61" s="19"/>
+      <c r="AJ61" s="19"/>
+      <c r="AK61" s="19"/>
+      <c r="AL61" s="19"/>
+      <c r="AM61" s="19"/>
+      <c r="AN61" s="19"/>
+      <c r="AO61" s="19"/>
+      <c r="AP61" s="19"/>
+      <c r="AQ61" s="19"/>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F62" s="4"/>
+        <v>1537</v>
+      </c>
+      <c r="F62" s="4">
+        <v>100</v>
+      </c>
       <c r="G62" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H62" s="3"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
+      <c r="I62" s="19">
+        <v>33000</v>
+      </c>
+      <c r="J62" s="19">
+        <v>37000</v>
+      </c>
+      <c r="K62" s="19">
+        <v>48000</v>
+      </c>
+      <c r="L62" s="19">
+        <v>58000</v>
+      </c>
+      <c r="M62" s="19">
+        <v>63000</v>
+      </c>
+      <c r="N62" s="19">
+        <v>63000</v>
+      </c>
       <c r="O62" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>302000</v>
       </c>
       <c r="P62" s="19">
         <v>0</v>
@@ -13127,303 +13179,331 @@
         <v>0</v>
       </c>
       <c r="S62" s="19">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="T62" s="19">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="U62" s="19">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="V62" s="19">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="W62" s="19">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="X62" s="19">
-        <v>0</v>
+        <v>17155</v>
       </c>
       <c r="Y62" s="19">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="Z62" s="19">
-        <v>1000</v>
+        <v>30187</v>
       </c>
       <c r="AA62" s="19">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="AB62" s="19">
-        <v>3000</v>
+        <v>24300</v>
       </c>
       <c r="AC62" s="19">
+        <v>125492</v>
+      </c>
+      <c r="AD62" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="19">
+        <v>16000</v>
+      </c>
+      <c r="AH62" s="19">
         <v>4000</v>
       </c>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="19"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="19"/>
-      <c r="AJ62" s="19"/>
-      <c r="AK62" s="19"/>
-      <c r="AL62" s="19"/>
-      <c r="AM62" s="19"/>
-      <c r="AN62" s="19"/>
-      <c r="AO62" s="19"/>
-      <c r="AP62" s="19"/>
-      <c r="AQ62" s="19"/>
+      <c r="AI62" s="19">
+        <v>1600</v>
+      </c>
+      <c r="AJ62" s="19">
+        <v>8100</v>
+      </c>
+      <c r="AK62" s="19">
+        <v>250</v>
+      </c>
+      <c r="AL62" s="19">
+        <v>17255</v>
+      </c>
+      <c r="AM62" s="19">
+        <v>4787</v>
+      </c>
+      <c r="AN62" s="19">
+        <v>41000</v>
+      </c>
+      <c r="AO62" s="19">
+        <v>17200</v>
+      </c>
+      <c r="AP62" s="19">
+        <v>24300</v>
+      </c>
+      <c r="AQ62" s="19">
+        <v>134492</v>
+      </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>1537</v>
+        <v>1507</v>
       </c>
       <c r="F63" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G63" s="4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="19">
-        <v>33000</v>
+        <v>110000</v>
       </c>
       <c r="J63" s="19">
-        <v>37000</v>
+        <v>100000</v>
       </c>
       <c r="K63" s="19">
-        <v>48000</v>
+        <v>100000</v>
       </c>
       <c r="L63" s="19">
-        <v>58000</v>
+        <v>100000</v>
       </c>
       <c r="M63" s="19">
-        <v>63000</v>
+        <v>100000</v>
       </c>
       <c r="N63" s="19">
-        <v>63000</v>
+        <v>100000</v>
       </c>
       <c r="O63" s="19">
         <f t="shared" si="0"/>
-        <v>302000</v>
+        <v>610000</v>
       </c>
       <c r="P63" s="19">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="Q63" s="19">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="R63" s="19">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="S63" s="19">
-        <v>7000</v>
+        <v>60000</v>
       </c>
       <c r="T63" s="19">
-        <v>7000</v>
+        <v>60600</v>
       </c>
       <c r="U63" s="19">
-        <v>1600</v>
+        <v>67000</v>
       </c>
       <c r="V63" s="19">
-        <v>5100</v>
+        <v>64700</v>
       </c>
       <c r="W63" s="19">
-        <v>350</v>
+        <v>13000</v>
       </c>
       <c r="X63" s="19">
-        <v>17155</v>
+        <v>69500</v>
       </c>
       <c r="Y63" s="19">
-        <v>16800</v>
+        <v>78536</v>
       </c>
       <c r="Z63" s="19">
-        <v>30187</v>
+        <v>60000</v>
       </c>
       <c r="AA63" s="19">
-        <v>16000</v>
+        <v>100131</v>
       </c>
       <c r="AB63" s="19">
-        <v>24300</v>
+        <v>90012</v>
       </c>
       <c r="AC63" s="19">
-        <v>125492</v>
+        <v>807679</v>
       </c>
       <c r="AD63" s="19">
-        <v>0</v>
+        <v>28979</v>
       </c>
       <c r="AE63" s="19">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="AF63" s="19">
-        <v>0</v>
+        <v>145000</v>
       </c>
       <c r="AG63" s="19">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="19">
-        <v>4000</v>
+        <v>20600</v>
       </c>
       <c r="AI63" s="19">
-        <v>1600</v>
+        <v>46500</v>
       </c>
       <c r="AJ63" s="19">
-        <v>8100</v>
+        <v>70200</v>
       </c>
       <c r="AK63" s="19">
-        <v>250</v>
+        <v>68000</v>
       </c>
       <c r="AL63" s="19">
-        <v>17255</v>
+        <v>79500</v>
       </c>
       <c r="AM63" s="19">
-        <v>4787</v>
+        <v>88536</v>
       </c>
       <c r="AN63" s="19">
-        <v>41000</v>
+        <v>81041</v>
       </c>
       <c r="AO63" s="19">
-        <v>17200</v>
+        <v>19131</v>
       </c>
       <c r="AP63" s="19">
-        <v>24300</v>
+        <v>55585</v>
       </c>
       <c r="AQ63" s="19">
-        <v>134492</v>
+        <v>742072</v>
       </c>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="3" t="s">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="F64" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G64" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="19">
-        <v>110000</v>
+        <v>30000</v>
       </c>
       <c r="J64" s="19">
-        <v>100000</v>
+        <v>42000</v>
       </c>
       <c r="K64" s="19">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="L64" s="19">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="M64" s="19">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N64" s="19">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="O64" s="19">
         <f t="shared" si="0"/>
-        <v>610000</v>
+        <v>213000</v>
       </c>
       <c r="P64" s="19">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="19">
-        <v>74000</v>
+        <v>0</v>
       </c>
       <c r="R64" s="19">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="S64" s="19">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="T64" s="19">
-        <v>60600</v>
+        <v>0</v>
       </c>
       <c r="U64" s="19">
-        <v>67000</v>
+        <v>0</v>
       </c>
       <c r="V64" s="19">
-        <v>64700</v>
+        <v>0</v>
       </c>
       <c r="W64" s="19">
-        <v>13000</v>
+        <v>36000</v>
       </c>
       <c r="X64" s="19">
-        <v>69500</v>
+        <v>51000</v>
       </c>
       <c r="Y64" s="19">
-        <v>78536</v>
+        <v>27000</v>
       </c>
       <c r="Z64" s="19">
-        <v>60000</v>
+        <v>63000</v>
       </c>
       <c r="AA64" s="19">
-        <v>100131</v>
+        <v>21000</v>
       </c>
       <c r="AB64" s="19">
-        <v>90012</v>
+        <v>30000</v>
       </c>
       <c r="AC64" s="19">
-        <v>807679</v>
+        <v>228000</v>
       </c>
       <c r="AD64" s="19">
-        <v>28979</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="19">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="19">
-        <v>145000</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="19">
         <v>0</v>
       </c>
       <c r="AH64" s="19">
-        <v>20600</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="19">
-        <v>46500</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="19">
-        <v>70200</v>
+        <v>66000</v>
       </c>
       <c r="AK64" s="19">
-        <v>68000</v>
+        <v>36000</v>
       </c>
       <c r="AL64" s="19">
-        <v>79500</v>
+        <v>45000</v>
       </c>
       <c r="AM64" s="19">
-        <v>88536</v>
+        <v>66000</v>
       </c>
       <c r="AN64" s="19">
-        <v>81041</v>
+        <v>57009</v>
       </c>
       <c r="AO64" s="19">
-        <v>19131</v>
+        <v>51000</v>
       </c>
       <c r="AP64" s="19">
-        <v>55585</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="19">
-        <v>742072</v>
+        <v>321009</v>
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.2">
@@ -13432,11 +13512,11 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -13446,26 +13526,26 @@
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="19">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="J65" s="19">
-        <v>42000</v>
+        <v>5000</v>
       </c>
       <c r="K65" s="19">
-        <v>36000</v>
+        <v>14000</v>
       </c>
       <c r="L65" s="19">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M65" s="19">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="N65" s="19">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O65" s="19">
         <f t="shared" si="0"/>
-        <v>213000</v>
+        <v>81000</v>
       </c>
       <c r="P65" s="19">
         <v>0</v>
@@ -13489,485 +13569,429 @@
         <v>0</v>
       </c>
       <c r="W65" s="19">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="X65" s="19">
-        <v>51000</v>
+        <v>33000</v>
       </c>
       <c r="Y65" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AB65" s="19">
+        <v>39000</v>
+      </c>
+      <c r="AC65" s="19">
+        <v>75000</v>
+      </c>
+      <c r="AD65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="19">
+        <v>18000</v>
+      </c>
+      <c r="AK65" s="19">
+        <v>54000</v>
+      </c>
+      <c r="AL65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AP65" s="19">
         <v>27000</v>
       </c>
-      <c r="Z65" s="19">
-        <v>63000</v>
-      </c>
-      <c r="AA65" s="19">
-        <v>21000</v>
-      </c>
-      <c r="AB65" s="19">
-        <v>30000</v>
-      </c>
-      <c r="AC65" s="19">
-        <v>228000</v>
-      </c>
-      <c r="AD65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="19">
-        <v>66000</v>
-      </c>
-      <c r="AK65" s="19">
-        <v>36000</v>
-      </c>
-      <c r="AL65" s="19">
-        <v>45000</v>
-      </c>
-      <c r="AM65" s="19">
-        <v>66000</v>
-      </c>
-      <c r="AN65" s="19">
-        <v>57009</v>
-      </c>
-      <c r="AO65" s="19">
-        <v>51000</v>
-      </c>
-      <c r="AP65" s="19">
-        <v>0</v>
-      </c>
       <c r="AQ65" s="19">
-        <v>321009</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="3" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>1516</v>
+        <v>1566</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <v>50000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="3"/>
       <c r="I66" s="19">
-        <v>14000</v>
+        <v>90000</v>
       </c>
       <c r="J66" s="19">
-        <v>5000</v>
+        <v>90000</v>
       </c>
       <c r="K66" s="19">
-        <v>14000</v>
+        <v>880000</v>
       </c>
       <c r="L66" s="19">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="M66" s="19">
-        <v>14000</v>
+        <v>190000</v>
       </c>
       <c r="N66" s="19">
-        <v>14000</v>
+        <v>190000</v>
       </c>
       <c r="O66" s="19">
-        <f t="shared" si="0"/>
-        <v>81000</v>
+        <f t="shared" ref="O66:O86" si="1">SUM(I66:N66)</f>
+        <v>1530000</v>
       </c>
       <c r="P66" s="19">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Q66" s="19">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="R66" s="19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S66" s="19">
         <v>0</v>
       </c>
       <c r="T66" s="19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="U66" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" s="19">
         <v>0</v>
       </c>
       <c r="W66" s="19">
-        <v>0</v>
+        <v>705001</v>
       </c>
       <c r="X66" s="19">
-        <v>33000</v>
+        <v>520</v>
       </c>
       <c r="Y66" s="19">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="Z66" s="19">
-        <v>0</v>
+        <v>690005</v>
       </c>
       <c r="AA66" s="19">
-        <v>3000</v>
+        <v>18035</v>
       </c>
       <c r="AB66" s="19">
+        <v>680000</v>
+      </c>
+      <c r="AC66" s="19">
+        <v>2150613</v>
+      </c>
+      <c r="AD66" s="19">
+        <v>54000</v>
+      </c>
+      <c r="AE66" s="19">
+        <v>6000</v>
+      </c>
+      <c r="AF66" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="19">
+        <v>50</v>
+      </c>
+      <c r="AH66" s="19">
+        <v>6000</v>
+      </c>
+      <c r="AI66" s="19">
+        <v>2</v>
+      </c>
+      <c r="AJ66" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="19">
+        <v>240001</v>
+      </c>
+      <c r="AL66" s="19">
+        <v>12520</v>
+      </c>
+      <c r="AM66" s="19">
+        <v>624000</v>
+      </c>
+      <c r="AN66" s="19">
+        <v>5</v>
+      </c>
+      <c r="AO66" s="19">
+        <v>288035</v>
+      </c>
+      <c r="AP66" s="19">
         <v>39000</v>
       </c>
-      <c r="AC66" s="19">
-        <v>75000</v>
-      </c>
-      <c r="AD66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="19">
-        <v>18000</v>
-      </c>
-      <c r="AK66" s="19">
-        <v>54000</v>
-      </c>
-      <c r="AL66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO66" s="19">
-        <v>3000</v>
-      </c>
-      <c r="AP66" s="19">
-        <v>27000</v>
-      </c>
       <c r="AQ66" s="19">
-        <v>102000</v>
+        <v>1269613</v>
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="3" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>1566</v>
+        <v>1528</v>
       </c>
       <c r="F67" s="4">
-        <v>24</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>50000</v>
+      </c>
       <c r="H67" s="3"/>
       <c r="I67" s="19">
-        <v>90000</v>
+        <v>21150</v>
       </c>
       <c r="J67" s="19">
-        <v>90000</v>
+        <v>23500</v>
       </c>
       <c r="K67" s="19">
-        <v>880000</v>
+        <v>23500</v>
       </c>
       <c r="L67" s="19">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="M67" s="19">
-        <v>190000</v>
+        <v>30000</v>
       </c>
       <c r="N67" s="19">
-        <v>190000</v>
+        <v>30000</v>
       </c>
       <c r="O67" s="19">
-        <f t="shared" ref="O67:O87" si="1">SUM(I67:N67)</f>
-        <v>1530000</v>
+        <f t="shared" si="1"/>
+        <v>158150</v>
       </c>
       <c r="P67" s="19">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="19">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="R67" s="19">
-        <v>50</v>
+        <v>8000</v>
       </c>
       <c r="S67" s="19">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="T67" s="19">
-        <v>3000</v>
+        <v>110160</v>
       </c>
       <c r="U67" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V67" s="19">
         <v>0</v>
       </c>
       <c r="W67" s="19">
-        <v>705001</v>
+        <v>0</v>
       </c>
       <c r="X67" s="19">
-        <v>520</v>
+        <v>37820</v>
       </c>
       <c r="Y67" s="19">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="19">
-        <v>690005</v>
+        <v>14180</v>
       </c>
       <c r="AA67" s="19">
-        <v>18035</v>
+        <v>96000</v>
       </c>
       <c r="AB67" s="19">
-        <v>680000</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="19">
-        <v>2150613</v>
+        <v>271160</v>
       </c>
       <c r="AD67" s="19">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="19">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="19">
         <v>0</v>
       </c>
       <c r="AG67" s="19">
-        <v>50</v>
+        <v>19160</v>
       </c>
       <c r="AH67" s="19">
-        <v>6000</v>
+        <v>80000</v>
       </c>
       <c r="AI67" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="19">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="AK67" s="19">
-        <v>240001</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="19">
-        <v>12520</v>
+        <v>37820</v>
       </c>
       <c r="AM67" s="19">
-        <v>624000</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="19">
-        <v>5</v>
+        <v>14180</v>
       </c>
       <c r="AO67" s="19">
-        <v>288035</v>
+        <v>32000</v>
       </c>
       <c r="AP67" s="19">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="AQ67" s="19">
-        <v>1269613</v>
+        <v>236160</v>
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="3" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>1528</v>
+        <v>1622</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G68" s="4">
         <v>50000</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="19">
-        <v>21150</v>
+        <v>27000</v>
       </c>
       <c r="J68" s="19">
-        <v>23500</v>
+        <v>27000</v>
       </c>
       <c r="K68" s="19">
-        <v>23500</v>
+        <v>27000</v>
       </c>
       <c r="L68" s="19">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M68" s="19">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N68" s="19">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O68" s="19">
         <f t="shared" si="1"/>
-        <v>158150</v>
-      </c>
-      <c r="P68" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="19">
-        <v>0</v>
-      </c>
-      <c r="R68" s="19">
-        <v>8000</v>
-      </c>
-      <c r="S68" s="19">
-        <v>5000</v>
-      </c>
-      <c r="T68" s="19">
-        <v>110160</v>
-      </c>
-      <c r="U68" s="19">
-        <v>0</v>
-      </c>
-      <c r="V68" s="19">
-        <v>0</v>
-      </c>
-      <c r="W68" s="19">
-        <v>0</v>
-      </c>
-      <c r="X68" s="19">
-        <v>37820</v>
-      </c>
-      <c r="Y68" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="19">
-        <v>14180</v>
-      </c>
-      <c r="AA68" s="19">
-        <v>96000</v>
-      </c>
-      <c r="AB68" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="19">
-        <v>271160</v>
-      </c>
-      <c r="AD68" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="19">
-        <v>19160</v>
-      </c>
-      <c r="AH68" s="19">
-        <v>80000</v>
-      </c>
-      <c r="AI68" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="19">
-        <v>24000</v>
-      </c>
-      <c r="AK68" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL68" s="19">
-        <v>37820</v>
-      </c>
-      <c r="AM68" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN68" s="19">
-        <v>14180</v>
-      </c>
-      <c r="AO68" s="19">
-        <v>32000</v>
-      </c>
-      <c r="AP68" s="19">
-        <v>29000</v>
-      </c>
-      <c r="AQ68" s="19">
-        <v>236160</v>
-      </c>
+        <v>162000</v>
+      </c>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="19"/>
+      <c r="AI68" s="19"/>
+      <c r="AJ68" s="19"/>
+      <c r="AK68" s="19"/>
+      <c r="AL68" s="19"/>
+      <c r="AM68" s="19"/>
+      <c r="AN68" s="19"/>
+      <c r="AO68" s="19"/>
+      <c r="AP68" s="19"/>
+      <c r="AQ68" s="19"/>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="3" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>1622</v>
+        <v>1538</v>
       </c>
       <c r="F69" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G69" s="4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="19">
-        <v>27000</v>
+        <v>51000</v>
       </c>
       <c r="J69" s="19">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="K69" s="19">
-        <v>27000</v>
+        <v>71000</v>
       </c>
       <c r="L69" s="19">
-        <v>27000</v>
+        <v>91000</v>
       </c>
       <c r="M69" s="19">
-        <v>27000</v>
+        <v>91000</v>
       </c>
       <c r="N69" s="19">
-        <v>27000</v>
+        <v>91000</v>
       </c>
       <c r="O69" s="19">
         <f t="shared" si="1"/>
-        <v>162000</v>
+        <v>451000</v>
       </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
@@ -14000,230 +14024,286 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>1538</v>
+        <v>1508</v>
       </c>
       <c r="F70" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G70" s="4">
         <v>40000</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="19">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="19">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="19">
-        <v>71000</v>
+        <v>20000</v>
       </c>
       <c r="L70" s="19">
-        <v>91000</v>
+        <v>20000</v>
       </c>
       <c r="M70" s="19">
-        <v>91000</v>
+        <v>20000</v>
       </c>
       <c r="N70" s="19">
-        <v>91000</v>
+        <v>20000</v>
       </c>
       <c r="O70" s="19">
         <f t="shared" si="1"/>
-        <v>451000</v>
-      </c>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="19"/>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="19"/>
-      <c r="AJ70" s="19"/>
-      <c r="AK70" s="19"/>
-      <c r="AL70" s="19"/>
-      <c r="AM70" s="19"/>
-      <c r="AN70" s="19"/>
-      <c r="AO70" s="19"/>
-      <c r="AP70" s="19"/>
-      <c r="AQ70" s="19"/>
+        <v>80000</v>
+      </c>
+      <c r="P70" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>40000</v>
+      </c>
+      <c r="R70" s="19">
+        <v>50000</v>
+      </c>
+      <c r="S70" s="19">
+        <v>30000</v>
+      </c>
+      <c r="T70" s="19">
+        <v>10000</v>
+      </c>
+      <c r="U70" s="19">
+        <v>45018</v>
+      </c>
+      <c r="V70" s="19">
+        <v>20000</v>
+      </c>
+      <c r="W70" s="19">
+        <v>20000</v>
+      </c>
+      <c r="X70" s="19">
+        <v>35011</v>
+      </c>
+      <c r="Y70" s="19">
+        <v>31023</v>
+      </c>
+      <c r="Z70" s="19">
+        <v>40000</v>
+      </c>
+      <c r="AA70" s="19">
+        <v>20000</v>
+      </c>
+      <c r="AB70" s="19">
+        <v>10000</v>
+      </c>
+      <c r="AC70" s="19">
+        <v>351052</v>
+      </c>
+      <c r="AD70" s="19">
+        <v>30000</v>
+      </c>
+      <c r="AE70" s="19">
+        <v>35000</v>
+      </c>
+      <c r="AF70" s="19">
+        <v>50000</v>
+      </c>
+      <c r="AG70" s="19">
+        <v>15000</v>
+      </c>
+      <c r="AH70" s="19">
+        <v>35000</v>
+      </c>
+      <c r="AI70" s="19">
+        <v>40018</v>
+      </c>
+      <c r="AJ70" s="19">
+        <v>20000</v>
+      </c>
+      <c r="AK70" s="19">
+        <v>20000</v>
+      </c>
+      <c r="AL70" s="19">
+        <v>35011</v>
+      </c>
+      <c r="AM70" s="19">
+        <v>41023</v>
+      </c>
+      <c r="AN70" s="19">
+        <v>30000</v>
+      </c>
+      <c r="AO70" s="19">
+        <v>20000</v>
+      </c>
+      <c r="AP70" s="19">
+        <v>9500</v>
+      </c>
+      <c r="AQ70" s="19">
+        <v>380552</v>
+      </c>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="3" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>1508</v>
+        <v>1547</v>
       </c>
       <c r="F71" s="4">
         <v>25</v>
       </c>
       <c r="G71" s="4">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="19">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J71" s="19">
         <v>0</v>
       </c>
       <c r="K71" s="19">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="L71" s="19">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M71" s="19">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="N71" s="19">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="O71" s="19">
         <f t="shared" si="1"/>
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="P71" s="19">
         <v>0</v>
       </c>
       <c r="Q71" s="19">
+        <v>0</v>
+      </c>
+      <c r="R71" s="19">
+        <v>30000</v>
+      </c>
+      <c r="S71" s="19">
+        <v>32000</v>
+      </c>
+      <c r="T71" s="19">
         <v>40000</v>
       </c>
-      <c r="R71" s="19">
-        <v>50000</v>
-      </c>
-      <c r="S71" s="19">
+      <c r="U71" s="19">
+        <v>0</v>
+      </c>
+      <c r="V71" s="19">
+        <v>655</v>
+      </c>
+      <c r="W71" s="19">
+        <v>51000</v>
+      </c>
+      <c r="X71" s="19">
+        <v>1078</v>
+      </c>
+      <c r="Y71" s="19">
+        <v>55500</v>
+      </c>
+      <c r="Z71" s="19">
+        <v>80010</v>
+      </c>
+      <c r="AA71" s="19">
+        <v>7149</v>
+      </c>
+      <c r="AB71" s="19">
+        <v>110</v>
+      </c>
+      <c r="AC71" s="19">
+        <v>297502</v>
+      </c>
+      <c r="AD71" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="19">
         <v>30000</v>
       </c>
-      <c r="T71" s="19">
-        <v>10000</v>
-      </c>
-      <c r="U71" s="19">
-        <v>45018</v>
-      </c>
-      <c r="V71" s="19">
-        <v>20000</v>
-      </c>
-      <c r="W71" s="19">
-        <v>20000</v>
-      </c>
-      <c r="X71" s="19">
-        <v>35011</v>
-      </c>
-      <c r="Y71" s="19">
-        <v>31023</v>
-      </c>
-      <c r="Z71" s="19">
-        <v>40000</v>
-      </c>
-      <c r="AA71" s="19">
-        <v>20000</v>
-      </c>
-      <c r="AB71" s="19">
-        <v>10000</v>
-      </c>
-      <c r="AC71" s="19">
-        <v>351052</v>
-      </c>
-      <c r="AD71" s="19">
-        <v>30000</v>
-      </c>
-      <c r="AE71" s="19">
-        <v>35000</v>
-      </c>
-      <c r="AF71" s="19">
-        <v>50000</v>
-      </c>
       <c r="AG71" s="19">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="AH71" s="19">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="19">
-        <v>40018</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="19">
-        <v>20000</v>
+        <v>30655</v>
       </c>
       <c r="AK71" s="19">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="AL71" s="19">
-        <v>35011</v>
+        <v>61078</v>
       </c>
       <c r="AM71" s="19">
-        <v>41023</v>
+        <v>38000</v>
       </c>
       <c r="AN71" s="19">
-        <v>30000</v>
+        <v>58510</v>
       </c>
       <c r="AO71" s="19">
-        <v>20000</v>
+        <v>46149</v>
       </c>
       <c r="AP71" s="19">
-        <v>9500</v>
+        <v>110</v>
       </c>
       <c r="AQ71" s="19">
-        <v>380552</v>
+        <v>297502</v>
       </c>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="3" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>1547</v>
+        <v>551</v>
       </c>
       <c r="F72" s="4">
         <v>25</v>
       </c>
       <c r="G72" s="4">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="19">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J72" s="19">
         <v>0</v>
       </c>
       <c r="K72" s="19">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L72" s="19">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="M72" s="19">
         <v>0</v>
@@ -14233,7 +14313,7 @@
       </c>
       <c r="O72" s="19">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="P72" s="19">
         <v>0</v>
@@ -14242,40 +14322,40 @@
         <v>0</v>
       </c>
       <c r="R72" s="19">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="S72" s="19">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="T72" s="19">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="U72" s="19">
         <v>0</v>
       </c>
       <c r="V72" s="19">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="W72" s="19">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="X72" s="19">
-        <v>1078</v>
+        <v>650</v>
       </c>
       <c r="Y72" s="19">
-        <v>55500</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="19">
-        <v>80010</v>
+        <v>58</v>
       </c>
       <c r="AA72" s="19">
-        <v>7149</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="19">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="19">
-        <v>297502</v>
+        <v>708</v>
       </c>
       <c r="AD72" s="19">
         <v>0</v>
@@ -14284,10 +14364,10 @@
         <v>0</v>
       </c>
       <c r="AF72" s="19">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="19">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="AH72" s="19">
         <v>0</v>
@@ -14296,28 +14376,28 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="19">
-        <v>30655</v>
+        <v>0</v>
       </c>
       <c r="AK72" s="19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="19">
-        <v>61078</v>
+        <v>650</v>
       </c>
       <c r="AM72" s="19">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="AN72" s="19">
-        <v>58510</v>
+        <v>58</v>
       </c>
       <c r="AO72" s="19">
-        <v>46149</v>
+        <v>0</v>
       </c>
       <c r="AP72" s="19">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="19">
-        <v>297502</v>
+        <v>708</v>
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.2">
@@ -14326,40 +14406,40 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>551</v>
+        <v>473</v>
       </c>
       <c r="F73" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G73" s="4">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="19">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J73" s="19">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="K73" s="19">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="L73" s="19">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="M73" s="19">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="N73" s="19">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="O73" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>245000</v>
       </c>
       <c r="P73" s="19">
         <v>0</v>
@@ -14383,25 +14463,25 @@
         <v>0</v>
       </c>
       <c r="W73" s="19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X73" s="19">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="19">
         <v>0</v>
       </c>
       <c r="Z73" s="19">
-        <v>58</v>
+        <v>40000</v>
       </c>
       <c r="AA73" s="19">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AB73" s="19">
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="AC73" s="19">
-        <v>708</v>
+        <v>133500</v>
       </c>
       <c r="AD73" s="19">
         <v>0</v>
@@ -14428,316 +14508,316 @@
         <v>0</v>
       </c>
       <c r="AL73" s="19">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AN73" s="19">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AO73" s="19">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="AP73" s="19">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AQ73" s="19">
-        <v>708</v>
+        <v>79500</v>
       </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="3" t="s">
-        <v>284</v>
+      <c r="C74" s="5" t="s">
+        <v>1645</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>473</v>
+      <c r="E74" s="3" t="s">
+        <v>1646</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="19">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J74" s="19">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="K74" s="19">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="L74" s="19">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="M74" s="19">
-        <v>41000</v>
+        <v>50000</v>
       </c>
       <c r="N74" s="19">
-        <v>41000</v>
+        <v>50000</v>
       </c>
       <c r="O74" s="19">
         <f t="shared" si="1"/>
-        <v>245000</v>
+        <v>100000</v>
       </c>
       <c r="P74" s="19">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q74" s="19">
-        <v>0</v>
+        <v>12179</v>
       </c>
       <c r="R74" s="19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S74" s="19">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="T74" s="19">
         <v>0</v>
       </c>
       <c r="U74" s="19">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="V74" s="19">
         <v>0</v>
       </c>
       <c r="W74" s="19">
-        <v>3000</v>
+        <v>70</v>
       </c>
       <c r="X74" s="19">
-        <v>0</v>
+        <v>2480</v>
       </c>
       <c r="Y74" s="19">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="Z74" s="19">
-        <v>40000</v>
+        <v>6980</v>
       </c>
       <c r="AA74" s="19">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="19">
-        <v>50500</v>
+        <v>2450</v>
       </c>
       <c r="AC74" s="19">
-        <v>133500</v>
+        <v>28739</v>
       </c>
       <c r="AD74" s="19">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AE74" s="19">
         <v>0</v>
       </c>
       <c r="AF74" s="19">
-        <v>0</v>
+        <v>9186</v>
       </c>
       <c r="AG74" s="19">
-        <v>0</v>
+        <v>3043</v>
       </c>
       <c r="AH74" s="19">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AI74" s="19">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AJ74" s="19">
         <v>0</v>
       </c>
       <c r="AK74" s="19">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL74" s="19">
-        <v>0</v>
+        <v>2480</v>
       </c>
       <c r="AM74" s="19">
-        <v>3000</v>
+        <v>2450</v>
       </c>
       <c r="AN74" s="19">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AO74" s="19">
-        <v>75000</v>
+        <v>980</v>
       </c>
       <c r="AP74" s="19">
-        <v>1500</v>
+        <v>2450</v>
       </c>
       <c r="AQ74" s="19">
-        <v>79500</v>
+        <v>28129</v>
       </c>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="5" t="s">
-        <v>1645</v>
+      <c r="C75" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="3" t="s">
-        <v>1646</v>
+      <c r="E75" s="9" t="s">
+        <v>1536</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
       </c>
       <c r="G75" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J75" s="19">
         <v>0</v>
       </c>
       <c r="K75" s="19">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="L75" s="19">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="M75" s="19">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="N75" s="19">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="O75" s="19">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>92000</v>
       </c>
       <c r="P75" s="19">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="19">
-        <v>12179</v>
+        <v>0</v>
       </c>
       <c r="R75" s="19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S75" s="19">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="T75" s="19">
         <v>0</v>
       </c>
       <c r="U75" s="19">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="V75" s="19">
         <v>0</v>
       </c>
       <c r="W75" s="19">
-        <v>70</v>
+        <v>4000</v>
       </c>
       <c r="X75" s="19">
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="19">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="Z75" s="19">
-        <v>6980</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="19">
         <v>0</v>
       </c>
       <c r="AB75" s="19">
-        <v>2450</v>
+        <v>120</v>
       </c>
       <c r="AC75" s="19">
-        <v>28739</v>
+        <v>4120</v>
       </c>
       <c r="AD75" s="19">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="19">
         <v>0</v>
       </c>
       <c r="AF75" s="19">
-        <v>9186</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="19">
-        <v>3043</v>
+        <v>0</v>
       </c>
       <c r="AH75" s="19">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="19">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="AJ75" s="19">
         <v>0</v>
       </c>
       <c r="AK75" s="19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="19">
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="19">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="AN75" s="19">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="19">
-        <v>980</v>
+        <v>4000</v>
       </c>
       <c r="AP75" s="19">
-        <v>2450</v>
+        <v>120</v>
       </c>
       <c r="AQ75" s="19">
-        <v>28129</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="3" t="s">
-        <v>230</v>
+        <v>1548</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
       </c>
       <c r="G76" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="19">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J76" s="19">
         <v>0</v>
       </c>
       <c r="K76" s="19">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="L76" s="19">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="M76" s="19">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="N76" s="19">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="O76" s="19">
         <f t="shared" si="1"/>
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="P76" s="19">
         <v>0</v>
@@ -14761,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="X76" s="19">
         <v>0</v>
@@ -14770,16 +14850,16 @@
         <v>0</v>
       </c>
       <c r="Z76" s="19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA76" s="19">
         <v>0</v>
       </c>
       <c r="AB76" s="19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AC76" s="19">
-        <v>4120</v>
+        <v>1000</v>
       </c>
       <c r="AD76" s="19">
         <v>0</v>
@@ -14812,16 +14892,16 @@
         <v>0</v>
       </c>
       <c r="AN76" s="19">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="AO76" s="19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AP76" s="19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="19">
-        <v>4120</v>
+        <v>782</v>
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.2">
@@ -14830,11 +14910,11 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="3" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -14938,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="AN77" s="19">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="AO77" s="19">
         <v>0</v>
@@ -14947,26 +15027,26 @@
         <v>0</v>
       </c>
       <c r="AQ77" s="19">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="3" t="s">
-        <v>1549</v>
+        <v>91</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <v>5000</v>
+        <v>760000</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="19">
@@ -15010,19 +15090,19 @@
         <v>0</v>
       </c>
       <c r="V78" s="19">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="W78" s="19">
         <v>0</v>
       </c>
       <c r="X78" s="19">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="Y78" s="19">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="Z78" s="19">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="AA78" s="19">
         <v>0</v>
@@ -15031,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="19">
-        <v>1000</v>
+        <v>920000</v>
       </c>
       <c r="AD78" s="19">
         <v>0</v>
@@ -15058,13 +15138,13 @@
         <v>0</v>
       </c>
       <c r="AL78" s="19">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AM78" s="19">
         <v>0</v>
       </c>
       <c r="AN78" s="19">
-        <v>789</v>
+        <v>530000</v>
       </c>
       <c r="AO78" s="19">
         <v>0</v>
@@ -15073,49 +15153,49 @@
         <v>0</v>
       </c>
       <c r="AQ78" s="19">
-        <v>789</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>1567</v>
+        <v>1519</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <v>760000</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="19">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="J79" s="19">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="K79" s="19">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="L79" s="19">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="M79" s="19">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="N79" s="19">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="O79" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7100000</v>
       </c>
       <c r="P79" s="19">
         <v>0</v>
@@ -15136,28 +15216,28 @@
         <v>0</v>
       </c>
       <c r="V79" s="19">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="W79" s="19">
-        <v>0</v>
+        <v>153000</v>
       </c>
       <c r="X79" s="19">
+        <v>150000</v>
+      </c>
+      <c r="Y79" s="19">
         <v>300000</v>
       </c>
-      <c r="Y79" s="19">
-        <v>500000</v>
-      </c>
       <c r="Z79" s="19">
-        <v>30000</v>
+        <v>240000</v>
       </c>
       <c r="AA79" s="19">
-        <v>0</v>
+        <v>3210000</v>
       </c>
       <c r="AB79" s="19">
-        <v>0</v>
+        <v>2099000</v>
       </c>
       <c r="AC79" s="19">
-        <v>920000</v>
+        <v>6152000</v>
       </c>
       <c r="AD79" s="19">
         <v>0</v>
@@ -15184,35 +15264,35 @@
         <v>0</v>
       </c>
       <c r="AL79" s="19">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="AM79" s="19">
-        <v>0</v>
+        <v>363000</v>
       </c>
       <c r="AN79" s="19">
-        <v>530000</v>
+        <v>1413000</v>
       </c>
       <c r="AO79" s="19">
-        <v>0</v>
+        <v>2592000</v>
       </c>
       <c r="AP79" s="19">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="AQ79" s="19">
-        <v>830000</v>
+        <v>4524000</v>
       </c>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>1519</v>
+        <v>1499</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -15222,826 +15302,756 @@
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="19">
-        <v>900000</v>
+        <v>1450000</v>
       </c>
       <c r="J80" s="19">
-        <v>900000</v>
+        <v>1600000</v>
       </c>
       <c r="K80" s="19">
-        <v>1000000</v>
+        <v>1510000</v>
       </c>
       <c r="L80" s="19">
-        <v>1300000</v>
+        <v>1570000</v>
       </c>
       <c r="M80" s="19">
-        <v>1500000</v>
+        <v>1730000</v>
       </c>
       <c r="N80" s="19">
-        <v>1500000</v>
+        <v>1730000</v>
       </c>
       <c r="O80" s="19">
         <f t="shared" si="1"/>
-        <v>7100000</v>
+        <v>9590000</v>
       </c>
       <c r="P80" s="19">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="Q80" s="19">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="R80" s="19">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="S80" s="19">
-        <v>0</v>
+        <v>381000</v>
       </c>
       <c r="T80" s="19">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="U80" s="19">
         <v>0</v>
       </c>
       <c r="V80" s="19">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="W80" s="19">
-        <v>153000</v>
+        <v>25</v>
       </c>
       <c r="X80" s="19">
-        <v>150000</v>
+        <v>18000</v>
       </c>
       <c r="Y80" s="19">
-        <v>300000</v>
+        <v>120400</v>
       </c>
       <c r="Z80" s="19">
-        <v>240000</v>
+        <v>188025</v>
       </c>
       <c r="AA80" s="19">
-        <v>3210000</v>
+        <v>146000</v>
       </c>
       <c r="AB80" s="19">
-        <v>2099000</v>
+        <v>830050</v>
       </c>
       <c r="AC80" s="19">
-        <v>6152000</v>
+        <v>1905615</v>
       </c>
       <c r="AD80" s="19">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="AE80" s="19">
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="AF80" s="19">
-        <v>0</v>
+        <v>261000</v>
       </c>
       <c r="AG80" s="19">
-        <v>0</v>
+        <v>126000</v>
       </c>
       <c r="AH80" s="19">
         <v>0</v>
       </c>
       <c r="AI80" s="19">
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="AJ80" s="19">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AK80" s="19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL80" s="19">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="AM80" s="19">
-        <v>363000</v>
+        <v>120400</v>
       </c>
       <c r="AN80" s="19">
-        <v>1413000</v>
+        <v>188025</v>
       </c>
       <c r="AO80" s="19">
-        <v>2592000</v>
+        <v>2000</v>
       </c>
       <c r="AP80" s="19">
-        <v>156000</v>
+        <v>630050</v>
       </c>
       <c r="AQ80" s="19">
-        <v>4524000</v>
+        <v>1561615</v>
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
       </c>
       <c r="G81" s="4">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="19">
-        <v>1450000</v>
+        <v>82000</v>
       </c>
       <c r="J81" s="19">
-        <v>1600000</v>
+        <v>94000</v>
       </c>
       <c r="K81" s="19">
-        <v>1510000</v>
+        <v>120000</v>
       </c>
       <c r="L81" s="19">
-        <v>1570000</v>
+        <v>190000</v>
       </c>
       <c r="M81" s="19">
-        <v>1730000</v>
+        <v>214000</v>
       </c>
       <c r="N81" s="19">
-        <v>1730000</v>
+        <v>214000</v>
       </c>
       <c r="O81" s="19">
         <f t="shared" si="1"/>
-        <v>9590000</v>
+        <v>914000</v>
       </c>
       <c r="P81" s="19">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="19">
-        <v>51000</v>
+        <v>300</v>
       </c>
       <c r="R81" s="19">
-        <v>60000</v>
+        <v>3600</v>
       </c>
       <c r="S81" s="19">
-        <v>381000</v>
+        <v>0</v>
       </c>
       <c r="T81" s="19">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="U81" s="19">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="V81" s="19">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="W81" s="19">
-        <v>25</v>
+        <v>9000</v>
       </c>
       <c r="X81" s="19">
+        <v>9600</v>
+      </c>
+      <c r="Y81" s="19">
+        <v>42000</v>
+      </c>
+      <c r="Z81" s="19">
+        <v>63045</v>
+      </c>
+      <c r="AA81" s="19">
+        <v>166160</v>
+      </c>
+      <c r="AB81" s="19">
         <v>18000</v>
       </c>
-      <c r="Y81" s="19">
-        <v>120400</v>
-      </c>
-      <c r="Z81" s="19">
-        <v>188025</v>
-      </c>
-      <c r="AA81" s="19">
-        <v>146000</v>
-      </c>
-      <c r="AB81" s="19">
-        <v>830050</v>
-      </c>
       <c r="AC81" s="19">
-        <v>1905615</v>
+        <v>318705</v>
       </c>
       <c r="AD81" s="19">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="19">
-        <v>51000</v>
+        <v>300</v>
       </c>
       <c r="AF81" s="19">
-        <v>261000</v>
+        <v>3600</v>
       </c>
       <c r="AG81" s="19">
-        <v>126000</v>
+        <v>0</v>
       </c>
       <c r="AH81" s="19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI81" s="19">
-        <v>114000</v>
+        <v>6000</v>
       </c>
       <c r="AJ81" s="19">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AK81" s="19">
-        <v>25</v>
+        <v>9000</v>
       </c>
       <c r="AL81" s="19">
-        <v>18000</v>
+        <v>9600</v>
       </c>
       <c r="AM81" s="19">
-        <v>120400</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="19">
-        <v>188025</v>
+        <v>105045</v>
       </c>
       <c r="AO81" s="19">
-        <v>2000</v>
+        <v>96160</v>
       </c>
       <c r="AP81" s="19">
-        <v>630050</v>
+        <v>6000</v>
       </c>
       <c r="AQ81" s="19">
-        <v>1561615</v>
+        <v>236705</v>
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="3" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>1500</v>
+        <v>1530</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="19">
-        <v>82000</v>
+        <v>220000</v>
       </c>
       <c r="J82" s="19">
-        <v>94000</v>
+        <v>85000</v>
       </c>
       <c r="K82" s="19">
-        <v>120000</v>
+        <v>213000</v>
       </c>
       <c r="L82" s="19">
-        <v>190000</v>
+        <v>75000</v>
       </c>
       <c r="M82" s="19">
-        <v>214000</v>
+        <v>213000</v>
       </c>
       <c r="N82" s="19">
-        <v>214000</v>
+        <v>213000</v>
       </c>
       <c r="O82" s="19">
         <f t="shared" si="1"/>
-        <v>914000</v>
+        <v>1019000</v>
       </c>
       <c r="P82" s="19">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="Q82" s="19">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R82" s="19">
-        <v>3600</v>
+        <v>42000</v>
       </c>
       <c r="S82" s="19">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T82" s="19">
-        <v>1000</v>
+        <v>405000</v>
       </c>
       <c r="U82" s="19">
-        <v>6000</v>
+        <v>318000</v>
       </c>
       <c r="V82" s="19">
-        <v>0</v>
+        <v>263000</v>
       </c>
       <c r="W82" s="19">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="X82" s="19">
-        <v>9600</v>
+        <v>55000</v>
       </c>
       <c r="Y82" s="19">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="Z82" s="19">
-        <v>63045</v>
+        <v>73500</v>
       </c>
       <c r="AA82" s="19">
-        <v>166160</v>
+        <v>43500</v>
       </c>
       <c r="AB82" s="19">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="AC82" s="19">
-        <v>318705</v>
+        <v>1318500</v>
       </c>
       <c r="AD82" s="19">
-        <v>0</v>
+        <v>73014</v>
       </c>
       <c r="AE82" s="19">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="AF82" s="19">
-        <v>3600</v>
+        <v>89549</v>
       </c>
       <c r="AG82" s="19">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="AH82" s="19">
-        <v>1000</v>
+        <v>205000</v>
       </c>
       <c r="AI82" s="19">
-        <v>6000</v>
+        <v>248000</v>
       </c>
       <c r="AJ82" s="19">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AK82" s="19">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="AL82" s="19">
-        <v>9600</v>
+        <v>230000</v>
       </c>
       <c r="AM82" s="19">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="AN82" s="19">
-        <v>105045</v>
+        <v>53500</v>
       </c>
       <c r="AO82" s="19">
-        <v>96160</v>
+        <v>303500</v>
       </c>
       <c r="AP82" s="19">
-        <v>6000</v>
+        <v>83000</v>
       </c>
       <c r="AQ82" s="19">
-        <v>236705</v>
+        <v>1555563</v>
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="3" t="s">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>1530</v>
+        <v>1568</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
       </c>
       <c r="G83" s="4">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="19">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="J83" s="19">
-        <v>85000</v>
+        <v>160000</v>
       </c>
       <c r="K83" s="19">
-        <v>213000</v>
+        <v>160000</v>
       </c>
       <c r="L83" s="19">
-        <v>75000</v>
+        <v>160000</v>
       </c>
       <c r="M83" s="19">
-        <v>213000</v>
+        <v>160000</v>
       </c>
       <c r="N83" s="19">
-        <v>213000</v>
+        <v>160000</v>
       </c>
       <c r="O83" s="19">
         <f t="shared" si="1"/>
-        <v>1019000</v>
-      </c>
-      <c r="P83" s="19">
-        <v>9500</v>
-      </c>
-      <c r="Q83" s="19">
-        <v>0</v>
-      </c>
-      <c r="R83" s="19">
-        <v>42000</v>
-      </c>
-      <c r="S83" s="19">
-        <v>10000</v>
-      </c>
-      <c r="T83" s="19">
-        <v>405000</v>
-      </c>
-      <c r="U83" s="19">
-        <v>318000</v>
-      </c>
-      <c r="V83" s="19">
-        <v>263000</v>
-      </c>
-      <c r="W83" s="19">
-        <v>27000</v>
-      </c>
-      <c r="X83" s="19">
-        <v>55000</v>
-      </c>
-      <c r="Y83" s="19">
-        <v>29000</v>
-      </c>
-      <c r="Z83" s="19">
-        <v>73500</v>
-      </c>
-      <c r="AA83" s="19">
-        <v>43500</v>
-      </c>
-      <c r="AB83" s="19">
-        <v>43000</v>
-      </c>
-      <c r="AC83" s="19">
-        <v>1318500</v>
-      </c>
-      <c r="AD83" s="19">
-        <v>73014</v>
-      </c>
-      <c r="AE83" s="19">
-        <v>16000</v>
-      </c>
-      <c r="AF83" s="19">
-        <v>89549</v>
-      </c>
-      <c r="AG83" s="19">
-        <v>110000</v>
-      </c>
-      <c r="AH83" s="19">
-        <v>205000</v>
-      </c>
-      <c r="AI83" s="19">
-        <v>248000</v>
-      </c>
-      <c r="AJ83" s="19">
-        <v>40000</v>
-      </c>
-      <c r="AK83" s="19">
-        <v>50000</v>
-      </c>
-      <c r="AL83" s="19">
-        <v>230000</v>
-      </c>
-      <c r="AM83" s="19">
-        <v>54000</v>
-      </c>
-      <c r="AN83" s="19">
-        <v>53500</v>
-      </c>
-      <c r="AO83" s="19">
-        <v>303500</v>
-      </c>
-      <c r="AP83" s="19">
-        <v>83000</v>
-      </c>
-      <c r="AQ83" s="19">
-        <v>1555563</v>
-      </c>
+        <v>960000</v>
+      </c>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="19"/>
+      <c r="AF83" s="19"/>
+      <c r="AG83" s="19"/>
+      <c r="AH83" s="19"/>
+      <c r="AI83" s="19"/>
+      <c r="AJ83" s="19"/>
+      <c r="AK83" s="19"/>
+      <c r="AL83" s="19"/>
+      <c r="AM83" s="19"/>
+      <c r="AN83" s="19"/>
+      <c r="AO83" s="19"/>
+      <c r="AP83" s="19"/>
+      <c r="AQ83" s="19"/>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>520</v>
+        <v>275</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>1568</v>
+        <v>1623</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
       </c>
       <c r="G84" s="4">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="19">
-        <v>160000</v>
+        <v>2000</v>
       </c>
       <c r="J84" s="19">
-        <v>160000</v>
+        <v>2000</v>
       </c>
       <c r="K84" s="19">
-        <v>160000</v>
+        <v>2000</v>
       </c>
       <c r="L84" s="19">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="M84" s="19">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="N84" s="19">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="O84" s="19">
         <f t="shared" si="1"/>
-        <v>960000</v>
-      </c>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="19"/>
-      <c r="Z84" s="19"/>
-      <c r="AA84" s="19"/>
-      <c r="AB84" s="19"/>
-      <c r="AC84" s="19"/>
-      <c r="AD84" s="19"/>
-      <c r="AE84" s="19"/>
-      <c r="AF84" s="19"/>
-      <c r="AG84" s="19"/>
-      <c r="AH84" s="19"/>
-      <c r="AI84" s="19"/>
-      <c r="AJ84" s="19"/>
-      <c r="AK84" s="19"/>
-      <c r="AL84" s="19"/>
-      <c r="AM84" s="19"/>
-      <c r="AN84" s="19"/>
-      <c r="AO84" s="19"/>
-      <c r="AP84" s="19"/>
-      <c r="AQ84" s="19"/>
+        <v>21000</v>
+      </c>
+      <c r="P84" s="19">
+        <v>3000</v>
+      </c>
+      <c r="Q84" s="19">
+        <v>1809</v>
+      </c>
+      <c r="R84" s="19">
+        <v>0</v>
+      </c>
+      <c r="S84" s="19">
+        <v>500</v>
+      </c>
+      <c r="T84" s="19">
+        <v>10000</v>
+      </c>
+      <c r="U84" s="19">
+        <v>4864</v>
+      </c>
+      <c r="V84" s="19">
+        <v>5000</v>
+      </c>
+      <c r="W84" s="19">
+        <v>25000</v>
+      </c>
+      <c r="X84" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="19">
+        <v>10000</v>
+      </c>
+      <c r="AB84" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="19">
+        <v>60173</v>
+      </c>
+      <c r="AD84" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="19">
+        <v>500</v>
+      </c>
+      <c r="AH84" s="19">
+        <v>7045</v>
+      </c>
+      <c r="AI84" s="19">
+        <v>7819</v>
+      </c>
+      <c r="AJ84" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="19">
+        <v>11620</v>
+      </c>
+      <c r="AL84" s="19">
+        <v>8621</v>
+      </c>
+      <c r="AM84" s="19">
+        <v>11120</v>
+      </c>
+      <c r="AN84" s="19">
+        <v>18518</v>
+      </c>
+      <c r="AO84" s="19">
+        <v>10000</v>
+      </c>
+      <c r="AP84" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="19">
+        <v>75243</v>
+      </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
       </c>
       <c r="G85" s="4">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="19">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="J85" s="19">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="K85" s="19">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="L85" s="19">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M85" s="19">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="N85" s="19">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="O85" s="19">
         <f t="shared" si="1"/>
-        <v>21000</v>
+        <v>124000</v>
       </c>
       <c r="P85" s="19">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="Q85" s="19">
-        <v>1809</v>
+        <v>5000</v>
       </c>
       <c r="R85" s="19">
         <v>0</v>
       </c>
       <c r="S85" s="19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T85" s="19">
         <v>10000</v>
       </c>
       <c r="U85" s="19">
-        <v>4864</v>
+        <v>10040</v>
       </c>
       <c r="V85" s="19">
+        <v>10000</v>
+      </c>
+      <c r="W85" s="19">
+        <v>9733</v>
+      </c>
+      <c r="X85" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="19">
         <v>5000</v>
       </c>
-      <c r="W85" s="19">
-        <v>25000</v>
-      </c>
-      <c r="X85" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="19">
-        <v>10000</v>
-      </c>
       <c r="AB85" s="19">
         <v>0</v>
       </c>
       <c r="AC85" s="19">
-        <v>60173</v>
+        <v>50273</v>
       </c>
       <c r="AD85" s="19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AE85" s="19">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AF85" s="19">
         <v>0</v>
       </c>
       <c r="AG85" s="19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AH85" s="19">
-        <v>7045</v>
+        <v>15265</v>
       </c>
       <c r="AI85" s="19">
-        <v>7819</v>
+        <v>14727</v>
       </c>
       <c r="AJ85" s="19">
         <v>0</v>
       </c>
       <c r="AK85" s="19">
-        <v>11620</v>
+        <v>9781</v>
       </c>
       <c r="AL85" s="19">
-        <v>8621</v>
+        <v>0</v>
       </c>
       <c r="AM85" s="19">
-        <v>11120</v>
+        <v>4659</v>
       </c>
       <c r="AN85" s="19">
-        <v>18518</v>
+        <v>26485</v>
       </c>
       <c r="AO85" s="19">
-        <v>10000</v>
+        <v>10259</v>
       </c>
       <c r="AP85" s="19">
         <v>0</v>
       </c>
       <c r="AQ85" s="19">
-        <v>75243</v>
+        <v>86676</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="3" t="s">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-      <c r="G86" s="4">
-        <v>30000</v>
-      </c>
+        <v>1543</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="19">
-        <v>10000</v>
-      </c>
-      <c r="J86" s="19">
-        <v>10000</v>
-      </c>
-      <c r="K86" s="19">
-        <v>25000</v>
-      </c>
-      <c r="L86" s="19">
-        <v>25000</v>
-      </c>
-      <c r="M86" s="19">
-        <v>27000</v>
-      </c>
-      <c r="N86" s="19">
-        <v>27000</v>
-      </c>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
       <c r="O86" s="19">
         <f t="shared" si="1"/>
-        <v>124000</v>
-      </c>
-      <c r="P86" s="19">
-        <v>500</v>
-      </c>
-      <c r="Q86" s="19">
-        <v>5000</v>
-      </c>
-      <c r="R86" s="19">
-        <v>0</v>
-      </c>
-      <c r="S86" s="19">
-        <v>0</v>
-      </c>
-      <c r="T86" s="19">
-        <v>10000</v>
-      </c>
-      <c r="U86" s="19">
-        <v>10040</v>
-      </c>
-      <c r="V86" s="19">
-        <v>10000</v>
-      </c>
-      <c r="W86" s="19">
-        <v>9733</v>
-      </c>
-      <c r="X86" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="19">
-        <v>5000</v>
-      </c>
-      <c r="AB86" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="19">
-        <v>50273</v>
-      </c>
-      <c r="AD86" s="19">
-        <v>500</v>
-      </c>
-      <c r="AE86" s="19">
-        <v>5000</v>
-      </c>
-      <c r="AF86" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="19">
-        <v>15265</v>
-      </c>
-      <c r="AI86" s="19">
-        <v>14727</v>
-      </c>
-      <c r="AJ86" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="19">
-        <v>9781</v>
-      </c>
-      <c r="AL86" s="19">
-        <v>0</v>
-      </c>
-      <c r="AM86" s="19">
-        <v>4659</v>
-      </c>
-      <c r="AN86" s="19">
-        <v>26485</v>
-      </c>
-      <c r="AO86" s="19">
-        <v>10259</v>
-      </c>
-      <c r="AP86" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="19">
-        <v>86676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="19"/>
+      <c r="AI86" s="19"/>
+      <c r="AJ86" s="19"/>
+      <c r="AK86" s="19"/>
+      <c r="AL86" s="19"/>
+      <c r="AM86" s="19"/>
+      <c r="AN86" s="19"/>
+      <c r="AO86" s="19"/>
+      <c r="AP86" s="19"/>
+      <c r="AQ86" s="19"/>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>161</v>
+        <v>1609</v>
       </c>
       <c r="B87" s="5"/>
-      <c r="C87" s="3" t="s">
-        <v>163</v>
+      <c r="C87" s="35" t="s">
+        <v>281</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>1543</v>
+        <v>924</v>
       </c>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4">
+        <v>50000</v>
+      </c>
       <c r="H87" s="3"/>
       <c r="I87" s="19"/>
       <c r="J87" s="19"/>
@@ -16049,10 +16059,7 @@
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O87" s="19"/>
       <c r="P87" s="19"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="19"/>
@@ -16083,20 +16090,20 @@
       <c r="AQ87" s="19"/>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>1609</v>
+      <c r="A88" s="36" t="s">
+        <v>1610</v>
       </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="35" t="s">
-        <v>281</v>
+      <c r="C88" s="37" t="s">
+        <v>1611</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>924</v>
+        <v>1605</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="19"/>
@@ -16136,20 +16143,20 @@
       <c r="AQ88" s="19"/>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A89" s="36" t="s">
-        <v>1610</v>
+      <c r="A89" s="35" t="s">
+        <v>1612</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="37" t="s">
-        <v>1611</v>
+      <c r="C89" s="38" t="s">
+        <v>1613</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="19"/>
@@ -16168,39 +16175,20 @@
       <c r="V89" s="19"/>
       <c r="W89" s="19"/>
       <c r="X89" s="19"/>
-      <c r="Y89" s="19"/>
-      <c r="Z89" s="19"/>
-      <c r="AA89" s="19"/>
-      <c r="AB89" s="19"/>
-      <c r="AC89" s="19"/>
-      <c r="AD89" s="19"/>
-      <c r="AE89" s="19"/>
-      <c r="AF89" s="19"/>
-      <c r="AG89" s="19"/>
-      <c r="AH89" s="19"/>
-      <c r="AI89" s="19"/>
-      <c r="AJ89" s="19"/>
-      <c r="AK89" s="19"/>
-      <c r="AL89" s="19"/>
-      <c r="AM89" s="19"/>
-      <c r="AN89" s="19"/>
-      <c r="AO89" s="19"/>
-      <c r="AP89" s="19"/>
-      <c r="AQ89" s="19"/>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="38" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="4">
         <v>5000</v>
       </c>
@@ -16228,11 +16216,11 @@
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="4">
@@ -16258,19 +16246,19 @@
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>1612</v>
+        <v>75</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>1608</v>
+        <v>1616</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="4">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="19"/>
@@ -16292,19 +16280,19 @@
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="19"/>
@@ -16326,19 +16314,19 @@
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="19"/>
@@ -16360,20 +16348,18 @@
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="F95" s="3"/>
-      <c r="G95" s="4">
-        <v>100000</v>
-      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="3"/>
       <c r="I95" s="19"/>
       <c r="J95" s="19"/>
@@ -16394,18 +16380,20 @@
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>1625</v>
+        <v>121</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>1626</v>
+        <v>627</v>
       </c>
       <c r="F96" s="3"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4">
+        <v>400000</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="19"/>
       <c r="J96" s="19"/>
@@ -16426,18 +16414,20 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>91</v>
+        <v>1627</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>1555</v>
+        <v>1628</v>
       </c>
       <c r="F97" s="3"/>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4">
+        <v>400000</v>
+      </c>
       <c r="H97" s="3"/>
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
@@ -16458,19 +16448,19 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>121</v>
+        <v>1629</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>627</v>
+        <v>1630</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="4">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="19"/>
@@ -16492,19 +16482,19 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="4">
-        <v>400000</v>
+        <v>30000</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="19"/>
@@ -16526,19 +16516,19 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="19"/>
@@ -16560,19 +16550,19 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>1631</v>
+        <v>3</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="4">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="19"/>
@@ -16594,19 +16584,19 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
-        <v>1633</v>
+        <v>221</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>1634</v>
+        <v>792</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="4">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="19"/>
@@ -16628,19 +16618,19 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3" t="s">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>1635</v>
+        <v>1544</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="4">
-        <v>20000</v>
+        <v>300000</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="19"/>
@@ -16662,19 +16652,19 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3" t="s">
-        <v>221</v>
+        <v>1636</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>792</v>
+        <v>1637</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="4">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="19"/>
@@ -16696,19 +16686,19 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>1544</v>
+        <v>1638</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="4">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="19"/>
@@ -16730,19 +16720,19 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="19"/>
@@ -16764,15 +16754,15 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
-        <v>267</v>
+        <v>1641</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="4">
@@ -16798,15 +16788,15 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="4">
@@ -16832,19 +16822,19 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3" t="s">
-        <v>1641</v>
+        <v>182</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>1642</v>
+        <v>364</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="4">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="19"/>
@@ -16866,19 +16856,19 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="4">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="19"/>
@@ -16899,13 +16889,13 @@
       <c r="X110" s="19"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="4"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
       <c r="H111" s="3"/>
       <c r="I111" s="19"/>
       <c r="J111" s="19"/>
@@ -16977,13 +16967,13 @@
       <c r="X113" s="19"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="3"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
       <c r="H114" s="3"/>
       <c r="I114" s="19"/>
       <c r="J114" s="19"/>
@@ -17003,13 +16993,13 @@
       <c r="X114" s="19"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="3"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="3"/>
       <c r="I115" s="19"/>
       <c r="J115" s="19"/>
@@ -17866,7 +17856,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="4"/>
+      <c r="F148" s="11"/>
       <c r="G148" s="4"/>
       <c r="H148" s="3"/>
       <c r="I148" s="19"/>
@@ -17918,7 +17908,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="11"/>
+      <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="3"/>
       <c r="I150" s="19"/>
@@ -18721,7 +18711,7 @@
     <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="5"/>
-      <c r="C181" s="3"/>
+      <c r="C181" s="5"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="4"/>
@@ -18773,7 +18763,7 @@
     <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
+      <c r="C183" s="3"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="4"/>
@@ -19524,7 +19514,7 @@
       <c r="W211" s="19"/>
       <c r="X211" s="19"/>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="5"/>
       <c r="C212" s="3"/>
@@ -19576,7 +19566,7 @@
       <c r="W213" s="19"/>
       <c r="X213" s="19"/>
     </row>
-    <row r="214" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="5"/>
       <c r="C214" s="3"/>
@@ -19972,8 +19962,8 @@
       <c r="C229" s="3"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
       <c r="H229" s="3"/>
       <c r="I229" s="19"/>
       <c r="J229" s="19"/>
@@ -20024,8 +20014,8 @@
       <c r="C231" s="3"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
       <c r="H231" s="3"/>
       <c r="I231" s="19"/>
       <c r="J231" s="19"/>
@@ -20051,7 +20041,7 @@
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="4"/>
-      <c r="G232" s="4"/>
+      <c r="G232" s="12"/>
       <c r="H232" s="3"/>
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
@@ -20103,7 +20093,7 @@
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="4"/>
-      <c r="G234" s="12"/>
+      <c r="G234" s="4"/>
       <c r="H234" s="3"/>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -20486,31 +20476,31 @@
       <c r="W248" s="19"/>
       <c r="X248" s="19"/>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
-      <c r="F249" s="4"/>
-      <c r="G249" s="4"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="19"/>
-      <c r="K249" s="19"/>
-      <c r="L249" s="19"/>
-      <c r="M249" s="19"/>
-      <c r="N249" s="19"/>
-      <c r="O249" s="19"/>
-      <c r="P249" s="19"/>
-      <c r="Q249" s="19"/>
-      <c r="R249" s="19"/>
-      <c r="S249" s="19"/>
-      <c r="T249" s="19"/>
-      <c r="U249" s="19"/>
-      <c r="V249" s="19"/>
-      <c r="W249" s="19"/>
-      <c r="X249" s="19"/>
+    <row r="249" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="20"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="23"/>
+      <c r="E249" s="23"/>
+      <c r="F249" s="24"/>
+      <c r="G249" s="24"/>
+      <c r="H249" s="20"/>
+      <c r="I249" s="25"/>
+      <c r="J249" s="25"/>
+      <c r="K249" s="25"/>
+      <c r="L249" s="25"/>
+      <c r="M249" s="25"/>
+      <c r="N249" s="25"/>
+      <c r="O249" s="25"/>
+      <c r="P249" s="25"/>
+      <c r="Q249" s="25"/>
+      <c r="R249" s="25"/>
+      <c r="S249" s="25"/>
+      <c r="T249" s="25"/>
+      <c r="U249" s="25"/>
+      <c r="V249" s="25"/>
+      <c r="W249" s="25"/>
+      <c r="X249" s="25"/>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
@@ -20538,31 +20528,31 @@
       <c r="W250" s="19"/>
       <c r="X250" s="19"/>
     </row>
-    <row r="251" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="20"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="23"/>
-      <c r="E251" s="23"/>
-      <c r="F251" s="24"/>
-      <c r="G251" s="24"/>
-      <c r="H251" s="20"/>
-      <c r="I251" s="25"/>
-      <c r="J251" s="25"/>
-      <c r="K251" s="25"/>
-      <c r="L251" s="25"/>
-      <c r="M251" s="25"/>
-      <c r="N251" s="25"/>
-      <c r="O251" s="25"/>
-      <c r="P251" s="25"/>
-      <c r="Q251" s="25"/>
-      <c r="R251" s="25"/>
-      <c r="S251" s="25"/>
-      <c r="T251" s="25"/>
-      <c r="U251" s="25"/>
-      <c r="V251" s="25"/>
-      <c r="W251" s="25"/>
-      <c r="X251" s="25"/>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="19"/>
+      <c r="K251" s="19"/>
+      <c r="L251" s="19"/>
+      <c r="M251" s="19"/>
+      <c r="N251" s="19"/>
+      <c r="O251" s="19"/>
+      <c r="P251" s="19"/>
+      <c r="Q251" s="19"/>
+      <c r="R251" s="19"/>
+      <c r="S251" s="19"/>
+      <c r="T251" s="19"/>
+      <c r="U251" s="19"/>
+      <c r="V251" s="19"/>
+      <c r="W251" s="19"/>
+      <c r="X251" s="19"/>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
@@ -20701,7 +20691,7 @@
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
       <c r="F257" s="4"/>
-      <c r="G257" s="4"/>
+      <c r="G257" s="12"/>
       <c r="H257" s="3"/>
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
@@ -20727,7 +20717,7 @@
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="4"/>
-      <c r="G258" s="4"/>
+      <c r="G258" s="12"/>
       <c r="H258" s="3"/>
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
@@ -20752,8 +20742,8 @@
       <c r="C259" s="3"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
-      <c r="F259" s="4"/>
-      <c r="G259" s="12"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="26"/>
       <c r="H259" s="3"/>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -20779,7 +20769,7 @@
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="4"/>
-      <c r="G260" s="12"/>
+      <c r="G260" s="4"/>
       <c r="H260" s="3"/>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -20804,8 +20794,8 @@
       <c r="C261" s="3"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="26"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
       <c r="H261" s="3"/>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -23606,126 +23596,74 @@
       <c r="W368" s="19"/>
       <c r="X368" s="19"/>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A369" s="3"/>
-      <c r="B369" s="5"/>
-      <c r="C369" s="3"/>
-      <c r="D369" s="9"/>
-      <c r="E369" s="9"/>
-      <c r="F369" s="4"/>
-      <c r="G369" s="4"/>
-      <c r="H369" s="3"/>
-      <c r="I369" s="19"/>
-      <c r="J369" s="19"/>
-      <c r="K369" s="19"/>
-      <c r="L369" s="19"/>
-      <c r="M369" s="19"/>
-      <c r="N369" s="19"/>
-      <c r="O369" s="19"/>
-      <c r="P369" s="19"/>
-      <c r="Q369" s="19"/>
-      <c r="R369" s="19"/>
-      <c r="S369" s="19"/>
-      <c r="T369" s="19"/>
-      <c r="U369" s="19"/>
-      <c r="V369" s="19"/>
-      <c r="W369" s="19"/>
-      <c r="X369" s="19"/>
-    </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A370" s="3"/>
-      <c r="B370" s="5"/>
-      <c r="C370" s="3"/>
-      <c r="D370" s="9"/>
-      <c r="E370" s="9"/>
-      <c r="F370" s="4"/>
-      <c r="G370" s="4"/>
-      <c r="H370" s="3"/>
-      <c r="I370" s="19"/>
-      <c r="J370" s="19"/>
-      <c r="K370" s="19"/>
-      <c r="L370" s="19"/>
-      <c r="M370" s="19"/>
-      <c r="N370" s="19"/>
-      <c r="O370" s="19"/>
-      <c r="P370" s="19"/>
-      <c r="Q370" s="19"/>
-      <c r="R370" s="19"/>
-      <c r="S370" s="19"/>
-      <c r="T370" s="19"/>
-      <c r="U370" s="19"/>
-      <c r="V370" s="19"/>
-      <c r="W370" s="19"/>
-      <c r="X370" s="19"/>
-    </row>
-    <row r="371" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="27"/>
-      <c r="B371" s="28"/>
-      <c r="C371" s="27"/>
-      <c r="D371" s="29"/>
-      <c r="E371" s="29"/>
-      <c r="F371" s="30"/>
-      <c r="G371" s="30"/>
-      <c r="H371" s="27"/>
-      <c r="I371" s="31"/>
-      <c r="J371" s="31"/>
-      <c r="K371" s="31"/>
-      <c r="L371" s="31"/>
-      <c r="M371" s="31"/>
-      <c r="N371" s="31"/>
-      <c r="O371" s="31"/>
-      <c r="P371" s="31"/>
-      <c r="Q371" s="31"/>
-      <c r="R371" s="31"/>
-      <c r="S371" s="31"/>
-      <c r="T371" s="31"/>
-      <c r="U371" s="31"/>
-      <c r="V371" s="31"/>
-      <c r="W371" s="31"/>
-      <c r="X371" s="27"/>
-    </row>
-    <row r="372" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="27"/>
-      <c r="B372" s="28"/>
-      <c r="C372" s="27"/>
-      <c r="D372" s="29"/>
-      <c r="E372" s="29"/>
-      <c r="F372" s="30"/>
-      <c r="G372" s="30"/>
-      <c r="H372" s="27"/>
-      <c r="I372" s="31"/>
-      <c r="J372" s="31"/>
-      <c r="K372" s="31"/>
-      <c r="L372" s="31"/>
-      <c r="M372" s="31"/>
-      <c r="N372" s="31"/>
-      <c r="O372" s="31"/>
-      <c r="P372" s="31"/>
-      <c r="Q372" s="31"/>
-      <c r="R372" s="31"/>
-      <c r="S372" s="31"/>
-      <c r="T372" s="31"/>
-      <c r="U372" s="31"/>
-      <c r="V372" s="31"/>
-      <c r="W372" s="31"/>
-      <c r="X372" s="27"/>
+    <row r="369" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="27"/>
+      <c r="B369" s="28"/>
+      <c r="C369" s="27"/>
+      <c r="D369" s="29"/>
+      <c r="E369" s="29"/>
+      <c r="F369" s="30"/>
+      <c r="G369" s="30"/>
+      <c r="H369" s="27"/>
+      <c r="I369" s="31"/>
+      <c r="J369" s="31"/>
+      <c r="K369" s="31"/>
+      <c r="L369" s="31"/>
+      <c r="M369" s="31"/>
+      <c r="N369" s="31"/>
+      <c r="O369" s="31"/>
+      <c r="P369" s="31"/>
+      <c r="Q369" s="31"/>
+      <c r="R369" s="31"/>
+      <c r="S369" s="31"/>
+      <c r="T369" s="31"/>
+      <c r="U369" s="31"/>
+      <c r="V369" s="31"/>
+      <c r="W369" s="31"/>
+      <c r="X369" s="27"/>
+    </row>
+    <row r="370" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="27"/>
+      <c r="B370" s="28"/>
+      <c r="C370" s="27"/>
+      <c r="D370" s="29"/>
+      <c r="E370" s="29"/>
+      <c r="F370" s="30"/>
+      <c r="G370" s="30"/>
+      <c r="H370" s="27"/>
+      <c r="I370" s="31"/>
+      <c r="J370" s="31"/>
+      <c r="K370" s="31"/>
+      <c r="L370" s="31"/>
+      <c r="M370" s="31"/>
+      <c r="N370" s="31"/>
+      <c r="O370" s="31"/>
+      <c r="P370" s="31"/>
+      <c r="Q370" s="31"/>
+      <c r="R370" s="31"/>
+      <c r="S370" s="31"/>
+      <c r="T370" s="31"/>
+      <c r="U370" s="31"/>
+      <c r="V370" s="31"/>
+      <c r="W370" s="31"/>
+      <c r="X370" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ110" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E74 E111:E1048576 E76:E108">
+  <conditionalFormatting sqref="E111:E1048576 E1:E73 E75:E106">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E376:E1048576 E1:E74 E112:E372 A112:G115 E76:E90">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="E374:E1048576 E1:E73 E111:E370 E75:E95">
+    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E376:E1048576 E1:E74 E112:E372 E76:E96">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="E374:E1048576 E1:E73 E111:E370 A111:G113 E75:E89">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0CAB20-B17B-4D32-8814-CEB08594B0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D0CFB-4617-4E06-A4CD-929EE51348C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="1650">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4996,6 +4996,9 @@
   </si>
   <si>
     <t>SC4015SO-N-A-CE-90NR-4015</t>
+  </si>
+  <si>
+    <t>SC2443SO-TR-Q</t>
   </si>
 </sst>
 </file>
@@ -5280,7 +5283,77 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5620,10 +5693,10 @@
   <dimension ref="A1:AQ370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5790,7 +5863,7 @@
         <v>200</v>
       </c>
       <c r="G2" s="4">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="19">
@@ -6168,7 +6241,7 @@
         <v>150</v>
       </c>
       <c r="G5" s="4">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="19">
@@ -9796,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="19">
@@ -16528,7 +16601,7 @@
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="4">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="19"/>
@@ -16889,13 +16962,21 @@
       <c r="X110" s="19"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
+      <c r="A111" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
+      <c r="C111" s="9" t="s">
+        <v>1649</v>
+      </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>399</v>
+      </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="G111" s="4">
+        <v>200000</v>
+      </c>
       <c r="H111" s="3"/>
       <c r="I111" s="19"/>
       <c r="J111" s="19"/>
@@ -23652,18 +23733,21 @@
   <autoFilter ref="A1:AQ108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E1048576 E1:E73 E75:E106">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E374:E1048576 E1:E73 E111:E370 E75:E89 A112:G113 A111:F111">
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E374:E1048576 E1:E73 E111:E370 E75:E95">
-    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E374:E1048576 E1:E73 E111:E370 A111:G113 E75:E89">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D0CFB-4617-4E06-A4CD-929EE51348C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3759F1FE-3FA3-49A5-9D90-3193B00C2D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1651">
   <si>
     <t>PartNumber</t>
   </si>
@@ -4999,6 +4999,9 @@
   </si>
   <si>
     <t>SC2443SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2498CUA-N-Q-DB-60AK-2498C</t>
   </si>
 </sst>
 </file>
@@ -5283,67 +5286,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5693,10 +5636,10 @@
   <dimension ref="A1:AQ370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16962,18 +16905,18 @@
       <c r="X110" s="19"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
         <v>1649</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="F111" s="9"/>
+      <c r="F111" s="3"/>
       <c r="G111" s="4">
         <v>200000</v>
       </c>
@@ -16996,13 +16939,21 @@
       <c r="X111" s="19"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="A112" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="4">
+        <v>200000</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="19"/>
       <c r="J112" s="19"/>
@@ -23733,21 +23684,21 @@
   <autoFilter ref="A1:AQ108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111:E1048576 E1:E73 E75:E106">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E374:E1048576 E1:E73 E111:E370 E75:E89 A112:G113 A111:F111">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E374:E1048576 E1:E73 E111:E370 E75:E95">
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113:E1048576 E1:E73 E75:E106">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E374:E1048576 E1:E73 E113:E370 E75:E89 A113:G113">
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E374:E1048576 E1:E73 E113:E370 E75:E95">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3759F1FE-3FA3-49A5-9D90-3193B00C2D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811C104-8F5B-4D3B-AA3D-76EF6FA4FF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5633,13 +5633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ370"/>
+  <dimension ref="A1:AQ362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16973,13 +16973,13 @@
       <c r="X112" s="19"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="3"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
       <c r="H113" s="3"/>
       <c r="I113" s="19"/>
       <c r="J113" s="19"/>
@@ -17680,7 +17680,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="4"/>
+      <c r="F140" s="11"/>
       <c r="G140" s="4"/>
       <c r="H140" s="3"/>
       <c r="I140" s="19"/>
@@ -17888,7 +17888,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="11"/>
+      <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="3"/>
       <c r="I148" s="19"/>
@@ -18535,7 +18535,7 @@
     <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="5"/>
-      <c r="C173" s="3"/>
+      <c r="C173" s="5"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="4"/>
@@ -18743,7 +18743,7 @@
     <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
+      <c r="C181" s="3"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="4"/>
@@ -19338,7 +19338,7 @@
       <c r="W203" s="19"/>
       <c r="X203" s="19"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="5"/>
       <c r="C204" s="3"/>
@@ -19546,7 +19546,7 @@
       <c r="W211" s="19"/>
       <c r="X211" s="19"/>
     </row>
-    <row r="212" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="5"/>
       <c r="C212" s="3"/>
@@ -19786,8 +19786,8 @@
       <c r="C221" s="3"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
       <c r="H221" s="3"/>
       <c r="I221" s="19"/>
       <c r="J221" s="19"/>
@@ -19865,7 +19865,7 @@
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
       <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
+      <c r="G224" s="12"/>
       <c r="H224" s="3"/>
       <c r="I224" s="19"/>
       <c r="J224" s="19"/>
@@ -19994,8 +19994,8 @@
       <c r="C229" s="3"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
       <c r="H229" s="3"/>
       <c r="I229" s="19"/>
       <c r="J229" s="19"/>
@@ -20073,7 +20073,7 @@
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="4"/>
-      <c r="G232" s="12"/>
+      <c r="G232" s="4"/>
       <c r="H232" s="3"/>
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
@@ -20300,31 +20300,31 @@
       <c r="W240" s="19"/>
       <c r="X240" s="19"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="4"/>
-      <c r="G241" s="4"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="19"/>
-      <c r="L241" s="19"/>
-      <c r="M241" s="19"/>
-      <c r="N241" s="19"/>
-      <c r="O241" s="19"/>
-      <c r="P241" s="19"/>
-      <c r="Q241" s="19"/>
-      <c r="R241" s="19"/>
-      <c r="S241" s="19"/>
-      <c r="T241" s="19"/>
-      <c r="U241" s="19"/>
-      <c r="V241" s="19"/>
-      <c r="W241" s="19"/>
-      <c r="X241" s="19"/>
+    <row r="241" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="20"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="24"/>
+      <c r="G241" s="24"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="25"/>
+      <c r="J241" s="25"/>
+      <c r="K241" s="25"/>
+      <c r="L241" s="25"/>
+      <c r="M241" s="25"/>
+      <c r="N241" s="25"/>
+      <c r="O241" s="25"/>
+      <c r="P241" s="25"/>
+      <c r="Q241" s="25"/>
+      <c r="R241" s="25"/>
+      <c r="S241" s="25"/>
+      <c r="T241" s="25"/>
+      <c r="U241" s="25"/>
+      <c r="V241" s="25"/>
+      <c r="W241" s="25"/>
+      <c r="X241" s="25"/>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
@@ -20508,31 +20508,31 @@
       <c r="W248" s="19"/>
       <c r="X248" s="19"/>
     </row>
-    <row r="249" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="20"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="23"/>
-      <c r="E249" s="23"/>
-      <c r="F249" s="24"/>
-      <c r="G249" s="24"/>
-      <c r="H249" s="20"/>
-      <c r="I249" s="25"/>
-      <c r="J249" s="25"/>
-      <c r="K249" s="25"/>
-      <c r="L249" s="25"/>
-      <c r="M249" s="25"/>
-      <c r="N249" s="25"/>
-      <c r="O249" s="25"/>
-      <c r="P249" s="25"/>
-      <c r="Q249" s="25"/>
-      <c r="R249" s="25"/>
-      <c r="S249" s="25"/>
-      <c r="T249" s="25"/>
-      <c r="U249" s="25"/>
-      <c r="V249" s="25"/>
-      <c r="W249" s="25"/>
-      <c r="X249" s="25"/>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="19"/>
+      <c r="K249" s="19"/>
+      <c r="L249" s="19"/>
+      <c r="M249" s="19"/>
+      <c r="N249" s="19"/>
+      <c r="O249" s="19"/>
+      <c r="P249" s="19"/>
+      <c r="Q249" s="19"/>
+      <c r="R249" s="19"/>
+      <c r="S249" s="19"/>
+      <c r="T249" s="19"/>
+      <c r="U249" s="19"/>
+      <c r="V249" s="19"/>
+      <c r="W249" s="19"/>
+      <c r="X249" s="19"/>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
@@ -20541,7 +20541,7 @@
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
       <c r="F250" s="4"/>
-      <c r="G250" s="4"/>
+      <c r="G250" s="12"/>
       <c r="H250" s="3"/>
       <c r="I250" s="19"/>
       <c r="J250" s="19"/>
@@ -20566,8 +20566,8 @@
       <c r="C251" s="3"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
-      <c r="F251" s="4"/>
-      <c r="G251" s="4"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="26"/>
       <c r="H251" s="3"/>
       <c r="I251" s="19"/>
       <c r="J251" s="19"/>
@@ -20723,7 +20723,7 @@
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
       <c r="F257" s="4"/>
-      <c r="G257" s="12"/>
+      <c r="G257" s="4"/>
       <c r="H257" s="3"/>
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
@@ -20749,7 +20749,7 @@
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="4"/>
-      <c r="G258" s="12"/>
+      <c r="G258" s="4"/>
       <c r="H258" s="3"/>
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
@@ -20774,8 +20774,8 @@
       <c r="C259" s="3"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
-      <c r="F259" s="11"/>
-      <c r="G259" s="26"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
       <c r="H259" s="3"/>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -23420,265 +23420,57 @@
       <c r="W360" s="19"/>
       <c r="X360" s="19"/>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A361" s="3"/>
-      <c r="B361" s="5"/>
-      <c r="C361" s="3"/>
-      <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="4"/>
-      <c r="G361" s="4"/>
-      <c r="H361" s="3"/>
-      <c r="I361" s="19"/>
-      <c r="J361" s="19"/>
-      <c r="K361" s="19"/>
-      <c r="L361" s="19"/>
-      <c r="M361" s="19"/>
-      <c r="N361" s="19"/>
-      <c r="O361" s="19"/>
-      <c r="P361" s="19"/>
-      <c r="Q361" s="19"/>
-      <c r="R361" s="19"/>
-      <c r="S361" s="19"/>
-      <c r="T361" s="19"/>
-      <c r="U361" s="19"/>
-      <c r="V361" s="19"/>
-      <c r="W361" s="19"/>
-      <c r="X361" s="19"/>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A362" s="3"/>
-      <c r="B362" s="5"/>
-      <c r="C362" s="3"/>
-      <c r="D362" s="9"/>
-      <c r="E362" s="9"/>
-      <c r="F362" s="4"/>
-      <c r="G362" s="4"/>
-      <c r="H362" s="3"/>
-      <c r="I362" s="19"/>
-      <c r="J362" s="19"/>
-      <c r="K362" s="19"/>
-      <c r="L362" s="19"/>
-      <c r="M362" s="19"/>
-      <c r="N362" s="19"/>
-      <c r="O362" s="19"/>
-      <c r="P362" s="19"/>
-      <c r="Q362" s="19"/>
-      <c r="R362" s="19"/>
-      <c r="S362" s="19"/>
-      <c r="T362" s="19"/>
-      <c r="U362" s="19"/>
-      <c r="V362" s="19"/>
-      <c r="W362" s="19"/>
-      <c r="X362" s="19"/>
-    </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A363" s="3"/>
-      <c r="B363" s="5"/>
-      <c r="C363" s="3"/>
-      <c r="D363" s="9"/>
-      <c r="E363" s="9"/>
-      <c r="F363" s="4"/>
-      <c r="G363" s="4"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="19"/>
-      <c r="J363" s="19"/>
-      <c r="K363" s="19"/>
-      <c r="L363" s="19"/>
-      <c r="M363" s="19"/>
-      <c r="N363" s="19"/>
-      <c r="O363" s="19"/>
-      <c r="P363" s="19"/>
-      <c r="Q363" s="19"/>
-      <c r="R363" s="19"/>
-      <c r="S363" s="19"/>
-      <c r="T363" s="19"/>
-      <c r="U363" s="19"/>
-      <c r="V363" s="19"/>
-      <c r="W363" s="19"/>
-      <c r="X363" s="19"/>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A364" s="3"/>
-      <c r="B364" s="5"/>
-      <c r="C364" s="3"/>
-      <c r="D364" s="9"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="4"/>
-      <c r="G364" s="4"/>
-      <c r="H364" s="3"/>
-      <c r="I364" s="19"/>
-      <c r="J364" s="19"/>
-      <c r="K364" s="19"/>
-      <c r="L364" s="19"/>
-      <c r="M364" s="19"/>
-      <c r="N364" s="19"/>
-      <c r="O364" s="19"/>
-      <c r="P364" s="19"/>
-      <c r="Q364" s="19"/>
-      <c r="R364" s="19"/>
-      <c r="S364" s="19"/>
-      <c r="T364" s="19"/>
-      <c r="U364" s="19"/>
-      <c r="V364" s="19"/>
-      <c r="W364" s="19"/>
-      <c r="X364" s="19"/>
-    </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A365" s="3"/>
-      <c r="B365" s="5"/>
-      <c r="C365" s="3"/>
-      <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="4"/>
-      <c r="G365" s="4"/>
-      <c r="H365" s="3"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="19"/>
-      <c r="K365" s="19"/>
-      <c r="L365" s="19"/>
-      <c r="M365" s="19"/>
-      <c r="N365" s="19"/>
-      <c r="O365" s="19"/>
-      <c r="P365" s="19"/>
-      <c r="Q365" s="19"/>
-      <c r="R365" s="19"/>
-      <c r="S365" s="19"/>
-      <c r="T365" s="19"/>
-      <c r="U365" s="19"/>
-      <c r="V365" s="19"/>
-      <c r="W365" s="19"/>
-      <c r="X365" s="19"/>
-    </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A366" s="3"/>
-      <c r="B366" s="5"/>
-      <c r="C366" s="3"/>
-      <c r="D366" s="9"/>
-      <c r="E366" s="9"/>
-      <c r="F366" s="4"/>
-      <c r="G366" s="4"/>
-      <c r="H366" s="3"/>
-      <c r="I366" s="19"/>
-      <c r="J366" s="19"/>
-      <c r="K366" s="19"/>
-      <c r="L366" s="19"/>
-      <c r="M366" s="19"/>
-      <c r="N366" s="19"/>
-      <c r="O366" s="19"/>
-      <c r="P366" s="19"/>
-      <c r="Q366" s="19"/>
-      <c r="R366" s="19"/>
-      <c r="S366" s="19"/>
-      <c r="T366" s="19"/>
-      <c r="U366" s="19"/>
-      <c r="V366" s="19"/>
-      <c r="W366" s="19"/>
-      <c r="X366" s="19"/>
-    </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A367" s="3"/>
-      <c r="B367" s="5"/>
-      <c r="C367" s="3"/>
-      <c r="D367" s="9"/>
-      <c r="E367" s="9"/>
-      <c r="F367" s="4"/>
-      <c r="G367" s="4"/>
-      <c r="H367" s="3"/>
-      <c r="I367" s="19"/>
-      <c r="J367" s="19"/>
-      <c r="K367" s="19"/>
-      <c r="L367" s="19"/>
-      <c r="M367" s="19"/>
-      <c r="N367" s="19"/>
-      <c r="O367" s="19"/>
-      <c r="P367" s="19"/>
-      <c r="Q367" s="19"/>
-      <c r="R367" s="19"/>
-      <c r="S367" s="19"/>
-      <c r="T367" s="19"/>
-      <c r="U367" s="19"/>
-      <c r="V367" s="19"/>
-      <c r="W367" s="19"/>
-      <c r="X367" s="19"/>
-    </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A368" s="3"/>
-      <c r="B368" s="5"/>
-      <c r="C368" s="3"/>
-      <c r="D368" s="9"/>
-      <c r="E368" s="9"/>
-      <c r="F368" s="4"/>
-      <c r="G368" s="4"/>
-      <c r="H368" s="3"/>
-      <c r="I368" s="19"/>
-      <c r="J368" s="19"/>
-      <c r="K368" s="19"/>
-      <c r="L368" s="19"/>
-      <c r="M368" s="19"/>
-      <c r="N368" s="19"/>
-      <c r="O368" s="19"/>
-      <c r="P368" s="19"/>
-      <c r="Q368" s="19"/>
-      <c r="R368" s="19"/>
-      <c r="S368" s="19"/>
-      <c r="T368" s="19"/>
-      <c r="U368" s="19"/>
-      <c r="V368" s="19"/>
-      <c r="W368" s="19"/>
-      <c r="X368" s="19"/>
-    </row>
-    <row r="369" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="27"/>
-      <c r="B369" s="28"/>
-      <c r="C369" s="27"/>
-      <c r="D369" s="29"/>
-      <c r="E369" s="29"/>
-      <c r="F369" s="30"/>
-      <c r="G369" s="30"/>
-      <c r="H369" s="27"/>
-      <c r="I369" s="31"/>
-      <c r="J369" s="31"/>
-      <c r="K369" s="31"/>
-      <c r="L369" s="31"/>
-      <c r="M369" s="31"/>
-      <c r="N369" s="31"/>
-      <c r="O369" s="31"/>
-      <c r="P369" s="31"/>
-      <c r="Q369" s="31"/>
-      <c r="R369" s="31"/>
-      <c r="S369" s="31"/>
-      <c r="T369" s="31"/>
-      <c r="U369" s="31"/>
-      <c r="V369" s="31"/>
-      <c r="W369" s="31"/>
-      <c r="X369" s="27"/>
-    </row>
-    <row r="370" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="27"/>
-      <c r="B370" s="28"/>
-      <c r="C370" s="27"/>
-      <c r="D370" s="29"/>
-      <c r="E370" s="29"/>
-      <c r="F370" s="30"/>
-      <c r="G370" s="30"/>
-      <c r="H370" s="27"/>
-      <c r="I370" s="31"/>
-      <c r="J370" s="31"/>
-      <c r="K370" s="31"/>
-      <c r="L370" s="31"/>
-      <c r="M370" s="31"/>
-      <c r="N370" s="31"/>
-      <c r="O370" s="31"/>
-      <c r="P370" s="31"/>
-      <c r="Q370" s="31"/>
-      <c r="R370" s="31"/>
-      <c r="S370" s="31"/>
-      <c r="T370" s="31"/>
-      <c r="U370" s="31"/>
-      <c r="V370" s="31"/>
-      <c r="W370" s="31"/>
-      <c r="X370" s="27"/>
+    <row r="361" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="27"/>
+      <c r="B361" s="28"/>
+      <c r="C361" s="27"/>
+      <c r="D361" s="29"/>
+      <c r="E361" s="29"/>
+      <c r="F361" s="30"/>
+      <c r="G361" s="30"/>
+      <c r="H361" s="27"/>
+      <c r="I361" s="31"/>
+      <c r="J361" s="31"/>
+      <c r="K361" s="31"/>
+      <c r="L361" s="31"/>
+      <c r="M361" s="31"/>
+      <c r="N361" s="31"/>
+      <c r="O361" s="31"/>
+      <c r="P361" s="31"/>
+      <c r="Q361" s="31"/>
+      <c r="R361" s="31"/>
+      <c r="S361" s="31"/>
+      <c r="T361" s="31"/>
+      <c r="U361" s="31"/>
+      <c r="V361" s="31"/>
+      <c r="W361" s="31"/>
+      <c r="X361" s="27"/>
+    </row>
+    <row r="362" spans="1:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="27"/>
+      <c r="B362" s="28"/>
+      <c r="C362" s="27"/>
+      <c r="D362" s="29"/>
+      <c r="E362" s="29"/>
+      <c r="F362" s="30"/>
+      <c r="G362" s="30"/>
+      <c r="H362" s="27"/>
+      <c r="I362" s="31"/>
+      <c r="J362" s="31"/>
+      <c r="K362" s="31"/>
+      <c r="L362" s="31"/>
+      <c r="M362" s="31"/>
+      <c r="N362" s="31"/>
+      <c r="O362" s="31"/>
+      <c r="P362" s="31"/>
+      <c r="Q362" s="31"/>
+      <c r="R362" s="31"/>
+      <c r="S362" s="31"/>
+      <c r="T362" s="31"/>
+      <c r="U362" s="31"/>
+      <c r="V362" s="31"/>
+      <c r="W362" s="31"/>
+      <c r="X362" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -23693,10 +23485,10 @@
   <conditionalFormatting sqref="E113:E1048576 E1:E73 E75:E106">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E374:E1048576 E1:E73 E113:E370 E75:E89 A113:G113">
+  <conditionalFormatting sqref="E366:E1048576 E1:E73 E113:E362 E75:E89">
     <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E374:E1048576 E1:E73 E113:E370 E75:E95">
+  <conditionalFormatting sqref="E366:E1048576 E1:E73 E113:E362 E75:E95">
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811C104-8F5B-4D3B-AA3D-76EF6FA4FF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78343B6-D570-440E-B618-B4EEFF80AFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="1652">
   <si>
     <t>PartNumber</t>
   </si>
@@ -5002,6 +5002,10 @@
   </si>
   <si>
     <t>SC2498CUA-N-Q-DB-60AK-2498C</t>
+  </si>
+  <si>
+    <t>SC9641TS-362-Q-CB-10LR-9641</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5286,7 +5290,297 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5636,10 +5930,10 @@
   <dimension ref="A1:AQ362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6057,9 +6351,7 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <v>2000000</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="19">
         <v>2400000</v>
@@ -6920,7 +7212,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="4">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="19">
@@ -8432,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="19">
@@ -16973,13 +17265,21 @@
       <c r="X112" s="19"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="14" t="s">
+        <v>1651</v>
+      </c>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4">
+        <v>100000</v>
+      </c>
       <c r="H113" s="3"/>
       <c r="I113" s="19"/>
       <c r="J113" s="19"/>
@@ -23476,21 +23776,76 @@
   <autoFilter ref="A1:AQ108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="E1:E112 E114:E1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E1048576 E1:E73 E75:E106">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="E114:E1048576 E1:E73 E75:E106">
+    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E366:E1048576 E1:E73 E113:E362 E75:E89">
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  <conditionalFormatting sqref="E366:E1048576 E1:E73 E114:E362 E75:E89">
+    <cfRule type="duplicateValues" dxfId="31" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E366:E1048576 E1:E73 E113:E362 E75:E95">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  <conditionalFormatting sqref="E366:E1048576 E1:E73 E114:E362 E75:E95">
+    <cfRule type="duplicateValues" dxfId="30" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78343B6-D570-440E-B618-B4EEFF80AFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A0AAC-0ED3-4191-AE1D-15BA5A86506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5930,10 +5930,10 @@
   <dimension ref="A1:AQ362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G114" sqref="G114"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="19">
@@ -23782,70 +23782,46 @@
   <conditionalFormatting sqref="E1:E112 E114:E1048576">
     <cfRule type="duplicateValues" dxfId="33" priority="30"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E114:E1048576 E1:E73 E75:E106">
-    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E366:E1048576 E1:E73 E114:E362 E75:E89">
-    <cfRule type="duplicateValues" dxfId="31" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E366:E1048576 E1:E73 E114:E362 E75:E95">
-    <cfRule type="duplicateValues" dxfId="30" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A0AAC-0ED3-4191-AE1D-15BA5A86506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C199B-6A9A-4462-AF2A-5FB54B8CEFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5930,10 +5930,10 @@
   <dimension ref="A1:AQ362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="4">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="19">

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C199B-6A9A-4462-AF2A-5FB54B8CEFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4DD1B3-B7C4-42E3-8062-A936BC18508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5930,10 +5930,10 @@
   <dimension ref="A1:AQ362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6351,7 +6351,9 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>1000000</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="19">
         <v>2400000</v>
@@ -7087,7 +7089,9 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>500000</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="19">
         <v>320000</v>
@@ -8220,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="19">
@@ -8850,7 +8854,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="4">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="19">
@@ -17176,7 +17180,7 @@
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="4">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="19"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\131\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD97C96D-C696-450C-BE22-5D8858CCF947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055BD484-3506-4440-83A7-F2042222C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5970,10 +5970,10 @@
   <dimension ref="A1:AQ363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16693,9 +16693,7 @@
         <v>1618</v>
       </c>
       <c r="F94" s="3"/>
-      <c r="G94" s="4">
-        <v>50000</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="3"/>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
@@ -23880,12 +23878,12 @@
     <cfRule type="duplicateValues" dxfId="38" priority="38"/>
     <cfRule type="duplicateValues" dxfId="37" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E116:E1048576 E1:E2 E4:E113">
-    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
     <cfRule type="duplicateValues" dxfId="33" priority="6"/>
     <cfRule type="duplicateValues" dxfId="32" priority="7"/>
     <cfRule type="duplicateValues" dxfId="31" priority="8"/>
@@ -23913,25 +23911,21 @@
     <cfRule type="duplicateValues" dxfId="9" priority="30"/>
     <cfRule type="duplicateValues" dxfId="8" priority="31"/>
     <cfRule type="duplicateValues" dxfId="7" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E1048576 E1:E2 E4:E74 E76:E107">
-    <cfRule type="duplicateValues" dxfId="6" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:E1048576 E1:E2 E4:E113">
+    <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E367:E1048576 E1:E2 E4:E74 E116:E363 E76:E90">
-    <cfRule type="duplicateValues" dxfId="5" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E367:E1048576 E1:E2 E4:E74 E116:E363 E76:E96">
-    <cfRule type="duplicateValues" dxfId="4" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/安全库存.xlsx
+++ b/安全库存.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\03 - 安全库存\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4DD1B3-B7C4-42E3-8062-A936BC18508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152DFCB-7CBC-4F84-9D27-54A6C7D33F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5930,10 +5930,10 @@
   <dimension ref="A1:AQ362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11618,7 +11618,7 @@
         <v>25</v>
       </c>
       <c r="G46" s="4">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="19">
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="4">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="19">
